--- a/data_table/Skill.xlsx
+++ b/data_table/Skill.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>#</t>
   </si>
@@ -70,6 +70,9 @@
     <t>effectList</t>
   </si>
   <si>
+    <t>releaseRange</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -92,6 +95,9 @@
   </si>
   <si>
     <t>触发的效果列表</t>
+  </si>
+  <si>
+    <t>释放距离</t>
   </si>
   <si>
     <t>上官翎技能1</t>
@@ -132,6 +138,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -139,8 +160,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,37 +177,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,9 +190,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,62 +267,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,187 +295,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,23 +492,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,8 +546,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,10 +594,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -600,133 +606,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1091,22 +1097,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="23.375" customWidth="1"/>
     <col min="4" max="4" width="25.375" customWidth="1"/>
     <col min="5" max="5" width="17.125" customWidth="1"/>
     <col min="6" max="6" width="19.75" customWidth="1"/>
+    <col min="7" max="7" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1125,48 +1132,57 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="3" ht="93" customHeight="1" spans="1:6">
+    <row r="3" ht="93" customHeight="1" spans="1:7">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1174,19 +1190,22 @@
         <v>2001001</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>15011001</v>
+        <v>3001001</v>
+      </c>
+      <c r="G4">
+        <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1194,16 +1213,19 @@
         <v>2001002</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>15011002</v>
+        <v>3001001</v>
+      </c>
+      <c r="G5">
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="3:5">

--- a/data_table/Skill.xlsx
+++ b/data_table/Skill.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>#</t>
   </si>
@@ -100,16 +100,13 @@
     <t>释放距离</t>
   </si>
   <si>
+    <t>上官翎普通攻击</t>
+  </si>
+  <si>
     <t>上官翎技能1</t>
   </si>
   <si>
-    <t>上官翎技能1介绍</t>
-  </si>
-  <si>
-    <t>上官翎技能2</t>
-  </si>
-  <si>
-    <t>上官翎技能2介绍</t>
+    <t>上官翎技能 1 介绍 向一个点发射球攻击</t>
   </si>
 </sst>
 </file>
@@ -117,10 +114,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -131,10 +128,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -146,119 +196,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -267,6 +204,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -275,9 +226,50 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -285,6 +277,11 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -295,6 +292,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -302,180 +473,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,11 +486,52 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,21 +547,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,34 +569,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,8 +578,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,10 +591,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -606,133 +603,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1100,7 +1097,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -1108,7 +1105,7 @@
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="23.375" customWidth="1"/>
     <col min="4" max="4" width="25.375" customWidth="1"/>
-    <col min="5" max="5" width="17.125" customWidth="1"/>
+    <col min="5" max="5" width="23.25" customWidth="1"/>
     <col min="6" max="6" width="19.75" customWidth="1"/>
     <col min="7" max="7" width="14.375" customWidth="1"/>
   </cols>
@@ -1193,7 +1190,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -1213,16 +1210,16 @@
         <v>2001002</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>3001001</v>
+        <v>3001002</v>
       </c>
       <c r="G5">
         <v>400</v>
@@ -1252,7 +1249,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1269,7 +1266,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_table/Skill.xlsx
+++ b/data_table/Skill.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>#</t>
   </si>
@@ -73,6 +73,12 @@
     <t>releaseRange</t>
   </si>
   <si>
+    <t>lastTime</t>
+  </si>
+  <si>
+    <t>cdTime</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -97,7 +103,13 @@
     <t>触发的效果列表</t>
   </si>
   <si>
-    <t>释放距离</t>
+    <t>释放距离(普通攻击不走这个 走属性)</t>
+  </si>
+  <si>
+    <t>释放技能时持续时间（毫秒）(相当于前摇 + 释放 + 后摇))</t>
+  </si>
+  <si>
+    <t>技能CD（毫秒）(在释放技能结束后开始计时)(普通攻击不计算在这里)</t>
   </si>
   <si>
     <t>上官翎普通攻击</t>
@@ -107,6 +119,9 @@
   </si>
   <si>
     <t>上官翎技能 1 介绍 向一个点发射球攻击</t>
+  </si>
+  <si>
+    <t>怪物普通攻击</t>
   </si>
 </sst>
 </file>
@@ -115,9 +130,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -128,7 +143,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -136,6 +218,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -143,38 +241,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,39 +265,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,45 +282,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,6 +307,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -304,175 +361,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,6 +498,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -501,36 +525,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -551,16 +555,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -577,9 +590,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,10 +606,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -603,133 +618,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1094,13 +1109,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="23.375" customWidth="1"/>
@@ -1108,9 +1123,11 @@
     <col min="5" max="5" width="23.25" customWidth="1"/>
     <col min="6" max="6" width="19.75" customWidth="1"/>
     <col min="7" max="7" width="14.375" customWidth="1"/>
+    <col min="8" max="8" width="19.25" customWidth="1"/>
+    <col min="9" max="9" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1132,54 +1149,72 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" ht="93" customHeight="1" spans="1:7">
+    <row r="3" ht="93" customHeight="1" spans="1:9">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1187,22 +1222,28 @@
         <v>2001001</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>3001001</v>
       </c>
-      <c r="G4">
-        <v>400</v>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>500</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1210,30 +1251,55 @@
         <v>2001002</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>3001002</v>
       </c>
-      <c r="G5">
-        <v>400</v>
+      <c r="G5" s="1">
+        <v>8000</v>
+      </c>
+      <c r="H5" s="1">
+        <v>500</v>
+      </c>
+      <c r="I5" s="1">
+        <v>3000</v>
       </c>
     </row>
-    <row r="6" spans="3:5">
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" ht="15" customHeight="1" spans="3:5">
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>2002001</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3002001</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1500</v>
+      </c>
+      <c r="H7" s="1">
+        <v>500</v>
+      </c>
+      <c r="I7" s="1">
+        <v>3000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_table/Skill.xlsx
+++ b/data_table/Skill.xlsx
@@ -45,12 +45,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="F3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Zxy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0 前后摇技能(变为 Idle 然后前摇时间 释放技能 后摇时间)
+1 持续技能(变为 idle 持续时间依靠 skillEffect )
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
   <si>
     <t>#</t>
   </si>
@@ -67,13 +91,19 @@
     <t>skillReleaseTargeType</t>
   </si>
   <si>
+    <t>skillReleaseType</t>
+  </si>
+  <si>
     <t>effectList</t>
   </si>
   <si>
     <t>releaseRange</t>
   </si>
   <si>
-    <t>lastTime</t>
+    <t>beforeTime</t>
+  </si>
+  <si>
+    <t>afterTime</t>
   </si>
   <si>
     <t>cdTime</t>
@@ -100,13 +130,19 @@
     <t>技能释放目标类型</t>
   </si>
   <si>
+    <t xml:space="preserve">技能释放类型 </t>
+  </si>
+  <si>
     <t>触发的效果列表</t>
   </si>
   <si>
     <t>释放距离(普通攻击不走这个 走属性)</t>
   </si>
   <si>
-    <t>释放技能时持续时间（毫秒）(相当于前摇 + 释放 + 后摇))</t>
+    <t>释放技能时前摇时间(毫秒)</t>
+  </si>
+  <si>
+    <t>释放技能时后摇时间(毫秒)</t>
   </si>
   <si>
     <t>技能CD（毫秒）(在释放技能结束后开始计时)(普通攻击不计算在这里)</t>
@@ -119,6 +155,27 @@
   </si>
   <si>
     <t>上官翎技能 1 介绍 向一个点发射球攻击</t>
+  </si>
+  <si>
+    <t>上官翎技能2</t>
+  </si>
+  <si>
+    <t>上官翎技能 2 介绍 周围击晕</t>
+  </si>
+  <si>
+    <t>上官翎技能3</t>
+  </si>
+  <si>
+    <t>上官翎技能 3 介绍 快速移动到指定位置 伤害沿途敌人</t>
+  </si>
+  <si>
+    <t>上官翎技能4</t>
+  </si>
+  <si>
+    <t>上官翎技能 4 介绍 目标流血并且降低攻击力</t>
+  </si>
+  <si>
+    <t>14001003,14001004</t>
   </si>
   <si>
     <t>怪物普通攻击</t>
@@ -129,10 +186,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -143,6 +200,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -152,6 +231,98 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,123 +336,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,67 +364,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,115 +538,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,15 +555,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -525,17 +573,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,43 +635,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,10 +663,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -618,137 +675,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -760,6 +817,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1109,25 +1169,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="23.375" customWidth="1"/>
     <col min="4" max="4" width="25.375" customWidth="1"/>
     <col min="5" max="5" width="23.25" customWidth="1"/>
-    <col min="6" max="6" width="19.75" customWidth="1"/>
-    <col min="7" max="7" width="14.375" customWidth="1"/>
-    <col min="8" max="8" width="19.25" customWidth="1"/>
-    <col min="9" max="9" width="18.625" customWidth="1"/>
+    <col min="6" max="6" width="18.375" customWidth="1"/>
+    <col min="7" max="7" width="19.75" customWidth="1"/>
+    <col min="8" max="8" width="14.375" customWidth="1"/>
+    <col min="9" max="10" width="19.25" customWidth="1"/>
+    <col min="11" max="11" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1152,69 +1213,87 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" ht="93" customHeight="1" spans="1:9">
+    <row r="3" ht="93" customHeight="1" spans="1:11">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1222,28 +1301,34 @@
         <v>2001001</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
         <v>3001001</v>
       </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
       <c r="H4" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1">
+        <v>200</v>
+      </c>
+      <c r="J4" s="1">
+        <v>200</v>
+      </c>
+      <c r="K4" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1251,54 +1336,171 @@
         <v>2001002</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
       </c>
       <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
         <v>3001002</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>8000</v>
       </c>
-      <c r="H5" s="1">
-        <v>500</v>
-      </c>
       <c r="I5" s="1">
-        <v>3000</v>
+        <v>200</v>
+      </c>
+      <c r="J5" s="1">
+        <v>200</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>2001003</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>13001003</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>200</v>
+      </c>
+      <c r="J6" s="1">
+        <v>200</v>
+      </c>
+      <c r="K6" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>0</v>
       </c>
       <c r="B7">
+        <v>2001004</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>16001001</v>
+      </c>
+      <c r="H7" s="1">
+        <v>8000</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>2001005</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="1">
+        <v>12000</v>
+      </c>
+      <c r="I8" s="1">
+        <v>200</v>
+      </c>
+      <c r="J8" s="1">
+        <v>200</v>
+      </c>
+      <c r="K8" s="1">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
         <v>2002001</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="C10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="1">
         <v>1</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
         <v>3002001</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H10" s="1">
         <v>1500</v>
       </c>
-      <c r="H7" s="1">
-        <v>500</v>
-      </c>
-      <c r="I7" s="1">
-        <v>3000</v>
+      <c r="I10" s="1">
+        <v>200</v>
+      </c>
+      <c r="J10" s="1">
+        <v>200</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1315,7 +1517,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1332,7 +1534,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_table/Skill.xlsx
+++ b/data_table/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="24225" windowHeight="12090"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -172,7 +172,7 @@
     <t>上官翎技能4</t>
   </si>
   <si>
-    <t>上官翎技能 4 介绍 目标流血并且降低攻击力</t>
+    <t>上官翎技能 4 介绍 目标流血并且降低移动速度</t>
   </si>
   <si>
     <t>14001003,14001004</t>
@@ -187,9 +187,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -200,75 +200,121 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,66 +328,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -349,11 +354,6 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -364,19 +364,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,163 +544,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,6 +573,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -590,53 +605,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -655,6 +626,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -663,10 +663,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -675,133 +675,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1172,14 +1172,14 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="23.375" customWidth="1"/>
-    <col min="4" max="4" width="25.375" customWidth="1"/>
+    <col min="4" max="4" width="41.875" customWidth="1"/>
     <col min="5" max="5" width="23.25" customWidth="1"/>
     <col min="6" max="6" width="18.375" customWidth="1"/>
     <col min="7" max="7" width="19.75" customWidth="1"/>

--- a/data_table/Skill.xlsx
+++ b/data_table/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12090"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,12 +69,60 @@
         </r>
       </text>
     </comment>
+    <comment ref="G3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Zxy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+技能效果中都是被动效果的才是被动技能
+只要有一个主动效果就不能算是被动技能
+被动技能上场直接给该技能拥有的实体</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Zxy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0 无
+1 技能目标单位
+2 技能释放着</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
   <si>
     <t>#</t>
   </si>
@@ -94,6 +142,12 @@
     <t>skillReleaseType</t>
   </si>
   <si>
+    <t>isPassiveSkill</t>
+  </si>
+  <si>
+    <t>skillTargetType</t>
+  </si>
+  <si>
     <t>effectList</t>
   </si>
   <si>
@@ -109,6 +163,9 @@
     <t>cdTime</t>
   </si>
   <si>
+    <t>releaserEffectResId</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -133,6 +190,12 @@
     <t xml:space="preserve">技能释放类型 </t>
   </si>
   <si>
+    <t>是否是被动技能</t>
+  </si>
+  <si>
+    <t>技能目标类型</t>
+  </si>
+  <si>
     <t>触发的效果列表</t>
   </si>
   <si>
@@ -145,7 +208,10 @@
     <t>释放技能时后摇时间(毫秒)</t>
   </si>
   <si>
-    <t>技能CD（毫秒）(在释放技能结束后开始计时)(普通攻击不计算在这里)</t>
+    <t>技能CD（毫秒）(在释放技能结束后,后摇时间开始前,则开始计时)(普通攻击不计算在这里)</t>
+  </si>
+  <si>
+    <t>释放者释放技能时候在身上的特效</t>
   </si>
   <si>
     <t>上官翎普通攻击</t>
@@ -163,6 +229,9 @@
     <t>上官翎技能 2 介绍 周围击晕</t>
   </si>
   <si>
+    <t>13001003</t>
+  </si>
+  <si>
     <t>上官翎技能3</t>
   </si>
   <si>
@@ -179,6 +248,42 @@
   </si>
   <si>
     <t>怪物普通攻击</t>
+  </si>
+  <si>
+    <t>刀疤普通攻击</t>
+  </si>
+  <si>
+    <t>刀疤技能1</t>
+  </si>
+  <si>
+    <t>刀疤技能 1 介绍 向前发射三个可回来的回旋镖</t>
+  </si>
+  <si>
+    <t>17001001</t>
+  </si>
+  <si>
+    <t>日炎</t>
+  </si>
+  <si>
+    <t>日炎 每隔一段时间对周围造成伤害</t>
+  </si>
+  <si>
+    <t>14001005</t>
+  </si>
+  <si>
+    <t>3环高伤害</t>
+  </si>
+  <si>
+    <t>3环高伤害 每次普通攻击敌方加buff 3 层则造成伤害</t>
+  </si>
+  <si>
+    <t>18001001</t>
+  </si>
+  <si>
+    <t>攻击命中时有概率回复生命值</t>
+  </si>
+  <si>
+    <t>18001002</t>
   </si>
 </sst>
 </file>
@@ -186,8 +291,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -208,6 +313,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -222,27 +341,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -253,7 +351,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,15 +388,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -291,23 +405,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,14 +424,6 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -336,17 +435,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -354,6 +454,11 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -364,187 +469,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,17 +693,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,7 +706,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,11 +726,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,8 +744,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -663,145 +768,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1169,26 +1274,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="23.375" customWidth="1"/>
-    <col min="4" max="4" width="41.875" customWidth="1"/>
+    <col min="4" max="4" width="50.75" customWidth="1"/>
     <col min="5" max="5" width="23.25" customWidth="1"/>
-    <col min="6" max="6" width="18.375" customWidth="1"/>
-    <col min="7" max="7" width="19.75" customWidth="1"/>
-    <col min="8" max="8" width="14.375" customWidth="1"/>
-    <col min="9" max="10" width="19.25" customWidth="1"/>
-    <col min="11" max="11" width="18.625" customWidth="1"/>
+    <col min="6" max="8" width="18.375" customWidth="1"/>
+    <col min="9" max="9" width="19.75" customWidth="1"/>
+    <col min="10" max="10" width="14.375" customWidth="1"/>
+    <col min="11" max="12" width="19.25" customWidth="1"/>
+    <col min="13" max="13" width="18.625" customWidth="1"/>
+    <col min="14" max="14" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1219,81 +1325,108 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3" ht="93" customHeight="1" spans="1:11">
+    <row r="3" ht="93" customHeight="1" spans="1:14">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1301,10 +1434,10 @@
         <v>2001001</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -1313,22 +1446,31 @@
         <v>0</v>
       </c>
       <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
         <v>3001001</v>
       </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
         <v>200</v>
       </c>
-      <c r="J4" s="1">
+      <c r="L4" s="1">
         <v>200</v>
       </c>
-      <c r="K4" s="1">
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1336,10 +1478,10 @@
         <v>2001002</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
@@ -1348,22 +1490,31 @@
         <v>0</v>
       </c>
       <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
         <v>3001002</v>
       </c>
-      <c r="H5" s="1">
+      <c r="J5" s="1">
         <v>8000</v>
       </c>
-      <c r="I5" s="1">
+      <c r="K5" s="1">
         <v>200</v>
       </c>
-      <c r="J5" s="1">
+      <c r="L5" s="1">
         <v>200</v>
       </c>
-      <c r="K5" s="1">
+      <c r="M5" s="1">
         <v>1000</v>
       </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1371,10 +1522,10 @@
         <v>2001003</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -1383,22 +1534,31 @@
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>13001003</v>
+        <v>0</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
         <v>200</v>
       </c>
-      <c r="J6" s="1">
+      <c r="L6" s="1">
         <v>200</v>
       </c>
-      <c r="K6" s="1">
+      <c r="M6" s="1">
         <v>2000</v>
       </c>
+      <c r="N6">
+        <v>15008005</v>
+      </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1406,10 +1566,10 @@
         <v>2001004</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
@@ -1418,22 +1578,31 @@
         <v>1</v>
       </c>
       <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
         <v>16001001</v>
       </c>
-      <c r="H7" s="1">
+      <c r="J7" s="1">
         <v>8000</v>
       </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
       <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
         <v>1500</v>
       </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1441,10 +1610,10 @@
         <v>2001005</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -1452,23 +1621,32 @@
       <c r="F8" s="1">
         <v>0</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>33</v>
+      <c r="G8" s="1">
+        <v>0</v>
       </c>
       <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="1">
         <v>12000</v>
       </c>
-      <c r="I8" s="1">
+      <c r="K8" s="1">
         <v>200</v>
       </c>
-      <c r="J8" s="1">
+      <c r="L8" s="1">
         <v>200</v>
       </c>
-      <c r="K8" s="1">
+      <c r="M8" s="1">
         <v>7000</v>
       </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1476,10 +1654,10 @@
         <v>2002001</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -1488,18 +1666,214 @@
         <v>0</v>
       </c>
       <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
         <v>3002001</v>
       </c>
-      <c r="H10" s="1">
-        <v>1500</v>
-      </c>
-      <c r="I10" s="1">
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
         <v>200</v>
       </c>
-      <c r="J10" s="1">
+      <c r="L10" s="1">
         <v>200</v>
       </c>
-      <c r="K10" s="1">
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>2002010</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>2002011</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" s="1">
+        <v>8000</v>
+      </c>
+      <c r="K13" s="1">
+        <v>200</v>
+      </c>
+      <c r="L13" s="1">
+        <v>200</v>
+      </c>
+      <c r="M13" s="1">
+        <v>2500</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>2002030</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>2</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>50</v>
+      </c>
+      <c r="L15" s="1">
+        <v>50</v>
+      </c>
+      <c r="M15" s="1">
+        <v>6000</v>
+      </c>
+      <c r="N15">
+        <v>15008005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>2002031</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>2</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>2002032</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>2</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17">
         <v>0</v>
       </c>
     </row>

--- a/data_table/Skill.xlsx
+++ b/data_table/Skill.xlsx
@@ -449,12 +449,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1277,7 +1277,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_table/Skill.xlsx
+++ b/data_table/Skill.xlsx
@@ -262,10 +262,10 @@
     <t>17001001</t>
   </si>
   <si>
-    <t>日炎</t>
-  </si>
-  <si>
-    <t>日炎 每隔一段时间对周围造成伤害</t>
+    <t>日炎buff</t>
+  </si>
+  <si>
+    <t>附加日炎buff 每隔一段时间对周围造成伤害</t>
   </si>
   <si>
     <t>14001005</t>
@@ -1276,8 +1276,8 @@
   <sheetPr/>
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_table/Skill.xlsx
+++ b/data_table/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -117,12 +117,157 @@
         </r>
       </text>
     </comment>
+    <comment ref="O3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Zxy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0 无
+1 矩形</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Zxy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+根据 skillDirectorType 决定
+0 : 无
+1 : [1]效果资源id , [2]:x长度(*1000) , [3]:z 长度(*1000)
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Zxy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0 : 无
+1 : 圆形</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Zxy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+根据 skillReleaseDirectorType 决定
+(普通攻击的范围需要特殊动态处理)
+0 : 无
+1 : [1]:效果资源id [2]:大小(*1000) [3]:旋转类型(0 不旋转, 1 释放者到目标方向)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Zxy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0 : 无
+1 : 可旋转效果</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Zxy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+根据 skillTargetDirectorType 决定
+(普通攻击的范围需要特殊动态处理)
+0 : 无
+1 : [1]:效果资源id [2]:大小(*1000) [3]:旋转类型(0 不旋转, 1 释放者到目标方向)
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="80">
   <si>
     <t>#</t>
   </si>
@@ -166,6 +311,24 @@
     <t>releaserEffectResId</t>
   </si>
   <si>
+    <t>skillDirectorType</t>
+  </si>
+  <si>
+    <t>skillDirectorParam</t>
+  </si>
+  <si>
+    <t>skillReleaserDirectType</t>
+  </si>
+  <si>
+    <t>skillReleaserDirectParam</t>
+  </si>
+  <si>
+    <t>skillTargetDirectType</t>
+  </si>
+  <si>
+    <t>skillTargetDirectParam</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -214,46 +377,115 @@
     <t>释放者释放技能时候在身上的特效</t>
   </si>
   <si>
-    <t>上官翎普通攻击</t>
-  </si>
-  <si>
-    <t>上官翎技能1</t>
-  </si>
-  <si>
-    <t>上官翎技能 1 介绍 向一个点发射球攻击</t>
-  </si>
-  <si>
-    <t>上官翎技能2</t>
-  </si>
-  <si>
-    <t>上官翎技能 2 介绍 周围击晕</t>
+    <t>技能释放 指示器类型</t>
+  </si>
+  <si>
+    <t>技能释放 指示器参数</t>
+  </si>
+  <si>
+    <t>技能释放 释放者 指示类型</t>
+  </si>
+  <si>
+    <t>释放者指示参数</t>
+  </si>
+  <si>
+    <t>技能释放 目标 指示类型</t>
+  </si>
+  <si>
+    <t>目标指示参数</t>
+  </si>
+  <si>
+    <t>上官唯 普通攻击</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>15008102,1500,0</t>
+  </si>
+  <si>
+    <t>上官唯 技能1</t>
+  </si>
+  <si>
+    <t>上官唯 技能 1 介绍 向一个点短距离发射球攻击</t>
+  </si>
+  <si>
+    <t>1500810,1500,2000</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>上官唯 技能2</t>
+  </si>
+  <si>
+    <t>上官唯 技能 2 介绍 周围击晕</t>
   </si>
   <si>
     <t>13001003</t>
   </si>
   <si>
-    <t>上官翎技能3</t>
-  </si>
-  <si>
-    <t>上官翎技能 3 介绍 快速移动到指定位置 伤害沿途敌人</t>
-  </si>
-  <si>
-    <t>上官翎技能4</t>
-  </si>
-  <si>
-    <t>上官翎技能 4 介绍 目标流血并且降低移动速度</t>
+    <t>上官唯 技能3</t>
+  </si>
+  <si>
+    <t>上官唯 技能 3 介绍 攻击时有概率恢复自身生命值</t>
+  </si>
+  <si>
+    <t>18001002</t>
+  </si>
+  <si>
+    <t>唐依 普通攻击</t>
+  </si>
+  <si>
+    <t>15008102,6000,0</t>
+  </si>
+  <si>
+    <t>唐依 技能1</t>
+  </si>
+  <si>
+    <t>唐依 技能1 介绍 向一个点发射长距离的穿刺箭攻击</t>
+  </si>
+  <si>
+    <t>15008101,2000,1</t>
+  </si>
+  <si>
+    <t>唐依 技能2</t>
+  </si>
+  <si>
+    <t>唐依 技能2 介绍 目标流血并且降低移动速度</t>
   </si>
   <si>
     <t>14001003,14001004</t>
   </si>
   <si>
-    <t>怪物普通攻击</t>
-  </si>
-  <si>
-    <t>刀疤普通攻击</t>
-  </si>
-  <si>
-    <t>刀疤技能1</t>
+    <t>15008102,12000,0</t>
+  </si>
+  <si>
+    <t>唐依 技能3</t>
+  </si>
+  <si>
+    <t>唐依 技能3 介绍 3环伤害 每次普通攻击敌方加buff ， 3 层则造成伤害</t>
+  </si>
+  <si>
+    <t>18001001</t>
+  </si>
+  <si>
+    <t>怪物 普通攻击</t>
+  </si>
+  <si>
+    <t>怪物 技能1</t>
+  </si>
+  <si>
+    <t>怪物 技能 1 介绍 向一个点短距离发射球攻击</t>
+  </si>
+  <si>
+    <t>刀疤 普通攻击</t>
+  </si>
+  <si>
+    <t>刀疤 技能1</t>
   </si>
   <si>
     <t>刀疤技能 1 介绍 向前发射三个可回来的回旋镖</t>
@@ -262,28 +494,19 @@
     <t>17001001</t>
   </si>
   <si>
-    <t>日炎buff</t>
-  </si>
-  <si>
-    <t>附加日炎buff 每隔一段时间对周围造成伤害</t>
+    <t>刀疤 技能2</t>
+  </si>
+  <si>
+    <t>刀疤技能 2 介绍 附加日炎buff 每隔一段时间对周围造成伤害</t>
   </si>
   <si>
     <t>14001005</t>
   </si>
   <si>
-    <t>3环高伤害</t>
-  </si>
-  <si>
-    <t>3环高伤害 每次普通攻击敌方加buff 3 层则造成伤害</t>
-  </si>
-  <si>
-    <t>18001001</t>
-  </si>
-  <si>
-    <t>攻击命中时有概率回复生命值</t>
-  </si>
-  <si>
-    <t>18001002</t>
+    <t>刀疤 技能3</t>
+  </si>
+  <si>
+    <t>刀疤技能 3 介绍 快速移动到指定位置 伤害沿途敌人</t>
   </si>
 </sst>
 </file>
@@ -449,23 +672,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -768,10 +997,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -780,16 +1009,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -801,10 +1030,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -825,28 +1054,28 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -855,19 +1084,16 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -879,39 +1105,54 @@
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -923,7 +1164,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1274,31 +1530,39 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="23.375" customWidth="1"/>
-    <col min="4" max="4" width="50.75" customWidth="1"/>
+    <col min="4" max="4" width="55.125" customWidth="1"/>
     <col min="5" max="5" width="23.25" customWidth="1"/>
     <col min="6" max="8" width="18.375" customWidth="1"/>
     <col min="9" max="9" width="19.75" customWidth="1"/>
     <col min="10" max="10" width="14.375" customWidth="1"/>
     <col min="11" max="12" width="19.25" customWidth="1"/>
     <col min="13" max="13" width="18.625" customWidth="1"/>
-    <col min="14" max="14" width="22.625" customWidth="1"/>
+    <col min="14" max="15" width="22.625" customWidth="1"/>
+    <col min="16" max="16" width="22.625" style="3" customWidth="1"/>
+    <col min="17" max="18" width="25.625" style="3" customWidth="1"/>
+    <col min="19" max="19" width="23" style="4" customWidth="1"/>
+    <col min="20" max="20" width="21.875" style="4" customWidth="1"/>
+    <col min="21" max="21" width="21.875" customWidth="1"/>
+    <col min="22" max="22" width="27.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1331,549 +1595,1063 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
       <c r="N1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="L2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="N2" t="s">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="O2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="3" ht="93" customHeight="1" spans="1:14">
+    <row r="3" ht="93" customHeight="1" spans="1:20">
       <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="D3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="E3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="F3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="G3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="H3" s="7" t="s">
         <v>29</v>
       </c>
+      <c r="I3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4">
         <v>2001001</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="C4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="5">
         <v>1</v>
       </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
         <v>1</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="5">
         <v>3001001</v>
       </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
+        <v>100</v>
+      </c>
+      <c r="L4" s="5">
         <v>200</v>
       </c>
-      <c r="L4" s="1">
-        <v>200</v>
-      </c>
-      <c r="M4" s="1">
+      <c r="M4" s="5">
         <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>1</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S4" s="4">
+        <v>0</v>
+      </c>
+      <c r="T4" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5">
         <v>2001002</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="C5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="5">
         <v>2</v>
       </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
         <v>3001002</v>
       </c>
-      <c r="J5" s="1">
-        <v>8000</v>
-      </c>
-      <c r="K5" s="1">
+      <c r="J5" s="5">
+        <v>2000</v>
+      </c>
+      <c r="K5" s="5">
+        <v>100</v>
+      </c>
+      <c r="L5" s="5">
         <v>200</v>
       </c>
-      <c r="L5" s="1">
-        <v>200</v>
-      </c>
-      <c r="M5" s="1">
+      <c r="M5" s="5">
         <v>1000</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="S5" s="4">
+        <v>0</v>
+      </c>
+      <c r="T5" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
         <v>0</v>
       </c>
       <c r="B6">
         <v>2001003</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
+      <c r="C6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>100</v>
+      </c>
+      <c r="L6" s="5">
         <v>200</v>
       </c>
-      <c r="L6" s="1">
-        <v>200</v>
-      </c>
-      <c r="M6" s="1">
+      <c r="M6" s="5">
         <v>2000</v>
       </c>
       <c r="N6">
-        <v>15008005</v>
+        <v>15008014</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S6" s="4">
+        <v>0</v>
+      </c>
+      <c r="T6" s="4">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" customFormat="1" spans="1:20">
       <c r="A7" t="s">
         <v>0</v>
       </c>
       <c r="B7">
         <v>2001004</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="C7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5">
         <v>2</v>
       </c>
-      <c r="F7" s="1">
+      <c r="I7" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S7" s="4">
+        <v>0</v>
+      </c>
+      <c r="T7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="20:20">
+      <c r="T8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>2001021</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="5">
         <v>1</v>
       </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5">
+        <v>3001011</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
+        <v>550</v>
+      </c>
+      <c r="L10" s="5">
+        <v>200</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>2001022</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="5">
+        <v>2</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>3001012</v>
+      </c>
+      <c r="J11" s="5">
+        <v>6000</v>
+      </c>
+      <c r="K11" s="5">
+        <v>550</v>
+      </c>
+      <c r="L11" s="5">
+        <v>200</v>
+      </c>
+      <c r="M11" s="5">
+        <v>1000</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>2001023</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12" s="5">
+        <v>12000</v>
+      </c>
+      <c r="K12" s="5">
+        <v>550</v>
+      </c>
+      <c r="L12" s="5">
+        <v>200</v>
+      </c>
+      <c r="M12" s="5">
+        <v>7000</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>2001024</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1</v>
+      </c>
+      <c r="H13" s="5">
+        <v>2</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="3:20">
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+    </row>
+    <row r="16" spans="3:13">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+    </row>
+    <row r="17" customFormat="1" spans="3:20">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+    </row>
+    <row r="18" customFormat="1" spans="3:20">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+    </row>
+    <row r="19" customFormat="1" spans="3:20">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+    </row>
+    <row r="20" customFormat="1" spans="3:20">
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+    </row>
+    <row r="21" customFormat="1" spans="3:20">
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+    </row>
+    <row r="22" s="2" customFormat="1" spans="16:20">
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>2002001</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="5">
+        <v>1</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0</v>
+      </c>
+      <c r="H24" s="5">
+        <v>1</v>
+      </c>
+      <c r="I24" s="5">
+        <v>3002001</v>
+      </c>
+      <c r="J24" s="5">
+        <v>0</v>
+      </c>
+      <c r="K24" s="5">
+        <v>200</v>
+      </c>
+      <c r="L24" s="5">
+        <v>200</v>
+      </c>
+      <c r="M24" s="5">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>2002002</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="5">
+        <v>2</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0</v>
+      </c>
+      <c r="H25" s="5">
+        <v>0</v>
+      </c>
+      <c r="I25" s="5">
+        <v>3002002</v>
+      </c>
+      <c r="J25" s="5">
+        <v>2000</v>
+      </c>
+      <c r="K25" s="5">
+        <v>200</v>
+      </c>
+      <c r="L25" s="5">
+        <v>200</v>
+      </c>
+      <c r="M25" s="5">
+        <v>1000</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" spans="1:20">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>2003001</v>
+      </c>
+      <c r="C27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="5">
+        <v>1</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0</v>
+      </c>
+      <c r="H27" s="5">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>3003001</v>
+      </c>
+      <c r="J27" s="5">
+        <v>0</v>
+      </c>
+      <c r="K27" s="5">
+        <v>500</v>
+      </c>
+      <c r="L27" s="5">
+        <v>200</v>
+      </c>
+      <c r="M27" s="5">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>2003002</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" s="5">
+        <v>2</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0</v>
+      </c>
+      <c r="H28" s="5">
+        <v>1</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="J28" s="5">
+        <v>8000</v>
+      </c>
+      <c r="K28" s="5">
+        <v>600</v>
+      </c>
+      <c r="L28" s="5">
+        <v>200</v>
+      </c>
+      <c r="M28" s="5">
+        <v>2000</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>2003003</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0</v>
+      </c>
+      <c r="H29" s="5">
+        <v>2</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="J29" s="5">
+        <v>0</v>
+      </c>
+      <c r="K29" s="5">
+        <v>50</v>
+      </c>
+      <c r="L29" s="5">
+        <v>50</v>
+      </c>
+      <c r="M29" s="5">
+        <v>6000</v>
+      </c>
+      <c r="N29">
+        <v>15008005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>2003004</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="5">
+        <v>2</v>
+      </c>
+      <c r="F30" s="5">
+        <v>1</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0</v>
+      </c>
+      <c r="I30" s="5">
         <v>16001001</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J30" s="5">
         <v>8000</v>
       </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-      <c r="L7" s="1">
-        <v>0</v>
-      </c>
-      <c r="M7" s="1">
+      <c r="K30" s="5">
+        <v>0</v>
+      </c>
+      <c r="L30" s="5">
+        <v>0</v>
+      </c>
+      <c r="M30" s="5">
         <v>1500</v>
       </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>2001005</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" s="1">
-        <v>12000</v>
-      </c>
-      <c r="K8" s="1">
-        <v>200</v>
-      </c>
-      <c r="L8" s="1">
-        <v>200</v>
-      </c>
-      <c r="M8" s="1">
-        <v>7000</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>2002001</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1</v>
-      </c>
-      <c r="I10" s="1">
-        <v>3002001</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0</v>
-      </c>
-      <c r="K10" s="1">
-        <v>200</v>
-      </c>
-      <c r="L10" s="1">
-        <v>200</v>
-      </c>
-      <c r="M10" s="1">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12">
-        <v>2002010</v>
-      </c>
-      <c r="C12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13">
-        <v>2002011</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="1">
-        <v>2</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J13" s="1">
-        <v>8000</v>
-      </c>
-      <c r="K13" s="1">
-        <v>200</v>
-      </c>
-      <c r="L13" s="1">
-        <v>200</v>
-      </c>
-      <c r="M13" s="1">
-        <v>2500</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15">
-        <v>2002030</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <v>2</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0</v>
-      </c>
-      <c r="K15" s="1">
-        <v>50</v>
-      </c>
-      <c r="L15" s="1">
-        <v>50</v>
-      </c>
-      <c r="M15" s="1">
-        <v>6000</v>
-      </c>
-      <c r="N15">
-        <v>15008005</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16">
-        <v>2002031</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1</v>
-      </c>
-      <c r="H16" s="1">
-        <v>2</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J16" s="1">
-        <v>0</v>
-      </c>
-      <c r="K16" s="1">
-        <v>0</v>
-      </c>
-      <c r="L16" s="1">
-        <v>0</v>
-      </c>
-      <c r="M16" s="1">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17">
-        <v>2002032</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1</v>
-      </c>
-      <c r="H17" s="1">
-        <v>2</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0</v>
-      </c>
-      <c r="K17" s="1">
-        <v>0</v>
-      </c>
-      <c r="L17" s="1">
-        <v>0</v>
-      </c>
-      <c r="M17" s="1">
-        <v>0</v>
-      </c>
-      <c r="N17">
+      <c r="N30">
         <v>0</v>
       </c>
     </row>

--- a/data_table/Skill.xlsx
+++ b/data_table/Skill.xlsx
@@ -184,7 +184,8 @@
           </rPr>
           <t xml:space="preserve">
 0 : 无
-1 : 圆形</t>
+1 : 矩形旋转
+2 : 圆形</t>
         </r>
       </text>
     </comment>
@@ -209,7 +210,9 @@
 根据 skillReleaseDirectorType 决定
 (普通攻击的范围需要特殊动态处理)
 0 : 无
-1 : [1]:效果资源id [2]:大小(*1000) [3]:旋转类型(0 不旋转, 1 释放者到目标方向)</t>
+1 : [1]:效果资源id , [2]:x 宽度大小(*1000) , [3]:z 宽度大小(*1000)
+ [4]:旋转类型(0 不旋转, 1 释放者到目标方向)
+2 : [1]:效果资源id , [2]:半径(*1000) </t>
         </r>
       </text>
     </comment>
@@ -232,7 +235,9 @@
           </rPr>
           <t xml:space="preserve">
 0 : 无
-1 : 可旋转效果</t>
+1 : 矩形旋转
+2 : 圆形
+</t>
         </r>
       </text>
     </comment>
@@ -257,7 +262,9 @@
 根据 skillTargetDirectorType 决定
 (普通攻击的范围需要特殊动态处理)
 0 : 无
-1 : [1]:效果资源id [2]:大小(*1000) [3]:旋转类型(0 不旋转, 1 释放者到目标方向)
+1 : [1]:效果资源id , [2]:x 宽度大小(*1000) , [3]:z 宽度大小(*1000)
+ [4]:旋转类型(0 不旋转, 1 释放者到目标方向)
+2 : [1]:效果资源id , [2]:半径(*1000) 
 </t>
         </r>
       </text>
@@ -267,7 +274,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="79">
   <si>
     <t>#</t>
   </si>
@@ -311,10 +318,10 @@
     <t>releaserEffectResId</t>
   </si>
   <si>
-    <t>skillDirectorType</t>
-  </si>
-  <si>
-    <t>skillDirectorParam</t>
+    <t>skillDirectorProjectileType</t>
+  </si>
+  <si>
+    <t>skillDirectorProjectileParam</t>
   </si>
   <si>
     <t>skillReleaserDirectType</t>
@@ -377,10 +384,10 @@
     <t>释放者释放技能时候在身上的特效</t>
   </si>
   <si>
-    <t>技能释放 指示器类型</t>
-  </si>
-  <si>
-    <t>技能释放 指示器参数</t>
+    <t>技能释放 投掷物 指示器类型</t>
+  </si>
+  <si>
+    <t>技能释放 投掷物 指示器参数</t>
   </si>
   <si>
     <t>技能释放 释放者 指示类型</t>
@@ -401,7 +408,10 @@
     <t>0</t>
   </si>
   <si>
-    <t>15008102,1500,0</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>15008102,1500,1500,0</t>
   </si>
   <si>
     <t>上官唯 技能1</t>
@@ -410,13 +420,7 @@
     <t>上官唯 技能 1 介绍 向一个点短距离发射球攻击</t>
   </si>
   <si>
-    <t>1500810,1500,2000</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2000</t>
+    <t>15008101,1500,4500</t>
   </si>
   <si>
     <t>上官唯 技能2</t>
@@ -440,7 +444,10 @@
     <t>唐依 普通攻击</t>
   </si>
   <si>
-    <t>15008102,6000,0</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>15008102,6000</t>
   </si>
   <si>
     <t>唐依 技能1</t>
@@ -449,7 +456,7 @@
     <t>唐依 技能1 介绍 向一个点发射长距离的穿刺箭攻击</t>
   </si>
   <si>
-    <t>15008101,2000,1</t>
+    <t>15008101,2000,2000,1</t>
   </si>
   <si>
     <t>唐依 技能2</t>
@@ -459,9 +466,6 @@
   </si>
   <si>
     <t>14001003,14001004</t>
-  </si>
-  <si>
-    <t>15008102,12000,0</t>
   </si>
   <si>
     <t>唐依 技能3</t>
@@ -1139,7 +1143,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1174,9 +1178,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
@@ -1533,9 +1534,9 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="P7" sqref="P7"/>
+      <selection pane="topRight" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1549,7 +1550,8 @@
     <col min="10" max="10" width="14.375" customWidth="1"/>
     <col min="11" max="12" width="19.25" customWidth="1"/>
     <col min="13" max="13" width="18.625" customWidth="1"/>
-    <col min="14" max="15" width="22.625" customWidth="1"/>
+    <col min="14" max="14" width="22.625" customWidth="1"/>
+    <col min="15" max="15" width="27.5" customWidth="1"/>
     <col min="16" max="16" width="22.625" style="3" customWidth="1"/>
     <col min="17" max="18" width="25.625" style="3" customWidth="1"/>
     <col min="19" max="19" width="23" style="4" customWidth="1"/>
@@ -1793,11 +1795,11 @@
       <c r="P4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="Q4" s="3">
-        <v>1</v>
+      <c r="Q4" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S4" s="4">
         <v>0</v>
@@ -1814,10 +1816,10 @@
         <v>2001002</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E5" s="5">
         <v>2</v>
@@ -1835,7 +1837,7 @@
         <v>3001002</v>
       </c>
       <c r="J5" s="5">
-        <v>2000</v>
+        <v>99000</v>
       </c>
       <c r="K5" s="5">
         <v>100</v>
@@ -1853,13 +1855,13 @@
         <v>1</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="S5" s="4">
         <v>0</v>
@@ -1876,25 +1878,25 @@
         <v>2001003</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="10" t="s">
         <v>51</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>52</v>
       </c>
       <c r="J6" s="5">
         <v>0</v>
@@ -1938,10 +1940,10 @@
         <v>2001004</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
@@ -1956,7 +1958,7 @@
         <v>2</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J7" s="5">
         <v>0</v>
@@ -2005,10 +2007,10 @@
         <v>2001021</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E10" s="5">
         <v>1</v>
@@ -2032,7 +2034,7 @@
         <v>550</v>
       </c>
       <c r="L10" s="5">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M10" s="5">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>43</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>57</v>
@@ -2091,13 +2093,13 @@
         <v>6000</v>
       </c>
       <c r="K11" s="5">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="L11" s="5">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M11" s="5">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -2156,7 +2158,7 @@
         <v>550</v>
       </c>
       <c r="L12" s="5">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M12" s="5">
         <v>7000</v>
@@ -2171,10 +2173,10 @@
         <v>43</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>43</v>
@@ -2191,10 +2193,10 @@
         <v>2001024</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="E13" s="5">
         <v>0</v>
@@ -2209,7 +2211,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J13" s="5">
         <v>0</v>
@@ -2270,9 +2272,9 @@
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
     </row>
@@ -2380,9 +2382,9 @@
       <c r="T21" s="4"/>
     </row>
     <row r="22" s="2" customFormat="1" spans="16:20">
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
     </row>
@@ -2394,10 +2396,10 @@
         <v>2002001</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E24" s="5">
         <v>1</v>
@@ -2438,10 +2440,10 @@
         <v>2002002</v>
       </c>
       <c r="C25" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>70</v>
       </c>
       <c r="E25" s="5">
         <v>2</v>
@@ -2482,10 +2484,10 @@
         <v>2003001</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E27" s="5">
         <v>1</v>
@@ -2531,10 +2533,10 @@
         <v>2003002</v>
       </c>
       <c r="C28" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="E28" s="5">
         <v>2</v>
@@ -2549,7 +2551,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J28" s="5">
         <v>8000</v>
@@ -2575,10 +2577,10 @@
         <v>2003003</v>
       </c>
       <c r="C29" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="E29" s="5">
         <v>0</v>
@@ -2593,7 +2595,7 @@
         <v>2</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J29" s="5">
         <v>0</v>
@@ -2619,10 +2621,10 @@
         <v>2003004</v>
       </c>
       <c r="C30" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>79</v>
       </c>
       <c r="E30" s="5">
         <v>2</v>

--- a/data_table/Skill.xlsx
+++ b/data_table/Skill.xlsx
@@ -1534,9 +1534,9 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="K11" sqref="K11"/>
+      <selection pane="topRight" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1781,7 +1781,7 @@
         <v>100</v>
       </c>
       <c r="L4" s="5">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="M4" s="5">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         <v>100</v>
       </c>
       <c r="L5" s="5">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M5" s="5">
         <v>1000</v>
@@ -1905,7 +1905,7 @@
         <v>100</v>
       </c>
       <c r="L6" s="5">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M6" s="5">
         <v>2000</v>
@@ -2420,10 +2420,10 @@
         <v>0</v>
       </c>
       <c r="K24" s="5">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="L24" s="5">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M24" s="5">
         <v>0</v>
@@ -2467,7 +2467,7 @@
         <v>200</v>
       </c>
       <c r="L25" s="5">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M25" s="5">
         <v>1000</v>
@@ -2511,7 +2511,7 @@
         <v>500</v>
       </c>
       <c r="L27" s="5">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M27" s="5">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>600</v>
       </c>
       <c r="L28" s="5">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M28" s="5">
         <v>2000</v>
@@ -2604,7 +2604,7 @@
         <v>50</v>
       </c>
       <c r="L29" s="5">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M29" s="5">
         <v>6000</v>

--- a/data_table/Skill.xlsx
+++ b/data_table/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420"/>
+    <workbookView windowWidth="28125" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -274,7 +274,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="83">
   <si>
     <t>#</t>
   </si>
@@ -336,6 +336,9 @@
     <t>skillTargetDirectParam</t>
   </si>
   <si>
+    <t>skillTrackList</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -402,6 +405,9 @@
     <t>目标指示参数</t>
   </si>
   <si>
+    <t>技能轨迹 Id 列表</t>
+  </si>
+  <si>
     <t>上官唯 普通攻击</t>
   </si>
   <si>
@@ -441,6 +447,15 @@
     <t>18001002</t>
   </si>
   <si>
+    <t>测试 位移技能</t>
+  </si>
+  <si>
+    <t>刀疤技能 3 介绍 快速移动到指定位置 伤害沿途敌人</t>
+  </si>
+  <si>
+    <t>15008101,1500,10000</t>
+  </si>
+  <si>
     <t>唐依 普通攻击</t>
   </si>
   <si>
@@ -508,9 +523,6 @@
   </si>
   <si>
     <t>刀疤 技能3</t>
-  </si>
-  <si>
-    <t>刀疤技能 3 介绍 快速移动到指定位置 伤害沿途敌人</t>
   </si>
 </sst>
 </file>
@@ -1143,7 +1155,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1182,6 +1194,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1531,36 +1546,39 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T30"/>
+  <dimension ref="A1:U30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="K1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="L4" sqref="L4"/>
+      <selection pane="topRight" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="15.375" customWidth="1"/>
-    <col min="3" max="3" width="23.375" customWidth="1"/>
-    <col min="4" max="4" width="55.125" customWidth="1"/>
-    <col min="5" max="5" width="23.25" customWidth="1"/>
-    <col min="6" max="8" width="18.375" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="11.625" customWidth="1"/>
+    <col min="4" max="4" width="20.125" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="13.875" customWidth="1"/>
+    <col min="8" max="8" width="13.375" customWidth="1"/>
     <col min="9" max="9" width="19.75" customWidth="1"/>
-    <col min="10" max="10" width="14.375" customWidth="1"/>
-    <col min="11" max="12" width="19.25" customWidth="1"/>
-    <col min="13" max="13" width="18.625" customWidth="1"/>
-    <col min="14" max="14" width="22.625" customWidth="1"/>
-    <col min="15" max="15" width="27.5" customWidth="1"/>
+    <col min="10" max="10" width="15.5" customWidth="1"/>
+    <col min="11" max="11" width="14.625" customWidth="1"/>
+    <col min="12" max="12" width="9.625" customWidth="1"/>
+    <col min="13" max="14" width="12.375" customWidth="1"/>
+    <col min="15" max="15" width="10" customWidth="1"/>
     <col min="16" max="16" width="22.625" style="3" customWidth="1"/>
-    <col min="17" max="18" width="25.625" style="3" customWidth="1"/>
-    <col min="19" max="19" width="23" style="4" customWidth="1"/>
-    <col min="20" max="20" width="21.875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="10.125" style="3" customWidth="1"/>
+    <col min="18" max="18" width="25.625" style="3" customWidth="1"/>
+    <col min="19" max="19" width="12.375" style="4" customWidth="1"/>
+    <col min="20" max="20" width="21" style="4" customWidth="1"/>
     <col min="21" max="21" width="21.875" customWidth="1"/>
     <col min="22" max="22" width="27.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1621,129 +1639,138 @@
       <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="R2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="T2" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="U2" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="3" ht="93" customHeight="1" spans="1:20">
+    <row r="3" ht="93" customHeight="1" spans="1:21">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q3" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="Q3" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="R3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="S3" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="S3" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="T3" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="U3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -1754,10 +1781,10 @@
         <v>2001001</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E4" s="5">
         <v>1</v>
@@ -1793,13 +1820,13 @@
         <v>0</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S4" s="4">
         <v>0</v>
@@ -1816,10 +1843,10 @@
         <v>2001002</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E5" s="5">
         <v>2</v>
@@ -1843,7 +1870,7 @@
         <v>100</v>
       </c>
       <c r="L5" s="5">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="M5" s="5">
         <v>1000</v>
@@ -1855,13 +1882,13 @@
         <v>1</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S5" s="4">
         <v>0</v>
@@ -1878,10 +1905,10 @@
         <v>2001003</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E6" s="5">
         <v>0</v>
@@ -1896,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J6" s="5">
         <v>0</v>
@@ -1905,7 +1932,7 @@
         <v>100</v>
       </c>
       <c r="L6" s="5">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="M6" s="5">
         <v>2000</v>
@@ -1917,13 +1944,13 @@
         <v>0</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S6" s="4">
         <v>0</v>
@@ -1940,10 +1967,10 @@
         <v>2001004</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
@@ -1958,7 +1985,7 @@
         <v>2</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J7" s="5">
         <v>0</v>
@@ -1979,13 +2006,13 @@
         <v>0</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S7" s="4">
         <v>0</v>
@@ -1994,9 +2021,69 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="20:20">
+    <row r="8" spans="1:21">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>2001005</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="5">
+        <v>2</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>16001010</v>
+      </c>
+      <c r="J8" s="5">
+        <v>10000</v>
+      </c>
+      <c r="K8" s="5">
+        <v>1500</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0</v>
+      </c>
+      <c r="M8" s="5">
+        <v>600</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="S8" s="4">
+        <v>0</v>
+      </c>
       <c r="T8" s="4">
         <v>0</v>
+      </c>
+      <c r="U8">
+        <v>2500005</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -2007,10 +2094,10 @@
         <v>2001021</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E10" s="5">
         <v>1</v>
@@ -2034,7 +2121,7 @@
         <v>550</v>
       </c>
       <c r="L10" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M10" s="5">
         <v>0</v>
@@ -2046,19 +2133,19 @@
         <v>0</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -2069,10 +2156,10 @@
         <v>2001022</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E11" s="5">
         <v>2</v>
@@ -2093,10 +2180,10 @@
         <v>6000</v>
       </c>
       <c r="K11" s="5">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="L11" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M11" s="5">
         <v>1400</v>
@@ -2108,19 +2195,19 @@
         <v>0</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -2131,10 +2218,10 @@
         <v>2001023</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E12" s="5">
         <v>1</v>
@@ -2149,7 +2236,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="J12" s="5">
         <v>12000</v>
@@ -2158,7 +2245,7 @@
         <v>550</v>
       </c>
       <c r="L12" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M12" s="5">
         <v>7000</v>
@@ -2170,19 +2257,19 @@
         <v>0</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -2193,10 +2280,10 @@
         <v>2001024</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E13" s="5">
         <v>0</v>
@@ -2211,7 +2298,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="J13" s="5">
         <v>0</v>
@@ -2232,19 +2319,19 @@
         <v>0</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="3:13">
@@ -2396,10 +2483,10 @@
         <v>2002001</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E24" s="5">
         <v>1</v>
@@ -2440,10 +2527,10 @@
         <v>2002002</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E25" s="5">
         <v>2</v>
@@ -2484,10 +2571,10 @@
         <v>2003001</v>
       </c>
       <c r="C27" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E27" s="5">
         <v>1</v>
@@ -2533,10 +2620,10 @@
         <v>2003002</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E28" s="5">
         <v>2</v>
@@ -2551,7 +2638,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J28" s="5">
         <v>8000</v>
@@ -2577,10 +2664,10 @@
         <v>2003003</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E29" s="5">
         <v>0</v>
@@ -2595,7 +2682,7 @@
         <v>2</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="J29" s="5">
         <v>0</v>
@@ -2621,10 +2708,10 @@
         <v>2003004</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="E30" s="5">
         <v>2</v>
@@ -2671,7 +2758,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2688,7 +2775,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_table/Skill.xlsx
+++ b/data_table/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="11820"/>
+    <workbookView windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -113,7 +113,7 @@
           <t xml:space="preserve">
 0 无
 1 技能目标单位
-2 技能释放着</t>
+2 技能释放者</t>
         </r>
       </text>
     </comment>
@@ -274,7 +274,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="90">
   <si>
     <t>#</t>
   </si>
@@ -429,6 +429,9 @@
     <t>15008101,1500,4500</t>
   </si>
   <si>
+    <t>上官唯 技能 1 下次攻击群攻</t>
+  </si>
+  <si>
     <t>上官唯 技能2</t>
   </si>
   <si>
@@ -465,7 +468,7 @@
     <t>15008102,6000</t>
   </si>
   <si>
-    <t>唐依 技能1</t>
+    <t>唐依 Q</t>
   </si>
   <si>
     <t>唐依 技能1 介绍 向一个点发射长距离的穿刺箭攻击</t>
@@ -474,6 +477,15 @@
     <t>15008101,2000,2000,1</t>
   </si>
   <si>
+    <t>唐依 W</t>
+  </si>
+  <si>
+    <t>唐依 技能2 介绍 一段时间内增加攻速 并且变为散射攻击</t>
+  </si>
+  <si>
+    <t>14001020</t>
+  </si>
+  <si>
     <t>唐依 技能2</t>
   </si>
   <si>
@@ -490,6 +502,15 @@
   </si>
   <si>
     <t>18001001</t>
+  </si>
+  <si>
+    <t>唐依 被动技能</t>
+  </si>
+  <si>
+    <t>唐依 技能4 介绍 ， 每次攻击命中都会增加 20% 移动速度 ， 最多叠加 5 层</t>
+  </si>
+  <si>
+    <t>18001020</t>
   </si>
   <si>
     <t>怪物 普通攻击</t>
@@ -699,12 +720,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1013,10 +1040,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1025,16 +1052,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1046,10 +1073,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1070,28 +1097,28 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1100,19 +1127,16 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1124,45 +1148,51 @@
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1180,6 +1210,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1192,11 +1225,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1546,12 +1582,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U30"/>
+  <dimension ref="A1:U32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="M11" sqref="M11"/>
+      <selection pane="topRight" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1569,11 +1605,11 @@
     <col min="12" max="12" width="9.625" customWidth="1"/>
     <col min="13" max="14" width="12.375" customWidth="1"/>
     <col min="15" max="15" width="10" customWidth="1"/>
-    <col min="16" max="16" width="22.625" style="3" customWidth="1"/>
-    <col min="17" max="17" width="10.125" style="3" customWidth="1"/>
-    <col min="18" max="18" width="25.625" style="3" customWidth="1"/>
-    <col min="19" max="19" width="12.375" style="4" customWidth="1"/>
-    <col min="20" max="20" width="21" style="4" customWidth="1"/>
+    <col min="16" max="16" width="22.625" style="4" customWidth="1"/>
+    <col min="17" max="17" width="10.125" style="4" customWidth="1"/>
+    <col min="18" max="18" width="25.625" style="4" customWidth="1"/>
+    <col min="19" max="19" width="12.375" style="5" customWidth="1"/>
+    <col min="20" max="20" width="21" style="5" customWidth="1"/>
     <col min="21" max="21" width="21.875" customWidth="1"/>
     <col min="22" max="22" width="27.75" customWidth="1"/>
   </cols>
@@ -1582,7 +1618,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1615,7 +1651,7 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="8" t="s">
         <v>12</v>
       </c>
       <c r="N1" t="s">
@@ -1624,19 +1660,19 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="5" t="s">
         <v>19</v>
       </c>
       <c r="U1" t="s">
@@ -1680,7 +1716,7 @@
       <c r="L2" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="8" t="s">
         <v>21</v>
       </c>
       <c r="N2" t="s">
@@ -1689,19 +1725,19 @@
       <c r="O2" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="5" t="s">
         <v>22</v>
       </c>
       <c r="U2" t="s">
@@ -1712,61 +1748,61 @@
       <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="S3" s="13" t="s">
+      <c r="S3" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="T3" s="5" t="s">
         <v>42</v>
       </c>
       <c r="U3" t="s">
@@ -1780,37 +1816,37 @@
       <c r="B4">
         <v>2001001</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5">
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
         <v>1</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="6">
         <v>3001001</v>
       </c>
-      <c r="J4" s="5">
-        <v>0</v>
-      </c>
-      <c r="K4" s="5">
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
         <v>100</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="6">
         <v>500</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="6">
         <v>0</v>
       </c>
       <c r="N4">
@@ -1819,333 +1855,330 @@
       <c r="O4">
         <v>0</v>
       </c>
-      <c r="P4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q4" s="3" t="s">
+      <c r="P4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="R4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="S4" s="4">
-        <v>0</v>
-      </c>
-      <c r="T4" s="4">
+      <c r="S4" s="5">
+        <v>0</v>
+      </c>
+      <c r="T4" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5">
+    <row r="5" s="1" customFormat="1" spans="2:20">
+      <c r="B5" s="1">
         <v>2001002</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="9">
         <v>2</v>
       </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5">
+      <c r="F5" s="9">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9">
         <v>3001002</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="9">
         <v>99000</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="9">
         <v>100</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="9">
         <v>500</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="9">
         <v>1000</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="1">
         <v>0</v>
       </c>
       <c r="O5">
         <v>1</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="P5" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="Q5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="S5" s="4">
-        <v>0</v>
-      </c>
-      <c r="T5" s="4">
+      <c r="Q5" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="R5" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="S5" s="16">
+        <v>0</v>
+      </c>
+      <c r="T5" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" customFormat="1" spans="1:20">
       <c r="A6" t="s">
         <v>0</v>
       </c>
       <c r="B6">
+        <v>2001002</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
+        <v>2</v>
+      </c>
+      <c r="I6" s="6">
+        <v>14001010</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6">
+        <v>100</v>
+      </c>
+      <c r="L6" s="6">
+        <v>500</v>
+      </c>
+      <c r="M6" s="6">
+        <v>4000</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S6" s="5">
+        <v>0</v>
+      </c>
+      <c r="T6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
         <v>2001003</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0</v>
-      </c>
-      <c r="I6" s="10" t="s">
+      <c r="D7" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="J6" s="5">
-        <v>0</v>
-      </c>
-      <c r="K6" s="5">
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6">
         <v>100</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L7" s="6">
         <v>500</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M7" s="6">
         <v>2000</v>
       </c>
-      <c r="N6">
+      <c r="N7">
         <v>15008014</v>
       </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="S6" s="4">
-        <v>0</v>
-      </c>
-      <c r="T6" s="4">
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S7" s="5">
+        <v>0</v>
+      </c>
+      <c r="T7" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="7" customFormat="1" spans="1:20">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7">
+    <row r="8" customFormat="1" spans="1:20">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
         <v>2001004</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5">
+      <c r="D8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
         <v>1</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H8" s="6">
         <v>2</v>
       </c>
-      <c r="I7" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J7" s="5">
-        <v>0</v>
-      </c>
-      <c r="K7" s="5">
-        <v>0</v>
-      </c>
-      <c r="L7" s="5">
-        <v>0</v>
-      </c>
-      <c r="M7" s="5">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="S7" s="4">
-        <v>0</v>
-      </c>
-      <c r="T7" s="4">
+      <c r="I8" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0</v>
+      </c>
+      <c r="M8" s="6">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S8" s="5">
+        <v>0</v>
+      </c>
+      <c r="T8" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8">
+    <row r="9" spans="1:21">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
         <v>2001005</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="C9" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="5">
+      <c r="D9" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="6">
         <v>2</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F9" s="6">
         <v>1</v>
       </c>
-      <c r="G8" s="5">
-        <v>0</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5">
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
         <v>16001010</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J9" s="6">
         <v>10000</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K9" s="6">
         <v>1500</v>
       </c>
-      <c r="L8" s="5">
-        <v>0</v>
-      </c>
-      <c r="M8" s="5">
+      <c r="L9" s="6">
+        <v>0</v>
+      </c>
+      <c r="M9" s="6">
         <v>600</v>
       </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
         <v>1</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="S8" s="4">
-        <v>0</v>
-      </c>
-      <c r="T8" s="4">
-        <v>0</v>
-      </c>
-      <c r="U8">
+      <c r="P9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S9" s="5">
+        <v>0</v>
+      </c>
+      <c r="T9" s="5">
+        <v>0</v>
+      </c>
+      <c r="U9">
         <v>2500005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>2001021</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="5">
-        <v>1</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
-      <c r="G10" s="5">
-        <v>0</v>
-      </c>
-      <c r="H10" s="5">
-        <v>1</v>
-      </c>
-      <c r="I10" s="5">
-        <v>3001011</v>
-      </c>
-      <c r="J10" s="5">
-        <v>0</v>
-      </c>
-      <c r="K10" s="5">
-        <v>550</v>
-      </c>
-      <c r="L10" s="5">
-        <v>100</v>
-      </c>
-      <c r="M10" s="5">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -2153,61 +2186,61 @@
         <v>0</v>
       </c>
       <c r="B11">
-        <v>2001022</v>
-      </c>
-      <c r="C11" s="5" t="s">
+        <v>2001021</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
+        <v>1</v>
+      </c>
+      <c r="I11" s="6">
+        <v>3001011</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6">
+        <v>100</v>
+      </c>
+      <c r="L11" s="6">
+        <v>100</v>
+      </c>
+      <c r="M11" s="6">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="R11" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="5">
-        <v>2</v>
-      </c>
-      <c r="F11" s="5">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5">
-        <v>0</v>
-      </c>
-      <c r="H11" s="5">
-        <v>0</v>
-      </c>
-      <c r="I11" s="5">
-        <v>3001012</v>
-      </c>
-      <c r="J11" s="5">
-        <v>6000</v>
-      </c>
-      <c r="K11" s="5">
-        <v>550</v>
-      </c>
-      <c r="L11" s="5">
-        <v>100</v>
-      </c>
-      <c r="M11" s="5">
-        <v>1400</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="S11" s="3" t="s">
+      <c r="S11" s="4" t="s">
         <v>45</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -2215,61 +2248,61 @@
         <v>0</v>
       </c>
       <c r="B12">
-        <v>2001023</v>
-      </c>
-      <c r="C12" s="5" t="s">
+        <v>2001022</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="6">
+        <v>2</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6">
+        <v>3001012</v>
+      </c>
+      <c r="J12" s="6">
+        <v>6000</v>
+      </c>
+      <c r="K12" s="6">
+        <v>300</v>
+      </c>
+      <c r="L12" s="6">
+        <v>100</v>
+      </c>
+      <c r="M12" s="6">
+        <v>1400</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T12" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0</v>
-      </c>
-      <c r="G12" s="5">
-        <v>0</v>
-      </c>
-      <c r="H12" s="5">
-        <v>1</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="J12" s="5">
-        <v>12000</v>
-      </c>
-      <c r="K12" s="5">
-        <v>550</v>
-      </c>
-      <c r="L12" s="5">
-        <v>100</v>
-      </c>
-      <c r="M12" s="5">
-        <v>7000</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -2277,470 +2310,642 @@
         <v>0</v>
       </c>
       <c r="B13">
+        <v>2001023</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6">
+        <v>2</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0</v>
+      </c>
+      <c r="K13" s="6">
+        <v>100</v>
+      </c>
+      <c r="L13" s="6">
+        <v>100</v>
+      </c>
+      <c r="M13" s="6">
+        <v>5000</v>
+      </c>
+      <c r="N13">
+        <v>15008014</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="2:20">
+      <c r="B14">
+        <v>2001023</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6">
+        <v>1</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="J14" s="6">
+        <v>12000</v>
+      </c>
+      <c r="K14" s="6">
+        <v>550</v>
+      </c>
+      <c r="L14" s="6">
+        <v>100</v>
+      </c>
+      <c r="M14" s="6">
+        <v>7000</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
         <v>2001024</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0</v>
-      </c>
-      <c r="F13" s="5">
-        <v>0</v>
-      </c>
-      <c r="G13" s="5">
+      <c r="C15" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6">
         <v>1</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H15" s="6">
         <v>2</v>
       </c>
-      <c r="I13" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="J13" s="5">
-        <v>0</v>
-      </c>
-      <c r="K13" s="5">
-        <v>0</v>
-      </c>
-      <c r="L13" s="5">
-        <v>0</v>
-      </c>
-      <c r="M13" s="5">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="R13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="S13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="T13" s="3" t="s">
+      <c r="I15" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15" s="6">
+        <v>0</v>
+      </c>
+      <c r="K15" s="6">
+        <v>0</v>
+      </c>
+      <c r="L15" s="6">
+        <v>0</v>
+      </c>
+      <c r="M15" s="6">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T15" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="3:13">
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
+    <row r="16" customFormat="1" spans="1:20">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>2001025</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6">
+        <v>1</v>
+      </c>
+      <c r="H16" s="6">
+        <v>2</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="J16" s="6">
+        <v>0</v>
+      </c>
+      <c r="K16" s="6">
+        <v>0</v>
+      </c>
+      <c r="L16" s="6">
+        <v>0</v>
+      </c>
+      <c r="M16" s="6">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T16" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="3:20">
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
+    <row r="17" s="2" customFormat="1" spans="1:20">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
     </row>
-    <row r="16" spans="3:13">
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-    </row>
-    <row r="17" customFormat="1" spans="3:20">
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-    </row>
-    <row r="18" customFormat="1" spans="3:20">
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
+    <row r="18" spans="3:13">
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
     </row>
     <row r="19" customFormat="1" spans="3:20">
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
     </row>
     <row r="20" customFormat="1" spans="3:20">
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
     </row>
     <row r="21" customFormat="1" spans="3:20">
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
     </row>
-    <row r="22" s="2" customFormat="1" spans="16:20">
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
+    <row r="22" customFormat="1" spans="3:20">
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
     </row>
-    <row r="24" spans="1:14">
-      <c r="A24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24">
+    <row r="23" customFormat="1" spans="3:20">
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+    </row>
+    <row r="24" s="3" customFormat="1" spans="16:20">
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26">
         <v>2002001</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" s="5">
+      <c r="C26" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="6">
         <v>1</v>
       </c>
-      <c r="F24" s="5">
-        <v>0</v>
-      </c>
-      <c r="G24" s="5">
-        <v>0</v>
-      </c>
-      <c r="H24" s="5">
+      <c r="F26" s="6">
+        <v>0</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0</v>
+      </c>
+      <c r="H26" s="6">
         <v>1</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I26" s="6">
         <v>3002001</v>
       </c>
-      <c r="J24" s="5">
-        <v>0</v>
-      </c>
-      <c r="K24" s="5">
+      <c r="J26" s="6">
+        <v>0</v>
+      </c>
+      <c r="K26" s="6">
         <v>500</v>
       </c>
-      <c r="L24" s="5">
-        <v>0</v>
-      </c>
-      <c r="M24" s="5">
-        <v>0</v>
-      </c>
-      <c r="N24">
+      <c r="L26" s="6">
+        <v>0</v>
+      </c>
+      <c r="M26" s="6">
+        <v>0</v>
+      </c>
+      <c r="N26">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
-      <c r="A25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25">
+    <row r="27" spans="1:14">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27">
         <v>2002002</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E25" s="5">
+      <c r="C27" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="6">
         <v>2</v>
       </c>
-      <c r="F25" s="5">
-        <v>0</v>
-      </c>
-      <c r="G25" s="5">
-        <v>0</v>
-      </c>
-      <c r="H25" s="5">
-        <v>0</v>
-      </c>
-      <c r="I25" s="5">
+      <c r="F27" s="6">
+        <v>0</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0</v>
+      </c>
+      <c r="H27" s="6">
+        <v>0</v>
+      </c>
+      <c r="I27" s="6">
         <v>3002002</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J27" s="6">
         <v>2000</v>
       </c>
-      <c r="K25" s="5">
+      <c r="K27" s="6">
         <v>200</v>
       </c>
-      <c r="L25" s="5">
-        <v>0</v>
-      </c>
-      <c r="M25" s="5">
+      <c r="L27" s="6">
+        <v>0</v>
+      </c>
+      <c r="M27" s="6">
         <v>1000</v>
       </c>
-      <c r="N25">
+      <c r="N27">
         <v>0</v>
       </c>
     </row>
-    <row r="27" customFormat="1" spans="1:20">
-      <c r="A27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27">
+    <row r="29" customFormat="1" spans="1:20">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29">
         <v>2003001</v>
       </c>
-      <c r="C27" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E27" s="5">
+      <c r="C29" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" s="6">
         <v>1</v>
       </c>
-      <c r="F27" s="5">
-        <v>0</v>
-      </c>
-      <c r="G27" s="5">
-        <v>0</v>
-      </c>
-      <c r="H27" s="5">
+      <c r="F29" s="6">
+        <v>0</v>
+      </c>
+      <c r="G29" s="6">
+        <v>0</v>
+      </c>
+      <c r="H29" s="6">
         <v>1</v>
       </c>
-      <c r="I27">
+      <c r="I29">
         <v>3003001</v>
       </c>
-      <c r="J27" s="5">
-        <v>0</v>
-      </c>
-      <c r="K27" s="5">
+      <c r="J29" s="6">
+        <v>0</v>
+      </c>
+      <c r="K29" s="6">
         <v>500</v>
       </c>
-      <c r="L27" s="5">
-        <v>0</v>
-      </c>
-      <c r="M27" s="5">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28">
-        <v>2003002</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E28" s="5">
-        <v>2</v>
-      </c>
-      <c r="F28" s="5">
-        <v>0</v>
-      </c>
-      <c r="G28" s="5">
-        <v>0</v>
-      </c>
-      <c r="H28" s="5">
-        <v>1</v>
-      </c>
-      <c r="I28" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="J28" s="5">
-        <v>8000</v>
-      </c>
-      <c r="K28" s="5">
-        <v>600</v>
-      </c>
-      <c r="L28" s="5">
-        <v>0</v>
-      </c>
-      <c r="M28" s="5">
-        <v>2000</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="A29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29">
-        <v>2003003</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E29" s="5">
-        <v>0</v>
-      </c>
-      <c r="F29" s="5">
-        <v>0</v>
-      </c>
-      <c r="G29" s="5">
-        <v>0</v>
-      </c>
-      <c r="H29" s="5">
-        <v>2</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="J29" s="5">
-        <v>0</v>
-      </c>
-      <c r="K29" s="5">
-        <v>50</v>
-      </c>
-      <c r="L29" s="5">
-        <v>0</v>
-      </c>
-      <c r="M29" s="5">
-        <v>6000</v>
+      <c r="L29" s="6">
+        <v>0</v>
+      </c>
+      <c r="M29" s="6">
+        <v>0</v>
       </c>
       <c r="N29">
-        <v>15008005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" t="s">
         <v>0</v>
       </c>
       <c r="B30">
+        <v>2003002</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" s="6">
+        <v>2</v>
+      </c>
+      <c r="F30" s="6">
+        <v>0</v>
+      </c>
+      <c r="G30" s="6">
+        <v>0</v>
+      </c>
+      <c r="H30" s="6">
+        <v>1</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="J30" s="6">
+        <v>8000</v>
+      </c>
+      <c r="K30" s="6">
+        <v>600</v>
+      </c>
+      <c r="L30" s="6">
+        <v>0</v>
+      </c>
+      <c r="M30" s="6">
+        <v>2000</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>2003003</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0</v>
+      </c>
+      <c r="F31" s="6">
+        <v>0</v>
+      </c>
+      <c r="G31" s="6">
+        <v>0</v>
+      </c>
+      <c r="H31" s="6">
+        <v>2</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="J31" s="6">
+        <v>0</v>
+      </c>
+      <c r="K31" s="6">
+        <v>50</v>
+      </c>
+      <c r="L31" s="6">
+        <v>0</v>
+      </c>
+      <c r="M31" s="6">
+        <v>6000</v>
+      </c>
+      <c r="N31">
+        <v>15008005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32">
         <v>2003004</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30" s="5">
+      <c r="C32" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" s="6">
         <v>2</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F32" s="6">
         <v>1</v>
       </c>
-      <c r="G30" s="5">
-        <v>0</v>
-      </c>
-      <c r="H30" s="5">
-        <v>0</v>
-      </c>
-      <c r="I30" s="5">
+      <c r="G32" s="6">
+        <v>0</v>
+      </c>
+      <c r="H32" s="6">
+        <v>0</v>
+      </c>
+      <c r="I32" s="6">
         <v>16001001</v>
       </c>
-      <c r="J30" s="5">
+      <c r="J32" s="6">
         <v>8000</v>
       </c>
-      <c r="K30" s="5">
-        <v>0</v>
-      </c>
-      <c r="L30" s="5">
-        <v>0</v>
-      </c>
-      <c r="M30" s="5">
+      <c r="K32" s="6">
+        <v>0</v>
+      </c>
+      <c r="L32" s="6">
+        <v>0</v>
+      </c>
+      <c r="M32" s="6">
         <v>1500</v>
       </c>
-      <c r="N30">
+      <c r="N32">
         <v>0</v>
       </c>
     </row>

--- a/data_table/Skill.xlsx
+++ b/data_table/Skill.xlsx
@@ -274,7 +274,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="105">
   <si>
     <t>#</t>
   </si>
@@ -429,121 +429,166 @@
     <t>15008101,1500,4500</t>
   </si>
   <si>
-    <t>上官唯 技能 1 下次攻击群攻</t>
-  </si>
-  <si>
-    <t>上官唯 技能2</t>
-  </si>
-  <si>
-    <t>上官唯 技能 2 介绍 周围击晕</t>
+    <t>上官唯 Q技能1</t>
+  </si>
+  <si>
+    <t>上官唯 Q 技能 1 一段时间内群攻</t>
+  </si>
+  <si>
+    <t>上官唯 W 技能2</t>
+  </si>
+  <si>
+    <t>上官唯 W 技能 2 介绍 周围击晕</t>
   </si>
   <si>
     <t>13001003</t>
   </si>
   <si>
-    <t>上官唯 技能3</t>
-  </si>
-  <si>
-    <t>上官唯 技能 3 介绍 攻击时有概率恢复自身生命值</t>
+    <t>上官唯 E 技能</t>
+  </si>
+  <si>
+    <t>上官唯 E 技能 位移到某处 沿途有上海</t>
+  </si>
+  <si>
+    <t>上官唯 R 技能</t>
+  </si>
+  <si>
+    <t>上官唯 R 技能 状态技能 一段时间内获得  减伤  攻击增强</t>
+  </si>
+  <si>
+    <t>14001011,14001012</t>
+  </si>
+  <si>
+    <t>上官唯 被动</t>
+  </si>
+  <si>
+    <t>上官唯 被动技能 攻击时有概率恢复自身生命值</t>
   </si>
   <si>
     <t>18001002</t>
   </si>
   <si>
+    <t>唐依 普通攻击</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>15008102,6000</t>
+  </si>
+  <si>
+    <t>唐依 Q</t>
+  </si>
+  <si>
+    <t>唐依 技能1 介绍 向一个点发射长距离的穿刺箭攻击</t>
+  </si>
+  <si>
+    <t>15008101,2000,2000,1</t>
+  </si>
+  <si>
+    <t>唐依 W</t>
+  </si>
+  <si>
+    <t>唐依 技能2 介绍 一段时间内增加攻速 并且变为散射攻击</t>
+  </si>
+  <si>
+    <t>14001020</t>
+  </si>
+  <si>
+    <t>唐依 E</t>
+  </si>
+  <si>
+    <t>唐依 技能E 介绍 区域内敌人流血并且降低移动速度</t>
+  </si>
+  <si>
+    <t>13001011</t>
+  </si>
+  <si>
+    <t>唐依 R</t>
+  </si>
+  <si>
+    <t>唐依 大招 介绍 投掷一个箭支 命中后范围爆炸 造成伤害并且增加易伤效果</t>
+  </si>
+  <si>
+    <t>3001014</t>
+  </si>
+  <si>
+    <t>唐依 被动技能</t>
+  </si>
+  <si>
+    <t>唐依 技能4 介绍 ， 每次攻击命中都会增加 20% 移动速度 ， 最多叠加 5 层</t>
+  </si>
+  <si>
+    <t>18001020</t>
+  </si>
+  <si>
     <t>测试 位移技能</t>
   </si>
   <si>
+    <t>15008101,1500,10000</t>
+  </si>
+  <si>
+    <t>怪物1 普通攻击</t>
+  </si>
+  <si>
+    <t>怪物1 技能1</t>
+  </si>
+  <si>
+    <t>怪物1 技能 1 介绍 向一个区域进行攻击</t>
+  </si>
+  <si>
+    <t>怪物2 普通攻击</t>
+  </si>
+  <si>
+    <t>怪物2 穿透投掷攻击</t>
+  </si>
+  <si>
+    <t>15008101,2000,10000,1</t>
+  </si>
+  <si>
+    <t>刀疤 普通攻击</t>
+  </si>
+  <si>
+    <t>刀疤 技能1</t>
+  </si>
+  <si>
+    <t>刀疤技能 1 介绍 向前发射三个可回来的回旋镖</t>
+  </si>
+  <si>
+    <t>17001001</t>
+  </si>
+  <si>
+    <t>刀疤 技能2</t>
+  </si>
+  <si>
+    <t>刀疤技能 2 介绍 附加日炎buff 每隔一段时间对周围造成伤害</t>
+  </si>
+  <si>
+    <t>14001005</t>
+  </si>
+  <si>
+    <t>刀疤 技能3</t>
+  </si>
+  <si>
     <t>刀疤技能 3 介绍 快速移动到指定位置 伤害沿途敌人</t>
   </si>
   <si>
-    <t>15008101,1500,10000</t>
-  </si>
-  <si>
-    <t>唐依 普通攻击</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>15008102,6000</t>
-  </si>
-  <si>
-    <t>唐依 Q</t>
-  </si>
-  <si>
-    <t>唐依 技能1 介绍 向一个点发射长距离的穿刺箭攻击</t>
-  </si>
-  <si>
-    <t>15008101,2000,2000,1</t>
-  </si>
-  <si>
-    <t>唐依 W</t>
-  </si>
-  <si>
-    <t>唐依 技能2 介绍 一段时间内增加攻速 并且变为散射攻击</t>
-  </si>
-  <si>
-    <t>14001020</t>
-  </si>
-  <si>
-    <t>唐依 技能2</t>
-  </si>
-  <si>
-    <t>唐依 技能2 介绍 目标流血并且降低移动速度</t>
-  </si>
-  <si>
-    <t>14001003,14001004</t>
-  </si>
-  <si>
-    <t>唐依 技能3</t>
-  </si>
-  <si>
-    <t>唐依 技能3 介绍 3环伤害 每次普通攻击敌方加buff ， 3 层则造成伤害</t>
-  </si>
-  <si>
-    <t>18001001</t>
-  </si>
-  <si>
-    <t>唐依 被动技能</t>
-  </si>
-  <si>
-    <t>唐依 技能4 介绍 ， 每次攻击命中都会增加 20% 移动速度 ， 最多叠加 5 层</t>
-  </si>
-  <si>
-    <t>18001020</t>
-  </si>
-  <si>
-    <t>怪物 普通攻击</t>
-  </si>
-  <si>
-    <t>怪物 技能1</t>
-  </si>
-  <si>
-    <t>怪物 技能 1 介绍 向一个点短距离发射球攻击</t>
-  </si>
-  <si>
-    <t>刀疤 普通攻击</t>
-  </si>
-  <si>
-    <t>刀疤 技能1</t>
-  </si>
-  <si>
-    <t>刀疤技能 1 介绍 向前发射三个可回来的回旋镖</t>
-  </si>
-  <si>
-    <t>17001001</t>
-  </si>
-  <si>
-    <t>刀疤 技能2</t>
-  </si>
-  <si>
-    <t>刀疤技能 2 介绍 附加日炎buff 每隔一段时间对周围造成伤害</t>
-  </si>
-  <si>
-    <t>14001005</t>
-  </si>
-  <si>
-    <t>刀疤 技能3</t>
+    <t>大鬼 1 攻击加攻速 被动技能</t>
+  </si>
+  <si>
+    <t>18001040</t>
+  </si>
+  <si>
+    <t>大鬼 1 攻击 3 层满层群伤</t>
+  </si>
+  <si>
+    <t>18001041</t>
+  </si>
+  <si>
+    <t>大鬼 1 周围群伤害</t>
+  </si>
+  <si>
+    <t>13002041</t>
   </si>
 </sst>
 </file>
@@ -1582,12 +1627,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U32"/>
+  <dimension ref="A1:U44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F19" sqref="F19"/>
+      <selection pane="topRight" activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1938,10 +1983,10 @@
         <v>2001002</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E6" s="6">
         <v>0</v>
@@ -2000,10 +2045,10 @@
         <v>2001003</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E7" s="6">
         <v>0</v>
@@ -2018,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J7" s="6">
         <v>0</v>
@@ -2062,37 +2107,37 @@
         <v>2001004</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E8" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="6">
-        <v>2</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>57</v>
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
+        <v>16001001</v>
       </c>
       <c r="J8" s="6">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="K8" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L8" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M8" s="6">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -2104,10 +2149,10 @@
         <v>45</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S8" s="5">
         <v>0</v>
@@ -2116,7 +2161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" customFormat="1" spans="1:20">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -2130,514 +2175,563 @@
         <v>59</v>
       </c>
       <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
         <v>2</v>
       </c>
-      <c r="F9" s="6">
+      <c r="I9" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6">
+        <v>100</v>
+      </c>
+      <c r="L9" s="6">
+        <v>100</v>
+      </c>
+      <c r="M9" s="6">
+        <v>10000</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S9" s="5">
+        <v>0</v>
+      </c>
+      <c r="T9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:20">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>2001006</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
         <v>1</v>
       </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-      <c r="H9" s="6">
-        <v>0</v>
-      </c>
-      <c r="I9" s="6">
-        <v>16001010</v>
-      </c>
-      <c r="J9" s="6">
-        <v>10000</v>
-      </c>
-      <c r="K9" s="6">
-        <v>1500</v>
-      </c>
-      <c r="L9" s="6">
-        <v>0</v>
-      </c>
-      <c r="M9" s="6">
-        <v>600</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S9" s="5">
-        <v>0</v>
-      </c>
-      <c r="T9" s="5">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>2500005</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <v>2001021</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="6">
-        <v>1</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-      <c r="H11" s="6">
-        <v>1</v>
-      </c>
-      <c r="I11" s="6">
-        <v>3001011</v>
-      </c>
-      <c r="J11" s="6">
-        <v>0</v>
-      </c>
-      <c r="K11" s="6">
-        <v>100</v>
-      </c>
-      <c r="L11" s="6">
-        <v>100</v>
-      </c>
-      <c r="M11" s="6">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="R11" s="4" t="s">
+      <c r="H10" s="6">
+        <v>2</v>
+      </c>
+      <c r="I10" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="S11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="T11" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12">
-        <v>2001022</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="6">
-        <v>2</v>
-      </c>
-      <c r="F12" s="6">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6">
-        <v>0</v>
-      </c>
-      <c r="H12" s="6">
-        <v>0</v>
-      </c>
-      <c r="I12" s="6">
-        <v>3001012</v>
-      </c>
-      <c r="J12" s="6">
-        <v>6000</v>
-      </c>
-      <c r="K12" s="6">
-        <v>300</v>
-      </c>
-      <c r="L12" s="6">
-        <v>100</v>
-      </c>
-      <c r="M12" s="6">
-        <v>1400</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="R12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="T12" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13">
-        <v>2001023</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="6">
-        <v>0</v>
-      </c>
-      <c r="F13" s="6">
-        <v>0</v>
-      </c>
-      <c r="G13" s="6">
-        <v>0</v>
-      </c>
-      <c r="H13" s="6">
-        <v>2</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="J13" s="6">
-        <v>0</v>
-      </c>
-      <c r="K13" s="6">
-        <v>100</v>
-      </c>
-      <c r="L13" s="6">
-        <v>100</v>
-      </c>
-      <c r="M13" s="6">
-        <v>5000</v>
-      </c>
-      <c r="N13">
-        <v>15008014</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="R13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="T13" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" spans="2:20">
-      <c r="B14">
-        <v>2001023</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" s="6">
-        <v>1</v>
-      </c>
-      <c r="F14" s="6">
-        <v>0</v>
-      </c>
-      <c r="G14" s="6">
-        <v>0</v>
-      </c>
-      <c r="H14" s="6">
-        <v>1</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="J14" s="6">
-        <v>12000</v>
-      </c>
-      <c r="K14" s="6">
-        <v>550</v>
-      </c>
-      <c r="L14" s="6">
-        <v>100</v>
-      </c>
-      <c r="M14" s="6">
-        <v>7000</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q14" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="R14" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="S14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="T14" s="4" t="s">
-        <v>45</v>
-      </c>
+      <c r="J10" s="6">
+        <v>0</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0</v>
+      </c>
+      <c r="M10" s="6">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S10" s="5">
+        <v>0</v>
+      </c>
+      <c r="T10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="3:20">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+    </row>
+    <row r="12" customFormat="1" spans="3:20">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+    </row>
+    <row r="13" customFormat="1" spans="3:20">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
         <v>0</v>
       </c>
       <c r="B15">
+        <v>2001021</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+      <c r="H15" s="6">
+        <v>1</v>
+      </c>
+      <c r="I15" s="6">
+        <v>3001011</v>
+      </c>
+      <c r="J15" s="6">
+        <v>0</v>
+      </c>
+      <c r="K15" s="6">
+        <v>100</v>
+      </c>
+      <c r="L15" s="6">
+        <v>100</v>
+      </c>
+      <c r="M15" s="6">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>2001022</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="6">
+        <v>2</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0</v>
+      </c>
+      <c r="I16" s="6">
+        <v>3001012</v>
+      </c>
+      <c r="J16" s="6">
+        <v>6000</v>
+      </c>
+      <c r="K16" s="6">
+        <v>300</v>
+      </c>
+      <c r="L16" s="6">
+        <v>100</v>
+      </c>
+      <c r="M16" s="6">
+        <v>1400</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T16" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>2001023</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0</v>
+      </c>
+      <c r="H17" s="6">
+        <v>2</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="J17" s="6">
+        <v>0</v>
+      </c>
+      <c r="K17" s="6">
+        <v>100</v>
+      </c>
+      <c r="L17" s="6">
+        <v>100</v>
+      </c>
+      <c r="M17" s="6">
+        <v>5000</v>
+      </c>
+      <c r="N17">
+        <v>15008014</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T17" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="1:20">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18">
         <v>2001024</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C18" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E15" s="6">
-        <v>0</v>
-      </c>
-      <c r="F15" s="6">
-        <v>0</v>
-      </c>
-      <c r="G15" s="6">
+      <c r="E18" s="6">
         <v>1</v>
       </c>
-      <c r="H15" s="6">
+      <c r="F18" s="6">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0</v>
+      </c>
+      <c r="H18" s="6">
+        <v>1</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" s="6">
+        <v>8000</v>
+      </c>
+      <c r="K18" s="6">
+        <v>300</v>
+      </c>
+      <c r="L18" s="6">
+        <v>100</v>
+      </c>
+      <c r="M18" s="6">
+        <v>3000</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T18" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>2001025</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="6">
+        <v>1</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0</v>
+      </c>
+      <c r="H19" s="6">
+        <v>1</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="J19" s="6">
+        <v>8000</v>
+      </c>
+      <c r="K19" s="6">
+        <v>100</v>
+      </c>
+      <c r="L19" s="6">
+        <v>100</v>
+      </c>
+      <c r="M19" s="6">
+        <v>1500</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T19" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="1:20">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>2001026</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6">
+        <v>1</v>
+      </c>
+      <c r="H20" s="6">
         <v>2</v>
       </c>
-      <c r="I15" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="J15" s="6">
-        <v>0</v>
-      </c>
-      <c r="K15" s="6">
-        <v>0</v>
-      </c>
-      <c r="L15" s="6">
-        <v>0</v>
-      </c>
-      <c r="M15" s="6">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="R15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="T15" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" spans="1:20">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16">
-        <v>2001025</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16" s="6">
-        <v>0</v>
-      </c>
-      <c r="F16" s="6">
-        <v>0</v>
-      </c>
-      <c r="G16" s="6">
-        <v>1</v>
-      </c>
-      <c r="H16" s="6">
-        <v>2</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="J16" s="6">
-        <v>0</v>
-      </c>
-      <c r="K16" s="6">
-        <v>0</v>
-      </c>
-      <c r="L16" s="6">
-        <v>0</v>
-      </c>
-      <c r="M16" s="6">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q16" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="R16" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S16" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="T16" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" s="2" customFormat="1" spans="1:20">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-    </row>
-    <row r="18" spans="3:13">
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-    </row>
-    <row r="19" customFormat="1" spans="3:20">
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-    </row>
-    <row r="20" customFormat="1" spans="3:20">
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-    </row>
-    <row r="21" customFormat="1" spans="3:20">
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
+      <c r="I20" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="J20" s="6">
+        <v>0</v>
+      </c>
+      <c r="K20" s="6">
+        <v>0</v>
+      </c>
+      <c r="L20" s="6">
+        <v>0</v>
+      </c>
+      <c r="M20" s="6">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T20" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" spans="1:20">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
     </row>
-    <row r="22" customFormat="1" spans="3:20">
+    <row r="22" ht="12" customHeight="1" spans="3:13">
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -2649,189 +2743,166 @@
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-    </row>
-    <row r="23" customFormat="1" spans="3:20">
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-    </row>
-    <row r="24" s="3" customFormat="1" spans="16:20">
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
+    </row>
+    <row r="23" customFormat="1" spans="1:21">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>2001050</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="6">
+        <v>2</v>
+      </c>
+      <c r="F23" s="6">
+        <v>1</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0</v>
+      </c>
+      <c r="H23" s="6">
+        <v>0</v>
+      </c>
+      <c r="I23" s="6">
+        <v>16001010</v>
+      </c>
+      <c r="J23" s="6">
+        <v>10000</v>
+      </c>
+      <c r="K23" s="6">
+        <v>1500</v>
+      </c>
+      <c r="L23" s="6">
+        <v>0</v>
+      </c>
+      <c r="M23" s="6">
+        <v>600</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S23" s="5">
+        <v>0</v>
+      </c>
+      <c r="T23" s="5">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>2500005</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" spans="3:20">
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
     </row>
-    <row r="26" spans="1:14">
-      <c r="A26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26">
-        <v>2002001</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E26" s="6">
-        <v>1</v>
-      </c>
-      <c r="F26" s="6">
-        <v>0</v>
-      </c>
-      <c r="G26" s="6">
-        <v>0</v>
-      </c>
-      <c r="H26" s="6">
-        <v>1</v>
-      </c>
-      <c r="I26" s="6">
-        <v>3002001</v>
-      </c>
-      <c r="J26" s="6">
-        <v>0</v>
-      </c>
-      <c r="K26" s="6">
-        <v>500</v>
-      </c>
-      <c r="L26" s="6">
-        <v>0</v>
-      </c>
-      <c r="M26" s="6">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27">
-        <v>2002002</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E27" s="6">
-        <v>2</v>
-      </c>
-      <c r="F27" s="6">
-        <v>0</v>
-      </c>
-      <c r="G27" s="6">
-        <v>0</v>
-      </c>
-      <c r="H27" s="6">
-        <v>0</v>
-      </c>
-      <c r="I27" s="6">
-        <v>3002002</v>
-      </c>
-      <c r="J27" s="6">
-        <v>2000</v>
-      </c>
-      <c r="K27" s="6">
-        <v>200</v>
-      </c>
-      <c r="L27" s="6">
-        <v>0</v>
-      </c>
-      <c r="M27" s="6">
-        <v>1000</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" customFormat="1" spans="1:20">
-      <c r="A29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29">
-        <v>2003001</v>
-      </c>
-      <c r="C29" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E29" s="6">
-        <v>1</v>
-      </c>
-      <c r="F29" s="6">
-        <v>0</v>
-      </c>
-      <c r="G29" s="6">
-        <v>0</v>
-      </c>
-      <c r="H29" s="6">
-        <v>1</v>
-      </c>
-      <c r="I29">
-        <v>3003001</v>
-      </c>
-      <c r="J29" s="6">
-        <v>0</v>
-      </c>
-      <c r="K29" s="6">
-        <v>500</v>
-      </c>
-      <c r="L29" s="6">
-        <v>0</v>
-      </c>
-      <c r="M29" s="6">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
+    <row r="25" customFormat="1" spans="3:20">
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+    </row>
+    <row r="26" customFormat="1" spans="3:20">
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+    </row>
+    <row r="27" customFormat="1" spans="3:20">
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+    </row>
+    <row r="28" s="3" customFormat="1" spans="16:20">
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" t="s">
         <v>0</v>
       </c>
       <c r="B30">
-        <v>2003002</v>
+        <v>2002001</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>84</v>
       </c>
       <c r="E30" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30" s="6">
         <v>0</v>
@@ -2842,40 +2913,40 @@
       <c r="H30" s="6">
         <v>1</v>
       </c>
-      <c r="I30" s="12" t="s">
+      <c r="I30" s="6">
+        <v>3002001</v>
+      </c>
+      <c r="J30" s="6">
+        <v>0</v>
+      </c>
+      <c r="K30" s="6">
+        <v>500</v>
+      </c>
+      <c r="L30" s="6">
+        <v>0</v>
+      </c>
+      <c r="M30" s="6">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>2002002</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="J30" s="6">
-        <v>8000</v>
-      </c>
-      <c r="K30" s="6">
-        <v>600</v>
-      </c>
-      <c r="L30" s="6">
-        <v>0</v>
-      </c>
-      <c r="M30" s="6">
-        <v>2000</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
-      <c r="A31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31">
-        <v>2003003</v>
-      </c>
-      <c r="C31" s="6" t="s">
+      <c r="D31" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>87</v>
-      </c>
       <c r="E31" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F31" s="6">
         <v>0</v>
@@ -2886,67 +2957,579 @@
       <c r="H31" s="6">
         <v>2</v>
       </c>
-      <c r="I31" s="12" t="s">
+      <c r="I31" s="6">
+        <v>13002030</v>
+      </c>
+      <c r="J31" s="6">
+        <v>999999</v>
+      </c>
+      <c r="K31" s="6">
+        <v>1500</v>
+      </c>
+      <c r="L31" s="6">
+        <v>0</v>
+      </c>
+      <c r="M31" s="6">
+        <v>1000</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R31" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S31" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T31" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="U31">
+        <v>2500010</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" spans="3:20">
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+    </row>
+    <row r="33" customFormat="1" spans="1:20">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>2002011</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E33" s="6">
+        <v>1</v>
+      </c>
+      <c r="F33" s="6">
+        <v>0</v>
+      </c>
+      <c r="G33" s="6">
+        <v>0</v>
+      </c>
+      <c r="H33" s="6">
+        <v>1</v>
+      </c>
+      <c r="I33" s="6">
+        <v>3002011</v>
+      </c>
+      <c r="J33" s="6">
+        <v>0</v>
+      </c>
+      <c r="K33" s="6">
+        <v>500</v>
+      </c>
+      <c r="L33" s="6">
+        <v>0</v>
+      </c>
+      <c r="M33" s="6">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+    </row>
+    <row r="34" customFormat="1" spans="1:21">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>2002012</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="J31" s="6">
-        <v>0</v>
-      </c>
-      <c r="K31" s="6">
+      <c r="D34" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E34" s="6">
+        <v>2</v>
+      </c>
+      <c r="F34" s="6">
+        <v>0</v>
+      </c>
+      <c r="G34" s="6">
+        <v>0</v>
+      </c>
+      <c r="H34" s="6">
+        <v>0</v>
+      </c>
+      <c r="I34" s="6">
+        <v>3002012</v>
+      </c>
+      <c r="J34" s="6">
+        <v>10000</v>
+      </c>
+      <c r="K34" s="6">
+        <v>1000</v>
+      </c>
+      <c r="L34" s="6">
+        <v>100</v>
+      </c>
+      <c r="M34" s="6">
+        <v>2000</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R34" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S34" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T34" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="U34">
+        <v>2500011</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" spans="4:20">
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+    </row>
+    <row r="36" customFormat="1" spans="4:20">
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+    </row>
+    <row r="37" customFormat="1" spans="1:20">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>2003001</v>
+      </c>
+      <c r="C37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" s="6">
+        <v>1</v>
+      </c>
+      <c r="F37" s="6">
+        <v>0</v>
+      </c>
+      <c r="G37" s="6">
+        <v>0</v>
+      </c>
+      <c r="H37" s="6">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>3003001</v>
+      </c>
+      <c r="J37" s="6">
+        <v>0</v>
+      </c>
+      <c r="K37" s="6">
+        <v>500</v>
+      </c>
+      <c r="L37" s="6">
+        <v>0</v>
+      </c>
+      <c r="M37" s="6">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>2003002</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E38" s="6">
+        <v>2</v>
+      </c>
+      <c r="F38" s="6">
+        <v>0</v>
+      </c>
+      <c r="G38" s="6">
+        <v>0</v>
+      </c>
+      <c r="H38" s="6">
+        <v>1</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="J38" s="6">
+        <v>8000</v>
+      </c>
+      <c r="K38" s="6">
+        <v>600</v>
+      </c>
+      <c r="L38" s="6">
+        <v>0</v>
+      </c>
+      <c r="M38" s="6">
+        <v>2000</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>2003003</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E39" s="6">
+        <v>0</v>
+      </c>
+      <c r="F39" s="6">
+        <v>0</v>
+      </c>
+      <c r="G39" s="6">
+        <v>0</v>
+      </c>
+      <c r="H39" s="6">
+        <v>2</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="J39" s="6">
+        <v>0</v>
+      </c>
+      <c r="K39" s="6">
         <v>50</v>
       </c>
-      <c r="L31" s="6">
-        <v>0</v>
-      </c>
-      <c r="M31" s="6">
+      <c r="L39" s="6">
+        <v>0</v>
+      </c>
+      <c r="M39" s="6">
         <v>6000</v>
       </c>
-      <c r="N31">
+      <c r="N39">
         <v>15008005</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
-      <c r="A32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32">
+    <row r="40" spans="1:14">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40">
         <v>2003004</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E32" s="6">
+      <c r="C40" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E40" s="6">
         <v>2</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F40" s="6">
         <v>1</v>
       </c>
-      <c r="G32" s="6">
-        <v>0</v>
-      </c>
-      <c r="H32" s="6">
-        <v>0</v>
-      </c>
-      <c r="I32" s="6">
+      <c r="G40" s="6">
+        <v>0</v>
+      </c>
+      <c r="H40" s="6">
+        <v>0</v>
+      </c>
+      <c r="I40" s="6">
         <v>16001001</v>
       </c>
-      <c r="J32" s="6">
+      <c r="J40" s="6">
         <v>8000</v>
       </c>
-      <c r="K32" s="6">
-        <v>0</v>
-      </c>
-      <c r="L32" s="6">
-        <v>0</v>
-      </c>
-      <c r="M32" s="6">
+      <c r="K40" s="6">
+        <v>0</v>
+      </c>
+      <c r="L40" s="6">
+        <v>0</v>
+      </c>
+      <c r="M40" s="6">
         <v>1500</v>
       </c>
-      <c r="N32">
-        <v>0</v>
+      <c r="N40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" customFormat="1" spans="1:20">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>2003050</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E42" s="6">
+        <v>0</v>
+      </c>
+      <c r="F42" s="6">
+        <v>0</v>
+      </c>
+      <c r="G42" s="6">
+        <v>1</v>
+      </c>
+      <c r="H42" s="6">
+        <v>2</v>
+      </c>
+      <c r="I42" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="J42" s="6">
+        <v>0</v>
+      </c>
+      <c r="K42" s="6">
+        <v>0</v>
+      </c>
+      <c r="L42" s="6">
+        <v>0</v>
+      </c>
+      <c r="M42" s="6">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q42" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R42" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S42" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T42" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" spans="1:20">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>2003051</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E43" s="6">
+        <v>0</v>
+      </c>
+      <c r="F43" s="6">
+        <v>0</v>
+      </c>
+      <c r="G43" s="6">
+        <v>1</v>
+      </c>
+      <c r="H43" s="6">
+        <v>2</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="J43" s="6">
+        <v>0</v>
+      </c>
+      <c r="K43" s="6">
+        <v>0</v>
+      </c>
+      <c r="L43" s="6">
+        <v>0</v>
+      </c>
+      <c r="M43" s="6">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q43" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R43" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S43" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T43" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" customFormat="1" spans="1:21">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>2003052</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E44" s="6">
+        <v>0</v>
+      </c>
+      <c r="F44" s="6">
+        <v>0</v>
+      </c>
+      <c r="G44" s="6">
+        <v>0</v>
+      </c>
+      <c r="H44" s="6">
+        <v>0</v>
+      </c>
+      <c r="I44" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="J44" s="6">
+        <v>0</v>
+      </c>
+      <c r="K44" s="6">
+        <v>1500</v>
+      </c>
+      <c r="L44" s="6">
+        <v>100</v>
+      </c>
+      <c r="M44" s="6">
+        <v>2000</v>
+      </c>
+      <c r="N44">
+        <v>15008014</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q44" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R44" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S44" s="5">
+        <v>0</v>
+      </c>
+      <c r="T44" s="5">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>2500020</v>
       </c>
     </row>
   </sheetData>
@@ -2963,7 +3546,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2980,7 +3563,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_table/Skill.xlsx
+++ b/data_table/Skill.xlsx
@@ -19,9 +19,10 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Zxy</author>
+    <author>94067</author>
   </authors>
   <commentList>
-    <comment ref="E3" authorId="0">
+    <comment ref="F3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="0">
+    <comment ref="G3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0">
+    <comment ref="H3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -93,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0">
+    <comment ref="I3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -117,7 +118,29 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="0">
+    <comment ref="L3" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>94067:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+这里前摇时间 和 后摇时间 一共加起来 应该是总的技能动画时长(时长缩放比例之后)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -140,7 +163,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="0">
+    <comment ref="T3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -165,7 +188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="0">
+    <comment ref="U3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -189,7 +212,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="0">
+    <comment ref="V3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -216,7 +239,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="0">
+    <comment ref="W3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -241,7 +264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T3" authorId="0">
+    <comment ref="X3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -274,7 +297,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="113">
   <si>
     <t>#</t>
   </si>
@@ -288,6 +311,9 @@
     <t>describe</t>
   </si>
   <si>
+    <t>iconResId</t>
+  </si>
+  <si>
     <t>skillReleaseTargeType</t>
   </si>
   <si>
@@ -315,6 +341,15 @@
     <t>cdTime</t>
   </si>
   <si>
+    <t>isBigSkill</t>
+  </si>
+  <si>
+    <t>animationSpeedScale</t>
+  </si>
+  <si>
+    <t>animationTriggerName</t>
+  </si>
+  <si>
     <t>releaserEffectResId</t>
   </si>
   <si>
@@ -357,6 +392,9 @@
     <t>技能介绍</t>
   </si>
   <si>
+    <t>技能图标资源id</t>
+  </si>
+  <si>
     <t>技能释放目标类型</t>
   </si>
   <si>
@@ -382,6 +420,15 @@
   </si>
   <si>
     <t>技能CD（毫秒）(在释放技能结束后,后摇时间开始前,则开始计时)(普通攻击不计算在这里)</t>
+  </si>
+  <si>
+    <t>是否是大招</t>
+  </si>
+  <si>
+    <t>动画速度缩放(*1000),1 000为正常 和前后摇校正动画</t>
+  </si>
+  <si>
+    <t>技能动画触发名称</t>
   </si>
   <si>
     <t>释放者释放技能时候在身上的特效</t>
@@ -765,7 +812,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -781,6 +828,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1085,10 +1138,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1097,16 +1150,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1118,10 +1171,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1142,28 +1195,28 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1172,19 +1225,16 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1196,38 +1246,41 @@
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1238,6 +1291,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1261,22 +1317,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1627,12 +1689,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U44"/>
+  <dimension ref="A1:Y44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="G1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="L45" sqref="L45"/>
+      <selection pane="topRight" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1640,30 +1702,34 @@
     <col min="2" max="2" width="10.5" customWidth="1"/>
     <col min="3" max="3" width="11.625" customWidth="1"/>
     <col min="4" max="4" width="20.125" customWidth="1"/>
-    <col min="5" max="5" width="10.5" customWidth="1"/>
-    <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="13.875" customWidth="1"/>
-    <col min="8" max="8" width="13.375" customWidth="1"/>
-    <col min="9" max="9" width="19.75" customWidth="1"/>
-    <col min="10" max="10" width="15.5" customWidth="1"/>
-    <col min="11" max="11" width="14.625" customWidth="1"/>
-    <col min="12" max="12" width="9.625" customWidth="1"/>
-    <col min="13" max="14" width="12.375" customWidth="1"/>
-    <col min="15" max="15" width="10" customWidth="1"/>
-    <col min="16" max="16" width="22.625" style="4" customWidth="1"/>
-    <col min="17" max="17" width="10.125" style="4" customWidth="1"/>
-    <col min="18" max="18" width="25.625" style="4" customWidth="1"/>
-    <col min="19" max="19" width="12.375" style="5" customWidth="1"/>
-    <col min="20" max="20" width="21" style="5" customWidth="1"/>
-    <col min="21" max="21" width="21.875" customWidth="1"/>
-    <col min="22" max="22" width="27.75" customWidth="1"/>
+    <col min="5" max="5" width="14.25" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
+    <col min="8" max="8" width="13.875" customWidth="1"/>
+    <col min="9" max="9" width="13.375" customWidth="1"/>
+    <col min="10" max="10" width="19.75" customWidth="1"/>
+    <col min="11" max="11" width="15.5" customWidth="1"/>
+    <col min="12" max="12" width="14.625" customWidth="1"/>
+    <col min="13" max="13" width="9.625" customWidth="1"/>
+    <col min="14" max="15" width="12.375" customWidth="1"/>
+    <col min="16" max="16" width="21.625" customWidth="1"/>
+    <col min="17" max="17" width="21.5" style="4" customWidth="1"/>
+    <col min="18" max="18" width="12.375" customWidth="1"/>
+    <col min="19" max="19" width="10" customWidth="1"/>
+    <col min="20" max="20" width="22.625" style="5" customWidth="1"/>
+    <col min="21" max="21" width="10.125" style="5" customWidth="1"/>
+    <col min="22" max="22" width="25.625" style="5" customWidth="1"/>
+    <col min="23" max="23" width="12.375" style="6" customWidth="1"/>
+    <col min="24" max="24" width="21" style="6" customWidth="1"/>
+    <col min="25" max="25" width="21.875" customWidth="1"/>
+    <col min="26" max="26" width="27.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1696,1473 +1762,1695 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:21">
+      <c r="V1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" t="s">
+        <v>25</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="U2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" ht="93" customHeight="1" spans="1:21">
+        <v>26</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" ht="93" customHeight="1" spans="1:25">
       <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="B3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="F3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="G3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="H3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="I3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="J3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="K3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="L3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="M3" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="N3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="S3" s="15" t="s">
+      <c r="O3" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="P3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="U3" t="s">
+      <c r="Q3" s="14" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="R3" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="T3" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="U3" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W3" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4">
         <v>2001001</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="6">
+      <c r="C4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7">
         <v>1</v>
       </c>
-      <c r="F4" s="6">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0</v>
-      </c>
-      <c r="H4" s="6">
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="6">
+      <c r="J4" s="7">
         <v>3001001</v>
       </c>
-      <c r="J4" s="6">
-        <v>0</v>
-      </c>
-      <c r="K4" s="6">
+      <c r="K4" s="7">
+        <v>0</v>
+      </c>
+      <c r="L4" s="10">
+        <v>233</v>
+      </c>
+      <c r="M4" s="10">
         <v>100</v>
       </c>
-      <c r="L4" s="6">
-        <v>500</v>
-      </c>
-      <c r="M4" s="6">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="S4" s="5">
-        <v>0</v>
-      </c>
-      <c r="T4" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="2:20">
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7">
+        <v>2000</v>
+      </c>
+      <c r="Q4" s="17"/>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="W4" s="6">
+        <v>0</v>
+      </c>
+      <c r="X4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="2:24">
       <c r="B5" s="1">
         <v>2001002</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="9">
+      <c r="C5" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="10">
         <v>2</v>
       </c>
-      <c r="F5" s="9">
-        <v>0</v>
-      </c>
-      <c r="G5" s="9">
-        <v>0</v>
-      </c>
-      <c r="H5" s="9">
-        <v>0</v>
-      </c>
-      <c r="I5" s="9">
+      <c r="G5" s="10">
+        <v>0</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0</v>
+      </c>
+      <c r="J5" s="10">
         <v>3001002</v>
       </c>
-      <c r="J5" s="9">
+      <c r="K5" s="10">
         <v>99000</v>
       </c>
-      <c r="K5" s="9">
+      <c r="L5" s="10">
         <v>100</v>
       </c>
-      <c r="L5" s="9">
+      <c r="M5" s="10">
         <v>500</v>
       </c>
-      <c r="M5" s="9">
+      <c r="N5" s="10">
         <v>1000</v>
       </c>
-      <c r="N5" s="1">
-        <v>0</v>
-      </c>
-      <c r="O5">
+      <c r="O5" s="10"/>
+      <c r="P5" s="10">
+        <v>1000</v>
+      </c>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+      <c r="S5">
         <v>1</v>
       </c>
-      <c r="P5" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q5" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="R5" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="S5" s="16">
-        <v>0</v>
-      </c>
-      <c r="T5" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:20">
+      <c r="T5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="U5" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="V5" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="W5" s="18">
+        <v>0</v>
+      </c>
+      <c r="X5" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:24">
       <c r="A6" t="s">
         <v>0</v>
       </c>
       <c r="B6">
         <v>2001002</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6">
+      <c r="C6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="7">
+        <v>15003751</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
         <v>2</v>
       </c>
-      <c r="I6" s="6">
+      <c r="J6" s="7">
         <v>14001010</v>
       </c>
-      <c r="J6" s="6">
-        <v>0</v>
-      </c>
-      <c r="K6" s="6">
+      <c r="K6" s="7">
+        <v>0</v>
+      </c>
+      <c r="L6" s="7">
         <v>100</v>
       </c>
-      <c r="L6" s="6">
+      <c r="M6" s="7">
         <v>500</v>
       </c>
-      <c r="M6" s="6">
+      <c r="N6" s="7">
         <v>4000</v>
       </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S6" s="5">
-        <v>0</v>
-      </c>
-      <c r="T6" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
+      <c r="O6" s="7"/>
+      <c r="P6" s="10">
+        <v>1000</v>
+      </c>
+      <c r="Q6" s="17"/>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="V6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="W6" s="6">
+        <v>0</v>
+      </c>
+      <c r="X6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
         <v>0</v>
       </c>
       <c r="B7">
         <v>2001003</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0</v>
-      </c>
-      <c r="H7" s="6">
-        <v>0</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="J7" s="6">
-        <v>0</v>
-      </c>
-      <c r="K7" s="6">
+      <c r="C7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="7">
+        <v>15003752</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="7">
         <v>100</v>
       </c>
-      <c r="L7" s="6">
+      <c r="M7" s="7">
         <v>500</v>
       </c>
-      <c r="M7" s="6">
+      <c r="N7" s="7">
         <v>2000</v>
       </c>
-      <c r="N7">
+      <c r="O7" s="7"/>
+      <c r="P7" s="10">
+        <v>1000</v>
+      </c>
+      <c r="Q7" s="17"/>
+      <c r="R7">
         <v>15008014</v>
       </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S7" s="5">
-        <v>0</v>
-      </c>
-      <c r="T7" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" spans="1:20">
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="W7" s="6">
+        <v>0</v>
+      </c>
+      <c r="X7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:24">
       <c r="A8" t="s">
         <v>0</v>
       </c>
       <c r="B8">
         <v>2001004</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="6">
+      <c r="C8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="7">
+        <v>15003753</v>
+      </c>
+      <c r="F8" s="7">
         <v>2</v>
       </c>
-      <c r="F8" s="6">
+      <c r="G8" s="7">
         <v>1</v>
       </c>
-      <c r="G8" s="6">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6">
-        <v>0</v>
-      </c>
-      <c r="I8" s="6">
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7">
         <v>16001001</v>
       </c>
-      <c r="J8" s="6">
+      <c r="K8" s="7">
         <v>10000</v>
       </c>
-      <c r="K8" s="6">
+      <c r="L8" s="7">
         <v>100</v>
       </c>
-      <c r="L8" s="6">
+      <c r="M8" s="7">
         <v>100</v>
       </c>
-      <c r="M8" s="6">
+      <c r="N8" s="7">
         <v>2000</v>
       </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="S8" s="5">
-        <v>0</v>
-      </c>
-      <c r="T8" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" spans="1:20">
+      <c r="O8" s="7"/>
+      <c r="P8" s="10">
+        <v>1000</v>
+      </c>
+      <c r="Q8" s="17"/>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="W8" s="6">
+        <v>0</v>
+      </c>
+      <c r="X8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:24">
       <c r="A9" t="s">
         <v>0</v>
       </c>
       <c r="B9">
         <v>2001005</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6">
-        <v>0</v>
-      </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-      <c r="H9" s="6">
+      <c r="C9" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="7">
+        <v>15003754</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7">
         <v>2</v>
       </c>
-      <c r="I9" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="J9" s="6">
-        <v>0</v>
-      </c>
-      <c r="K9" s="6">
+      <c r="J9" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0</v>
+      </c>
+      <c r="L9" s="7">
         <v>100</v>
       </c>
-      <c r="L9" s="6">
+      <c r="M9" s="7">
         <v>100</v>
       </c>
-      <c r="M9" s="6">
+      <c r="N9" s="7">
         <v>10000</v>
       </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S9" s="5">
-        <v>0</v>
-      </c>
-      <c r="T9" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" spans="1:20">
+      <c r="O9" s="7">
+        <v>1</v>
+      </c>
+      <c r="P9" s="10">
+        <v>1000</v>
+      </c>
+      <c r="Q9" s="17"/>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="V9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="W9" s="6">
+        <v>0</v>
+      </c>
+      <c r="X9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:24">
       <c r="A10" t="s">
         <v>0</v>
       </c>
       <c r="B10">
         <v>2001006</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6">
+      <c r="C10" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="7">
+        <v>15003755</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0</v>
+      </c>
+      <c r="H10" s="7">
         <v>1</v>
       </c>
-      <c r="H10" s="6">
+      <c r="I10" s="7">
         <v>2</v>
       </c>
-      <c r="I10" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="J10" s="6">
-        <v>0</v>
-      </c>
-      <c r="K10" s="6">
-        <v>0</v>
-      </c>
-      <c r="L10" s="6">
-        <v>0</v>
-      </c>
-      <c r="M10" s="6">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S10" s="5">
-        <v>0</v>
-      </c>
-      <c r="T10" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" spans="3:20">
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="5"/>
+      <c r="J10" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7"/>
+      <c r="P10" s="10">
+        <v>1000</v>
+      </c>
+      <c r="Q10" s="17"/>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="W10" s="6">
+        <v>0</v>
+      </c>
+      <c r="X10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="3:24">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="17"/>
       <c r="T11" s="5"/>
-    </row>
-    <row r="12" customFormat="1" spans="3:20">
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+    </row>
+    <row r="12" customFormat="1" spans="3:24">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="17"/>
       <c r="T12" s="5"/>
-    </row>
-    <row r="13" customFormat="1" spans="3:20">
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+    </row>
+    <row r="13" customFormat="1" spans="3:24">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="17"/>
       <c r="T13" s="5"/>
-    </row>
-    <row r="15" spans="1:20">
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
         <v>0</v>
       </c>
       <c r="B15">
         <v>2001021</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="6">
+      <c r="C15" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7">
         <v>1</v>
       </c>
-      <c r="F15" s="6">
-        <v>0</v>
-      </c>
-      <c r="G15" s="6">
-        <v>0</v>
-      </c>
-      <c r="H15" s="6">
+      <c r="G15" s="7">
+        <v>0</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0</v>
+      </c>
+      <c r="I15" s="7">
         <v>1</v>
       </c>
-      <c r="I15" s="6">
+      <c r="J15" s="7">
         <v>3001011</v>
       </c>
-      <c r="J15" s="6">
-        <v>0</v>
-      </c>
-      <c r="K15" s="6">
+      <c r="K15" s="7">
+        <v>0</v>
+      </c>
+      <c r="L15" s="7">
         <v>100</v>
       </c>
-      <c r="L15" s="6">
+      <c r="M15" s="7">
         <v>100</v>
       </c>
-      <c r="M15" s="6">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q15" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="R15" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="S15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="T15" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
+      <c r="N15" s="7">
+        <v>0</v>
+      </c>
+      <c r="O15" s="7"/>
+      <c r="P15" s="10">
+        <v>1000</v>
+      </c>
+      <c r="Q15" s="17"/>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="U15" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="V15" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="W15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="X15" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
         <v>0</v>
       </c>
       <c r="B16">
         <v>2001022</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" s="6">
+      <c r="C16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="7">
+        <v>15003751</v>
+      </c>
+      <c r="F16" s="7">
         <v>2</v>
       </c>
-      <c r="F16" s="6">
-        <v>0</v>
-      </c>
-      <c r="G16" s="6">
-        <v>0</v>
-      </c>
-      <c r="H16" s="6">
-        <v>0</v>
-      </c>
-      <c r="I16" s="6">
+      <c r="G16" s="7">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7">
         <v>3001012</v>
       </c>
-      <c r="J16" s="6">
+      <c r="K16" s="7">
         <v>6000</v>
       </c>
-      <c r="K16" s="6">
+      <c r="L16" s="7">
         <v>300</v>
       </c>
-      <c r="L16" s="6">
+      <c r="M16" s="7">
         <v>100</v>
       </c>
-      <c r="M16" s="6">
+      <c r="N16" s="7">
         <v>1400</v>
       </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q16" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="R16" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S16" s="4" t="s">
-        <v>45</v>
+      <c r="O16" s="7"/>
+      <c r="P16" s="10">
+        <v>1000</v>
+      </c>
+      <c r="Q16" s="17"/>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
+        <v>53</v>
+      </c>
+      <c r="U16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="V16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="W16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="X16" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
         <v>0</v>
       </c>
       <c r="B17">
         <v>2001023</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="6">
-        <v>0</v>
-      </c>
-      <c r="F17" s="6">
-        <v>0</v>
-      </c>
-      <c r="G17" s="6">
-        <v>0</v>
-      </c>
-      <c r="H17" s="6">
+      <c r="C17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="7">
+        <v>15003752</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
         <v>2</v>
       </c>
-      <c r="I17" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="J17" s="6">
-        <v>0</v>
-      </c>
-      <c r="K17" s="6">
+      <c r="J17" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" s="7">
+        <v>0</v>
+      </c>
+      <c r="L17" s="7">
         <v>100</v>
       </c>
-      <c r="L17" s="6">
+      <c r="M17" s="7">
         <v>100</v>
       </c>
-      <c r="M17" s="6">
+      <c r="N17" s="7">
         <v>5000</v>
       </c>
-      <c r="N17">
+      <c r="O17" s="7"/>
+      <c r="P17" s="10">
+        <v>1000</v>
+      </c>
+      <c r="Q17" s="17"/>
+      <c r="R17">
         <v>15008014</v>
       </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="R17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="T17" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" customFormat="1" spans="1:20">
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="V17" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="W17" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="X17" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="1:24">
       <c r="A18" t="s">
         <v>0</v>
       </c>
       <c r="B18">
         <v>2001024</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" s="6">
+      <c r="C18" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="7">
+        <v>15003753</v>
+      </c>
+      <c r="F18" s="7">
         <v>1</v>
       </c>
-      <c r="F18" s="6">
-        <v>0</v>
-      </c>
-      <c r="G18" s="6">
-        <v>0</v>
-      </c>
-      <c r="H18" s="6">
+      <c r="G18" s="7">
+        <v>0</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
         <v>1</v>
       </c>
-      <c r="I18" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="J18" s="6">
+      <c r="J18" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="K18" s="7">
         <v>8000</v>
       </c>
-      <c r="K18" s="6">
+      <c r="L18" s="7">
         <v>300</v>
       </c>
-      <c r="L18" s="6">
+      <c r="M18" s="7">
         <v>100</v>
       </c>
-      <c r="M18" s="6">
+      <c r="N18" s="7">
         <v>3000</v>
       </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q18" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="R18" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S18" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="T18" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
+      <c r="O18" s="7"/>
+      <c r="P18" s="10">
+        <v>1000</v>
+      </c>
+      <c r="Q18" s="17"/>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="U18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="V18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="W18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="X18" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" t="s">
         <v>0</v>
       </c>
       <c r="B19">
         <v>2001025</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E19" s="6">
+      <c r="C19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="7">
+        <v>15003754</v>
+      </c>
+      <c r="F19" s="7">
         <v>1</v>
       </c>
-      <c r="F19" s="6">
-        <v>0</v>
-      </c>
-      <c r="G19" s="6">
-        <v>0</v>
-      </c>
-      <c r="H19" s="6">
+      <c r="G19" s="7">
+        <v>0</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
         <v>1</v>
       </c>
-      <c r="I19" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="J19" s="6">
+      <c r="J19" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="K19" s="7">
         <v>8000</v>
       </c>
-      <c r="K19" s="6">
+      <c r="L19" s="7">
         <v>100</v>
       </c>
-      <c r="L19" s="6">
+      <c r="M19" s="7">
         <v>100</v>
       </c>
-      <c r="M19" s="6">
+      <c r="N19" s="7">
         <v>1500</v>
       </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q19" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="R19" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S19" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="T19" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" customFormat="1" spans="1:20">
+      <c r="O19" s="7">
+        <v>1</v>
+      </c>
+      <c r="P19" s="10">
+        <v>1000</v>
+      </c>
+      <c r="Q19" s="17"/>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="U19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="V19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="W19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="X19" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="1:24">
       <c r="A20" t="s">
         <v>0</v>
       </c>
       <c r="B20">
         <v>2001026</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" s="6">
-        <v>0</v>
-      </c>
-      <c r="F20" s="6">
-        <v>0</v>
-      </c>
-      <c r="G20" s="6">
+      <c r="C20" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="7">
+        <v>15003755</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0</v>
+      </c>
+      <c r="H20" s="7">
         <v>1</v>
       </c>
-      <c r="H20" s="6">
+      <c r="I20" s="7">
         <v>2</v>
       </c>
-      <c r="I20" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="J20" s="6">
-        <v>0</v>
-      </c>
-      <c r="K20" s="6">
-        <v>0</v>
-      </c>
-      <c r="L20" s="6">
-        <v>0</v>
-      </c>
-      <c r="M20" s="6">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q20" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="R20" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S20" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="T20" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" s="2" customFormat="1" spans="1:20">
+      <c r="J20" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="K20" s="7">
+        <v>0</v>
+      </c>
+      <c r="L20" s="7">
+        <v>0</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7"/>
+      <c r="P20" s="10">
+        <v>1000</v>
+      </c>
+      <c r="Q20" s="17"/>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="U20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="V20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="W20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="X20" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" spans="1:24">
       <c r="A21"/>
       <c r="B21"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-    </row>
-    <row r="22" ht="12" customHeight="1" spans="3:13">
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-    </row>
-    <row r="23" customFormat="1" spans="1:21">
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="17"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+    </row>
+    <row r="22" ht="12" customHeight="1" spans="3:17">
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="17"/>
+    </row>
+    <row r="23" customFormat="1" spans="1:25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
       <c r="B23">
         <v>2001050</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E23" s="6">
+      <c r="C23" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="7">
+        <v>15003753</v>
+      </c>
+      <c r="F23" s="7">
         <v>2</v>
       </c>
-      <c r="F23" s="6">
+      <c r="G23" s="7">
         <v>1</v>
       </c>
-      <c r="G23" s="6">
-        <v>0</v>
-      </c>
-      <c r="H23" s="6">
-        <v>0</v>
-      </c>
-      <c r="I23" s="6">
+      <c r="H23" s="7">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0</v>
+      </c>
+      <c r="J23" s="7">
         <v>16001010</v>
       </c>
-      <c r="J23" s="6">
+      <c r="K23" s="7">
         <v>10000</v>
       </c>
-      <c r="K23" s="6">
+      <c r="L23" s="7">
         <v>1500</v>
       </c>
-      <c r="L23" s="6">
-        <v>0</v>
-      </c>
-      <c r="M23" s="6">
+      <c r="M23" s="7">
+        <v>0</v>
+      </c>
+      <c r="N23" s="7">
         <v>600</v>
       </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
+      <c r="O23" s="7"/>
+      <c r="P23" s="10">
+        <v>1000</v>
+      </c>
+      <c r="Q23" s="17"/>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
         <v>1</v>
       </c>
-      <c r="P23" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q23" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="R23" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S23" s="5">
-        <v>0</v>
-      </c>
-      <c r="T23" s="5">
-        <v>0</v>
-      </c>
-      <c r="U23">
+      <c r="T23" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="U23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="V23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="W23" s="6">
+        <v>0</v>
+      </c>
+      <c r="X23" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y23">
         <v>2500005</v>
       </c>
     </row>
-    <row r="24" customFormat="1" spans="3:20">
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="5"/>
+    <row r="24" customFormat="1" spans="3:24">
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="17"/>
       <c r="T24" s="5"/>
-    </row>
-    <row r="25" customFormat="1" spans="3:20">
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+    </row>
+    <row r="25" customFormat="1" spans="3:24">
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="17"/>
       <c r="T25" s="5"/>
-    </row>
-    <row r="26" customFormat="1" spans="3:20">
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+    </row>
+    <row r="26" customFormat="1" spans="3:24">
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="17"/>
       <c r="T26" s="5"/>
-    </row>
-    <row r="27" customFormat="1" spans="3:20">
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
+    </row>
+    <row r="27" customFormat="1" spans="3:24">
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="17"/>
       <c r="T27" s="5"/>
-    </row>
-    <row r="28" s="3" customFormat="1" spans="16:20">
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+    </row>
+    <row r="28" s="3" customFormat="1" spans="17:24">
+      <c r="Q28" s="4"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="19"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" t="s">
         <v>0</v>
       </c>
       <c r="B30">
         <v>2002001</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E30" s="6">
+      <c r="C30" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7">
         <v>1</v>
       </c>
-      <c r="F30" s="6">
-        <v>0</v>
-      </c>
-      <c r="G30" s="6">
-        <v>0</v>
-      </c>
-      <c r="H30" s="6">
+      <c r="G30" s="7">
+        <v>0</v>
+      </c>
+      <c r="H30" s="7">
+        <v>0</v>
+      </c>
+      <c r="I30" s="7">
         <v>1</v>
       </c>
-      <c r="I30" s="6">
+      <c r="J30" s="7">
         <v>3002001</v>
       </c>
-      <c r="J30" s="6">
-        <v>0</v>
-      </c>
-      <c r="K30" s="6">
+      <c r="K30" s="7">
+        <v>0</v>
+      </c>
+      <c r="L30" s="7">
         <v>500</v>
       </c>
-      <c r="L30" s="6">
-        <v>0</v>
-      </c>
-      <c r="M30" s="6">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21">
+      <c r="M30" s="7">
+        <v>0</v>
+      </c>
+      <c r="N30" s="7">
+        <v>0</v>
+      </c>
+      <c r="O30" s="7"/>
+      <c r="P30" s="10">
+        <v>1000</v>
+      </c>
+      <c r="Q30" s="17"/>
+      <c r="R30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25">
       <c r="A31" t="s">
         <v>0</v>
       </c>
       <c r="B31">
         <v>2002002</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E31" s="6">
+      <c r="C31" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" s="7">
+        <v>15003753</v>
+      </c>
+      <c r="F31" s="7">
         <v>2</v>
       </c>
-      <c r="F31" s="6">
-        <v>0</v>
-      </c>
-      <c r="G31" s="6">
-        <v>0</v>
-      </c>
-      <c r="H31" s="6">
+      <c r="G31" s="7">
+        <v>0</v>
+      </c>
+      <c r="H31" s="7">
+        <v>0</v>
+      </c>
+      <c r="I31" s="7">
         <v>2</v>
       </c>
-      <c r="I31" s="6">
+      <c r="J31" s="7">
         <v>13002030</v>
       </c>
-      <c r="J31" s="6">
+      <c r="K31" s="7">
         <v>999999</v>
       </c>
-      <c r="K31" s="6">
+      <c r="L31" s="7">
         <v>1500</v>
       </c>
-      <c r="L31" s="6">
-        <v>0</v>
-      </c>
-      <c r="M31" s="6">
+      <c r="M31" s="7">
+        <v>0</v>
+      </c>
+      <c r="N31" s="7">
         <v>1000</v>
       </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q31" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="R31" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S31" s="5" t="s">
-        <v>45</v>
+      <c r="O31" s="7"/>
+      <c r="P31" s="10">
+        <v>1000</v>
+      </c>
+      <c r="Q31" s="17"/>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
       </c>
       <c r="T31" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="U31">
+        <v>53</v>
+      </c>
+      <c r="U31" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="V31" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="W31" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="X31" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y31">
         <v>2500010</v>
       </c>
     </row>
-    <row r="32" customFormat="1" spans="3:20">
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="5"/>
+    <row r="32" customFormat="1" spans="3:24">
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="17"/>
       <c r="T32" s="5"/>
-    </row>
-    <row r="33" customFormat="1" spans="1:20">
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="6"/>
+    </row>
+    <row r="33" customFormat="1" spans="1:24">
       <c r="A33" t="s">
         <v>0</v>
       </c>
       <c r="B33">
         <v>2002011</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E33" s="6">
+      <c r="C33" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7">
         <v>1</v>
       </c>
-      <c r="F33" s="6">
-        <v>0</v>
-      </c>
-      <c r="G33" s="6">
-        <v>0</v>
-      </c>
-      <c r="H33" s="6">
+      <c r="G33" s="7">
+        <v>0</v>
+      </c>
+      <c r="H33" s="7">
+        <v>0</v>
+      </c>
+      <c r="I33" s="7">
         <v>1</v>
       </c>
-      <c r="I33" s="6">
+      <c r="J33" s="7">
         <v>3002011</v>
       </c>
-      <c r="J33" s="6">
-        <v>0</v>
-      </c>
-      <c r="K33" s="6">
+      <c r="K33" s="7">
+        <v>0</v>
+      </c>
+      <c r="L33" s="7">
         <v>500</v>
       </c>
-      <c r="L33" s="6">
-        <v>0</v>
-      </c>
-      <c r="M33" s="6">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-      <c r="O33"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="5"/>
+      <c r="M33" s="7">
+        <v>0</v>
+      </c>
+      <c r="N33" s="7">
+        <v>0</v>
+      </c>
+      <c r="O33" s="7"/>
+      <c r="P33" s="10">
+        <v>1000</v>
+      </c>
+      <c r="Q33" s="17"/>
+      <c r="R33">
+        <v>0</v>
+      </c>
       <c r="T33" s="5"/>
-    </row>
-    <row r="34" customFormat="1" spans="1:21">
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="6"/>
+      <c r="X33" s="6"/>
+    </row>
+    <row r="34" customFormat="1" spans="1:25">
       <c r="A34" t="s">
         <v>0</v>
       </c>
       <c r="B34">
         <v>2002012</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E34" s="6">
+      <c r="C34" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E34" s="7">
+        <v>15003751</v>
+      </c>
+      <c r="F34" s="7">
         <v>2</v>
       </c>
-      <c r="F34" s="6">
-        <v>0</v>
-      </c>
-      <c r="G34" s="6">
-        <v>0</v>
-      </c>
-      <c r="H34" s="6">
-        <v>0</v>
-      </c>
-      <c r="I34" s="6">
+      <c r="G34" s="7">
+        <v>0</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0</v>
+      </c>
+      <c r="J34" s="7">
         <v>3002012</v>
       </c>
-      <c r="J34" s="6">
+      <c r="K34" s="7">
         <v>10000</v>
       </c>
-      <c r="K34" s="6">
+      <c r="L34" s="7">
         <v>1000</v>
       </c>
-      <c r="L34" s="6">
+      <c r="M34" s="7">
         <v>100</v>
       </c>
-      <c r="M34" s="6">
+      <c r="N34" s="7">
         <v>2000</v>
       </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q34" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="R34" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S34" s="4" t="s">
-        <v>46</v>
+      <c r="O34" s="7"/>
+      <c r="P34" s="10">
+        <v>1000</v>
+      </c>
+      <c r="Q34" s="17"/>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
       </c>
       <c r="T34" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="U34">
+        <v>53</v>
+      </c>
+      <c r="U34" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="V34" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="W34" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="X34" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y34">
         <v>2500011</v>
       </c>
     </row>
-    <row r="35" customFormat="1" spans="4:20">
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
-      <c r="S35" s="5"/>
+    <row r="35" customFormat="1" spans="4:24">
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="17"/>
       <c r="T35" s="5"/>
-    </row>
-    <row r="36" customFormat="1" spans="4:20">
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
-      <c r="S36" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="6"/>
+      <c r="X35" s="6"/>
+    </row>
+    <row r="36" customFormat="1" spans="4:24">
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="17"/>
       <c r="T36" s="5"/>
-    </row>
-    <row r="37" customFormat="1" spans="1:20">
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="6"/>
+      <c r="X36" s="6"/>
+    </row>
+    <row r="37" customFormat="1" spans="1:24">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -3170,365 +3458,419 @@
         <v>2003001</v>
       </c>
       <c r="C37" t="s">
-        <v>90</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E37" s="6">
+        <v>98</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7">
         <v>1</v>
       </c>
-      <c r="F37" s="6">
-        <v>0</v>
-      </c>
-      <c r="G37" s="6">
-        <v>0</v>
-      </c>
-      <c r="H37" s="6">
+      <c r="G37" s="7">
+        <v>0</v>
+      </c>
+      <c r="H37" s="7">
+        <v>0</v>
+      </c>
+      <c r="I37" s="7">
         <v>1</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>3003001</v>
       </c>
-      <c r="J37" s="6">
-        <v>0</v>
-      </c>
-      <c r="K37" s="6">
+      <c r="K37" s="7">
+        <v>0</v>
+      </c>
+      <c r="L37" s="7">
         <v>500</v>
       </c>
-      <c r="L37" s="6">
-        <v>0</v>
-      </c>
-      <c r="M37" s="6">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="4"/>
-      <c r="S37" s="5"/>
+      <c r="M37" s="7">
+        <v>0</v>
+      </c>
+      <c r="N37" s="7">
+        <v>0</v>
+      </c>
+      <c r="O37" s="7"/>
+      <c r="P37" s="10">
+        <v>1000</v>
+      </c>
+      <c r="Q37" s="17"/>
+      <c r="R37">
+        <v>0</v>
+      </c>
       <c r="T37" s="5"/>
-    </row>
-    <row r="38" spans="1:14">
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="6"/>
+      <c r="X37" s="6"/>
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38" t="s">
         <v>0</v>
       </c>
       <c r="B38">
         <v>2003002</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E38" s="6">
+      <c r="C38" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E38" s="7">
+        <v>15003751</v>
+      </c>
+      <c r="F38" s="7">
         <v>2</v>
       </c>
-      <c r="F38" s="6">
-        <v>0</v>
-      </c>
-      <c r="G38" s="6">
-        <v>0</v>
-      </c>
-      <c r="H38" s="6">
+      <c r="G38" s="7">
+        <v>0</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0</v>
+      </c>
+      <c r="I38" s="7">
         <v>1</v>
       </c>
-      <c r="I38" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="J38" s="6">
+      <c r="J38" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="K38" s="7">
         <v>8000</v>
       </c>
-      <c r="K38" s="6">
+      <c r="L38" s="7">
         <v>600</v>
       </c>
-      <c r="L38" s="6">
-        <v>0</v>
-      </c>
-      <c r="M38" s="6">
+      <c r="M38" s="7">
+        <v>0</v>
+      </c>
+      <c r="N38" s="7">
         <v>2000</v>
       </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
+      <c r="O38" s="7"/>
+      <c r="P38" s="10">
+        <v>1000</v>
+      </c>
+      <c r="Q38" s="17"/>
+      <c r="R38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39" t="s">
         <v>0</v>
       </c>
       <c r="B39">
         <v>2003003</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E39" s="6">
-        <v>0</v>
-      </c>
-      <c r="F39" s="6">
-        <v>0</v>
-      </c>
-      <c r="G39" s="6">
-        <v>0</v>
-      </c>
-      <c r="H39" s="6">
+      <c r="C39" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E39" s="7">
+        <v>15003753</v>
+      </c>
+      <c r="F39" s="7">
+        <v>0</v>
+      </c>
+      <c r="G39" s="7">
+        <v>0</v>
+      </c>
+      <c r="H39" s="7">
+        <v>0</v>
+      </c>
+      <c r="I39" s="7">
         <v>2</v>
       </c>
-      <c r="I39" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="J39" s="6">
-        <v>0</v>
-      </c>
-      <c r="K39" s="6">
+      <c r="J39" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="K39" s="7">
+        <v>0</v>
+      </c>
+      <c r="L39" s="7">
         <v>50</v>
       </c>
-      <c r="L39" s="6">
-        <v>0</v>
-      </c>
-      <c r="M39" s="6">
+      <c r="M39" s="7">
+        <v>0</v>
+      </c>
+      <c r="N39" s="7">
         <v>6000</v>
       </c>
-      <c r="N39">
+      <c r="O39" s="7"/>
+      <c r="P39" s="10">
+        <v>1000</v>
+      </c>
+      <c r="Q39" s="17"/>
+      <c r="R39">
         <v>15008005</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:18">
       <c r="A40" t="s">
         <v>0</v>
       </c>
       <c r="B40">
         <v>2003004</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E40" s="6">
+      <c r="C40" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E40" s="7">
+        <v>15003754</v>
+      </c>
+      <c r="F40" s="7">
         <v>2</v>
       </c>
-      <c r="F40" s="6">
+      <c r="G40" s="7">
         <v>1</v>
       </c>
-      <c r="G40" s="6">
-        <v>0</v>
-      </c>
-      <c r="H40" s="6">
-        <v>0</v>
-      </c>
-      <c r="I40" s="6">
+      <c r="H40" s="7">
+        <v>0</v>
+      </c>
+      <c r="I40" s="7">
+        <v>0</v>
+      </c>
+      <c r="J40" s="7">
         <v>16001001</v>
       </c>
-      <c r="J40" s="6">
+      <c r="K40" s="7">
         <v>8000</v>
       </c>
-      <c r="K40" s="6">
-        <v>0</v>
-      </c>
-      <c r="L40" s="6">
-        <v>0</v>
-      </c>
-      <c r="M40" s="6">
+      <c r="L40" s="7">
+        <v>0</v>
+      </c>
+      <c r="M40" s="7">
+        <v>0</v>
+      </c>
+      <c r="N40" s="7">
         <v>1500</v>
       </c>
-      <c r="N40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" customFormat="1" spans="1:20">
+      <c r="O40" s="7"/>
+      <c r="P40" s="10">
+        <v>1000</v>
+      </c>
+      <c r="Q40" s="17"/>
+      <c r="R40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" customFormat="1" spans="1:24">
       <c r="A42" t="s">
         <v>0</v>
       </c>
       <c r="B42">
         <v>2003050</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E42" s="6">
-        <v>0</v>
-      </c>
-      <c r="F42" s="6">
-        <v>0</v>
-      </c>
-      <c r="G42" s="6">
+      <c r="C42" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E42" s="7">
+        <v>15003751</v>
+      </c>
+      <c r="F42" s="7">
+        <v>0</v>
+      </c>
+      <c r="G42" s="7">
+        <v>0</v>
+      </c>
+      <c r="H42" s="7">
         <v>1</v>
       </c>
-      <c r="H42" s="6">
+      <c r="I42" s="7">
         <v>2</v>
       </c>
-      <c r="I42" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="J42" s="6">
-        <v>0</v>
-      </c>
-      <c r="K42" s="6">
-        <v>0</v>
-      </c>
-      <c r="L42" s="6">
-        <v>0</v>
-      </c>
-      <c r="M42" s="6">
-        <v>0</v>
-      </c>
-      <c r="N42">
-        <v>0</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q42" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="R42" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S42" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="T42" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" customFormat="1" spans="1:20">
+      <c r="J42" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="K42" s="7">
+        <v>0</v>
+      </c>
+      <c r="L42" s="7">
+        <v>0</v>
+      </c>
+      <c r="M42" s="7">
+        <v>0</v>
+      </c>
+      <c r="N42" s="7">
+        <v>0</v>
+      </c>
+      <c r="O42" s="7"/>
+      <c r="P42" s="10">
+        <v>1000</v>
+      </c>
+      <c r="Q42" s="17"/>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="U42" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="V42" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="W42" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="X42" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" spans="1:24">
       <c r="A43" t="s">
         <v>0</v>
       </c>
       <c r="B43">
         <v>2003051</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E43" s="6">
-        <v>0</v>
-      </c>
-      <c r="F43" s="6">
-        <v>0</v>
-      </c>
-      <c r="G43" s="6">
+      <c r="C43" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E43" s="7">
+        <v>15003752</v>
+      </c>
+      <c r="F43" s="7">
+        <v>0</v>
+      </c>
+      <c r="G43" s="7">
+        <v>0</v>
+      </c>
+      <c r="H43" s="7">
         <v>1</v>
       </c>
-      <c r="H43" s="6">
+      <c r="I43" s="7">
         <v>2</v>
       </c>
-      <c r="I43" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="J43" s="6">
-        <v>0</v>
-      </c>
-      <c r="K43" s="6">
-        <v>0</v>
-      </c>
-      <c r="L43" s="6">
-        <v>0</v>
-      </c>
-      <c r="M43" s="6">
-        <v>0</v>
-      </c>
-      <c r="N43">
-        <v>0</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q43" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="R43" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S43" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="T43" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" customFormat="1" spans="1:21">
+      <c r="J43" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="K43" s="7">
+        <v>0</v>
+      </c>
+      <c r="L43" s="7">
+        <v>0</v>
+      </c>
+      <c r="M43" s="7">
+        <v>0</v>
+      </c>
+      <c r="N43" s="7">
+        <v>0</v>
+      </c>
+      <c r="O43" s="7"/>
+      <c r="P43" s="10">
+        <v>1000</v>
+      </c>
+      <c r="Q43" s="17"/>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="U43" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="V43" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="W43" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="X43" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" customFormat="1" spans="1:25">
       <c r="A44" t="s">
         <v>0</v>
       </c>
       <c r="B44">
         <v>2003052</v>
       </c>
-      <c r="C44" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E44" s="6">
-        <v>0</v>
-      </c>
-      <c r="F44" s="6">
-        <v>0</v>
-      </c>
-      <c r="G44" s="6">
-        <v>0</v>
-      </c>
-      <c r="H44" s="6">
-        <v>0</v>
-      </c>
-      <c r="I44" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="J44" s="6">
-        <v>0</v>
-      </c>
-      <c r="K44" s="6">
+      <c r="C44" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E44" s="7">
+        <v>15003753</v>
+      </c>
+      <c r="F44" s="7">
+        <v>0</v>
+      </c>
+      <c r="G44" s="7">
+        <v>0</v>
+      </c>
+      <c r="H44" s="7">
+        <v>0</v>
+      </c>
+      <c r="I44" s="7">
+        <v>0</v>
+      </c>
+      <c r="J44" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="K44" s="7">
+        <v>0</v>
+      </c>
+      <c r="L44" s="7">
         <v>1500</v>
       </c>
-      <c r="L44" s="6">
+      <c r="M44" s="7">
         <v>100</v>
       </c>
-      <c r="M44" s="6">
+      <c r="N44" s="7">
         <v>2000</v>
       </c>
-      <c r="N44">
+      <c r="O44" s="7"/>
+      <c r="P44" s="10">
+        <v>1000</v>
+      </c>
+      <c r="Q44" s="17"/>
+      <c r="R44">
         <v>15008014</v>
       </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q44" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="R44" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S44" s="5">
-        <v>0</v>
-      </c>
-      <c r="T44" s="5">
-        <v>0</v>
-      </c>
-      <c r="U44">
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="U44" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="V44" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="W44" s="6">
+        <v>0</v>
+      </c>
+      <c r="X44" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y44">
         <v>2500020</v>
       </c>
     </row>

--- a/data_table/Skill.xlsx
+++ b/data_table/Skill.xlsx
@@ -4,14 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11805"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -66,7 +79,7 @@
           <t xml:space="preserve">
 0 前后摇技能(变为 Idle 然后前摇时间 释放技能 后摇时间)
 1 持续技能(变为 idle 持续时间依靠 skillEffect )
-</t>
+2 瞬发技能 直接释放</t>
         </r>
       </text>
     </comment>
@@ -118,7 +131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="1">
+    <comment ref="M3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -140,7 +153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T3" authorId="0">
+    <comment ref="V3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -163,7 +176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U3" authorId="0">
+    <comment ref="W3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -188,7 +201,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V3" authorId="0">
+    <comment ref="X3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -212,7 +225,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W3" authorId="0">
+    <comment ref="Y3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -239,7 +252,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X3" authorId="0">
+    <comment ref="Z3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -264,7 +277,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y3" authorId="0">
+    <comment ref="AA3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -297,7 +310,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="124">
   <si>
     <t>#</t>
   </si>
@@ -329,6 +342,9 @@
     <t>effectList</t>
   </si>
   <si>
+    <t>effectListOnGain</t>
+  </si>
+  <si>
     <t>releaseRange</t>
   </si>
   <si>
@@ -341,6 +357,9 @@
     <t>cdTime</t>
   </si>
   <si>
+    <t>isNormalAttack</t>
+  </si>
+  <si>
     <t>isBigSkill</t>
   </si>
   <si>
@@ -410,7 +429,10 @@
     <t>技能目标类型</t>
   </si>
   <si>
-    <t>触发的效果列表</t>
+    <t>触发的效果列表（主动释放产生的效果）</t>
+  </si>
+  <si>
+    <t>获得时候触发的效果列表（获得技能的时候立即生效）</t>
   </si>
   <si>
     <t>释放距离(普通攻击不走这个 走属性)</t>
@@ -425,6 +447,9 @@
     <t>技能CD（毫秒）(在释放技能结束后,后摇时间开始前,则开始计时)(普通攻击不计算在这里)</t>
   </si>
   <si>
+    <t>是否是普通攻击</t>
+  </si>
+  <si>
     <t>是否是大招</t>
   </si>
   <si>
@@ -642,12 +667,27 @@
   </si>
   <si>
     <t>13002041</t>
+  </si>
+  <si>
+    <t>su</t>
+  </si>
+  <si>
+    <t>测试道具效果</t>
+  </si>
+  <si>
+    <t>恢复血量 ， 周围击晕</t>
+  </si>
+  <si>
+    <t>13050001,13050002</t>
+  </si>
+  <si>
+    <t>14050002</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1350,20 +1390,20 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1713,43 +1753,45 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z45"/>
+  <dimension ref="A1:AB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="G1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="N47" sqref="N47"/>
+      <selection pane="topRight" activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
     <col min="4" max="4" width="20.125" customWidth="1"/>
     <col min="5" max="5" width="14.25" customWidth="1"/>
     <col min="6" max="6" width="10.5" customWidth="1"/>
     <col min="7" max="7" width="11.5" customWidth="1"/>
     <col min="8" max="8" width="13.875" customWidth="1"/>
     <col min="9" max="9" width="13.375" customWidth="1"/>
-    <col min="10" max="10" width="19.75" customWidth="1"/>
-    <col min="11" max="11" width="15.5" customWidth="1"/>
-    <col min="12" max="12" width="14.625" customWidth="1"/>
-    <col min="13" max="13" width="9.625" customWidth="1"/>
-    <col min="14" max="16" width="12.375" customWidth="1"/>
-    <col min="17" max="17" width="21.625" customWidth="1"/>
-    <col min="18" max="18" width="21.5" style="5" customWidth="1"/>
-    <col min="19" max="19" width="12.375" style="5" customWidth="1"/>
-    <col min="20" max="20" width="10" customWidth="1"/>
-    <col min="21" max="21" width="22.625" style="6" customWidth="1"/>
-    <col min="22" max="22" width="10.125" style="6" customWidth="1"/>
-    <col min="23" max="23" width="25.625" style="6" customWidth="1"/>
-    <col min="24" max="24" width="12.375" style="7" customWidth="1"/>
-    <col min="25" max="25" width="21" style="7" customWidth="1"/>
-    <col min="26" max="26" width="21.875" customWidth="1"/>
-    <col min="27" max="27" width="27.75" customWidth="1"/>
+    <col min="10" max="11" width="32.375" customWidth="1"/>
+    <col min="12" max="12" width="15.5" customWidth="1"/>
+    <col min="13" max="13" width="14.625" customWidth="1"/>
+    <col min="14" max="14" width="9.625" customWidth="1"/>
+    <col min="15" max="15" width="12.375" customWidth="1"/>
+    <col min="16" max="16" width="16.375" customWidth="1"/>
+    <col min="17" max="18" width="12.375" customWidth="1"/>
+    <col min="19" max="19" width="21.625" customWidth="1"/>
+    <col min="20" max="20" width="21.5" style="5" customWidth="1"/>
+    <col min="21" max="21" width="12.375" style="5" customWidth="1"/>
+    <col min="22" max="22" width="10" customWidth="1"/>
+    <col min="23" max="23" width="22.625" style="6" customWidth="1"/>
+    <col min="24" max="24" width="10.125" style="6" customWidth="1"/>
+    <col min="25" max="25" width="25.625" style="6" customWidth="1"/>
+    <col min="26" max="26" width="12.375" style="7" customWidth="1"/>
+    <col min="27" max="27" width="21" style="7" customWidth="1"/>
+    <col min="28" max="28" width="21.875" customWidth="1"/>
+    <col min="29" max="29" width="27.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" ht="18" customHeight="1" spans="1:28">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1789,7 +1831,7 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="10" t="s">
@@ -1801,195 +1843,213 @@
       <c r="Q1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="R1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" t="s">
         <v>21</v>
       </c>
       <c r="W1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="X1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="Y1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:26">
+      <c r="AA1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="N2" t="s">
+        <v>28</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="R2" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="T2" t="s">
-        <v>26</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="T2" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="V2" t="s">
+        <v>28</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" ht="93" customHeight="1" spans="1:26">
+        <v>29</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" ht="93" customHeight="1" spans="1:28">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="R3" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="S3" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="T3" s="10" t="s">
+      <c r="R3" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="U3" s="18" t="s">
+      <c r="S3" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="V3" s="18" t="s">
+      <c r="T3" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="W3" s="6" t="s">
+      <c r="U3" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="X3" s="19" t="s">
+      <c r="V3" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="Y3" s="7" t="s">
+      <c r="W3" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="X3" s="18" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="4" spans="1:25">
+      <c r="Y3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z3" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA3" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1997,10 +2057,10 @@
         <v>2001001</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8">
@@ -2018,55 +2078,59 @@
       <c r="J4" s="8">
         <v>3001001</v>
       </c>
-      <c r="K4" s="8">
-        <v>0</v>
-      </c>
-      <c r="L4" s="11">
+      <c r="K4" s="8"/>
+      <c r="L4" s="8">
+        <v>0</v>
+      </c>
+      <c r="M4" s="11">
         <v>233</v>
       </c>
-      <c r="M4" s="11">
+      <c r="N4" s="11">
         <v>100</v>
       </c>
-      <c r="N4" s="8">
-        <v>0</v>
-      </c>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8">
+      <c r="O4" s="8">
+        <v>0</v>
+      </c>
+      <c r="P4" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8">
         <v>2000</v>
       </c>
-      <c r="R4" s="20"/>
-      <c r="S4" s="5">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="V4" s="6" t="s">
-        <v>56</v>
+      <c r="T4" s="19"/>
+      <c r="U4" s="5">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
       </c>
       <c r="W4" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="X4" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="2:25">
+        <v>59</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="2:27">
       <c r="B5" s="1">
         <v>2001002</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="11">
@@ -2084,47 +2148,49 @@
       <c r="J5" s="11">
         <v>3001002</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="11"/>
+      <c r="L5" s="11">
         <v>99000</v>
       </c>
-      <c r="L5" s="11">
+      <c r="M5" s="11">
         <v>100</v>
       </c>
-      <c r="M5" s="11">
+      <c r="N5" s="11">
         <v>500</v>
       </c>
-      <c r="N5" s="11">
+      <c r="O5" s="11">
         <v>1000</v>
       </c>
-      <c r="O5" s="11"/>
       <c r="P5" s="11"/>
-      <c r="Q5" s="8">
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="8">
         <v>1000</v>
       </c>
-      <c r="R5" s="20"/>
-      <c r="S5" s="5">
-        <v>0</v>
-      </c>
-      <c r="T5">
+      <c r="T5" s="19"/>
+      <c r="U5" s="5">
+        <v>0</v>
+      </c>
+      <c r="V5">
         <v>1</v>
       </c>
-      <c r="U5" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="V5" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="W5" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="X5" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:25">
+      <c r="W5" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="X5" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y5" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z5" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:27">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -2132,10 +2198,10 @@
         <v>2001002</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E6" s="8">
         <v>15003751</v>
@@ -2155,47 +2221,49 @@
       <c r="J6" s="8">
         <v>14001010</v>
       </c>
-      <c r="K6" s="8">
-        <v>0</v>
-      </c>
+      <c r="K6" s="8"/>
       <c r="L6" s="8">
+        <v>0</v>
+      </c>
+      <c r="M6" s="8">
         <v>466</v>
       </c>
-      <c r="M6" s="8">
+      <c r="N6" s="8">
         <v>200</v>
       </c>
-      <c r="N6" s="8">
+      <c r="O6" s="8">
         <v>15000</v>
       </c>
-      <c r="O6" s="8"/>
       <c r="P6" s="8"/>
-      <c r="Q6" s="8">
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8">
         <v>1000</v>
       </c>
-      <c r="R6" s="20"/>
-      <c r="S6" s="5">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="V6" s="6" t="s">
-        <v>55</v>
+      <c r="T6" s="19"/>
+      <c r="U6" s="5">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
       </c>
       <c r="W6" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="X6" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25">
+        <v>59</v>
+      </c>
+      <c r="X6" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y6" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -2203,10 +2271,10 @@
         <v>2001003</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E7" s="8">
         <v>15003752</v>
@@ -2224,49 +2292,51 @@
         <v>0</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="K7" s="8">
-        <v>0</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="K7" s="14"/>
       <c r="L7" s="8">
+        <v>0</v>
+      </c>
+      <c r="M7" s="8">
         <v>466</v>
       </c>
-      <c r="M7" s="8">
+      <c r="N7" s="8">
         <v>200</v>
       </c>
-      <c r="N7" s="8">
+      <c r="O7" s="8">
         <v>8000</v>
       </c>
-      <c r="O7" s="8"/>
       <c r="P7" s="8"/>
-      <c r="Q7" s="8">
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8">
         <v>1000</v>
       </c>
-      <c r="R7" s="20"/>
-      <c r="S7" s="5">
+      <c r="T7" s="19"/>
+      <c r="U7" s="5">
         <v>15008014</v>
       </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="V7" s="6" t="s">
-        <v>55</v>
+      <c r="V7">
+        <v>0</v>
       </c>
       <c r="W7" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="X7" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" spans="1:25">
+        <v>59</v>
+      </c>
+      <c r="X7" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y7" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:27">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -2274,10 +2344,10 @@
         <v>2001004</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E8" s="8">
         <v>15003753</v>
@@ -2297,47 +2367,49 @@
       <c r="J8" s="8">
         <v>16001001</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="8"/>
+      <c r="L8" s="8">
         <v>100000</v>
       </c>
-      <c r="L8" s="8">
+      <c r="M8" s="8">
         <v>466</v>
       </c>
-      <c r="M8" s="8">
+      <c r="N8" s="8">
         <v>200</v>
       </c>
-      <c r="N8" s="8">
+      <c r="O8" s="8">
         <v>7000</v>
       </c>
-      <c r="O8" s="8"/>
       <c r="P8" s="8"/>
-      <c r="Q8" s="8">
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8">
         <v>1000</v>
       </c>
-      <c r="R8" s="20"/>
-      <c r="S8" s="5">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="V8" s="6" t="s">
-        <v>56</v>
+      <c r="T8" s="19"/>
+      <c r="U8" s="5">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
       </c>
       <c r="W8" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="X8" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" spans="1:25">
+        <v>59</v>
+      </c>
+      <c r="X8" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y8" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:27">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -2345,10 +2417,10 @@
         <v>2001005</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E9" s="8">
         <v>15003754</v>
@@ -2366,51 +2438,53 @@
         <v>2</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="K9" s="8">
-        <v>0</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="K9" s="14"/>
       <c r="L9" s="8">
+        <v>0</v>
+      </c>
+      <c r="M9" s="8">
         <v>466</v>
       </c>
-      <c r="M9" s="8">
+      <c r="N9" s="8">
         <v>200</v>
       </c>
-      <c r="N9" s="8">
+      <c r="O9" s="8">
         <v>25000</v>
-      </c>
-      <c r="O9" s="8">
-        <v>1</v>
       </c>
       <c r="P9" s="8"/>
       <c r="Q9" s="8">
+        <v>1</v>
+      </c>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8">
         <v>1000</v>
       </c>
-      <c r="R9" s="20"/>
-      <c r="S9" s="5">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="V9" s="6" t="s">
-        <v>55</v>
+      <c r="T9" s="19"/>
+      <c r="U9" s="5">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
       </c>
       <c r="W9" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="X9" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" spans="1:25">
+        <v>59</v>
+      </c>
+      <c r="X9" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y9" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:27">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -2418,10 +2492,10 @@
         <v>2001006</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E10" s="8">
         <v>15003755</v>
@@ -2439,11 +2513,9 @@
         <v>2</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="K10" s="8">
-        <v>0</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="K10" s="14"/>
       <c r="L10" s="8">
         <v>0</v>
       </c>
@@ -2453,35 +2525,39 @@
       <c r="N10" s="8">
         <v>0</v>
       </c>
-      <c r="O10" s="8"/>
+      <c r="O10" s="8">
+        <v>0</v>
+      </c>
       <c r="P10" s="8"/>
-      <c r="Q10" s="8">
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8">
         <v>1000</v>
       </c>
-      <c r="R10" s="20"/>
-      <c r="S10" s="5">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="V10" s="6" t="s">
-        <v>55</v>
+      <c r="T10" s="19"/>
+      <c r="U10" s="5">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
       </c>
       <c r="W10" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="X10" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" spans="3:25">
+        <v>59</v>
+      </c>
+      <c r="X10" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y10" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="3:27">
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -2497,15 +2573,17 @@
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="5"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="5"/>
       <c r="W11" s="6"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-    </row>
-    <row r="12" customFormat="1" spans="3:25">
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+    </row>
+    <row r="12" customFormat="1" spans="3:27">
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -2521,15 +2599,17 @@
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="5"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="5"/>
       <c r="W12" s="6"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-    </row>
-    <row r="13" customFormat="1" spans="3:25">
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+    </row>
+    <row r="13" customFormat="1" spans="3:27">
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -2545,15 +2625,17 @@
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="5"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="5"/>
       <c r="W13" s="6"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
-    </row>
-    <row r="15" spans="1:25">
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -2561,10 +2643,10 @@
         <v>2001021</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8">
@@ -2582,47 +2664,51 @@
       <c r="J15" s="8">
         <v>3001011</v>
       </c>
-      <c r="K15" s="8">
-        <v>0</v>
-      </c>
+      <c r="K15" s="8"/>
       <c r="L15" s="8">
+        <v>0</v>
+      </c>
+      <c r="M15" s="8">
         <v>180</v>
       </c>
-      <c r="M15" s="8">
+      <c r="N15" s="8">
         <v>100</v>
       </c>
-      <c r="N15" s="8">
-        <v>0</v>
-      </c>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8">
+      <c r="O15" s="8">
+        <v>0</v>
+      </c>
+      <c r="P15" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8">
         <v>2667</v>
       </c>
-      <c r="R15" s="20"/>
-      <c r="S15" s="5">
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="V15" s="6" t="s">
-        <v>75</v>
+      <c r="T15" s="19"/>
+      <c r="U15" s="5">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
       </c>
       <c r="W15" s="6" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="X15" s="6" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="Y15" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25">
+        <v>80</v>
+      </c>
+      <c r="Z15" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA15" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -2630,10 +2716,10 @@
         <v>2001022</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E16" s="8">
         <v>15003751</v>
@@ -2653,47 +2739,49 @@
       <c r="J16" s="8">
         <v>3001012</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="8"/>
+      <c r="L16" s="8">
         <v>6000</v>
       </c>
-      <c r="L16" s="8">
+      <c r="M16" s="8">
         <v>180</v>
       </c>
-      <c r="M16" s="8">
+      <c r="N16" s="8">
         <v>100</v>
       </c>
-      <c r="N16" s="8">
+      <c r="O16" s="8">
         <v>5000</v>
       </c>
-      <c r="O16" s="8"/>
       <c r="P16" s="8"/>
-      <c r="Q16" s="8">
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8">
         <v>2667</v>
       </c>
-      <c r="R16" s="20"/>
-      <c r="S16" s="5">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="V16" s="6" t="s">
-        <v>55</v>
+      <c r="T16" s="19"/>
+      <c r="U16" s="5">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
       </c>
       <c r="W16" s="6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="X16" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y16" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25">
+        <v>59</v>
+      </c>
+      <c r="Y16" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z16" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA16" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -2701,10 +2789,10 @@
         <v>2001023</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E17" s="8">
         <v>15003752</v>
@@ -2722,49 +2810,51 @@
         <v>2</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="K17" s="8">
-        <v>0</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="K17" s="14"/>
       <c r="L17" s="8">
+        <v>0</v>
+      </c>
+      <c r="M17" s="8">
         <v>180</v>
       </c>
-      <c r="M17" s="8">
+      <c r="N17" s="8">
         <v>100</v>
       </c>
-      <c r="N17" s="8">
+      <c r="O17" s="8">
         <v>15000</v>
       </c>
-      <c r="O17" s="8"/>
       <c r="P17" s="8"/>
-      <c r="Q17" s="8">
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8">
         <v>2667</v>
       </c>
-      <c r="R17" s="20"/>
-      <c r="S17" s="5">
+      <c r="T17" s="19"/>
+      <c r="U17" s="5">
         <v>15008014</v>
       </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="V17" s="6" t="s">
-        <v>55</v>
+      <c r="V17">
+        <v>0</v>
       </c>
       <c r="W17" s="6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="X17" s="6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Y17" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" customFormat="1" spans="1:25">
+        <v>59</v>
+      </c>
+      <c r="Z17" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA17" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="1:27">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -2772,10 +2862,10 @@
         <v>2001024</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E18" s="8">
         <v>15003753</v>
@@ -2793,49 +2883,51 @@
         <v>1</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="K18" s="8">
+        <v>89</v>
+      </c>
+      <c r="K18" s="14"/>
+      <c r="L18" s="8">
         <v>8000</v>
       </c>
-      <c r="L18" s="8">
+      <c r="M18" s="8">
         <v>180</v>
       </c>
-      <c r="M18" s="8">
+      <c r="N18" s="8">
         <v>100</v>
       </c>
-      <c r="N18" s="8">
+      <c r="O18" s="8">
         <v>3000</v>
       </c>
-      <c r="O18" s="8"/>
       <c r="P18" s="8"/>
-      <c r="Q18" s="8">
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8">
         <v>2667</v>
       </c>
-      <c r="R18" s="20"/>
-      <c r="S18" s="5">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="V18" s="6" t="s">
-        <v>55</v>
+      <c r="T18" s="19"/>
+      <c r="U18" s="5">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
       </c>
       <c r="W18" s="6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="X18" s="6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Y18" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25">
+        <v>59</v>
+      </c>
+      <c r="Z18" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA18" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -2843,10 +2935,10 @@
         <v>2001025</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E19" s="8">
         <v>15003754</v>
@@ -2864,51 +2956,53 @@
         <v>1</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="K19" s="8">
+        <v>92</v>
+      </c>
+      <c r="K19" s="14"/>
+      <c r="L19" s="8">
         <v>8000</v>
       </c>
-      <c r="L19" s="8">
+      <c r="M19" s="8">
         <v>180</v>
       </c>
-      <c r="M19" s="8">
+      <c r="N19" s="8">
         <v>100</v>
       </c>
-      <c r="N19" s="8">
+      <c r="O19" s="8">
         <v>25000</v>
-      </c>
-      <c r="O19" s="8">
-        <v>1</v>
       </c>
       <c r="P19" s="8"/>
       <c r="Q19" s="8">
+        <v>1</v>
+      </c>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8">
         <v>2667</v>
       </c>
-      <c r="R19" s="20"/>
-      <c r="S19" s="5">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="V19" s="6" t="s">
-        <v>55</v>
+      <c r="T19" s="19"/>
+      <c r="U19" s="5">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
       </c>
       <c r="W19" s="6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="X19" s="6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Y19" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" customFormat="1" spans="1:25">
+        <v>59</v>
+      </c>
+      <c r="Z19" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA19" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="1:27">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -2916,10 +3010,10 @@
         <v>2001026</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E20" s="8">
         <v>15003755</v>
@@ -2937,47 +3031,49 @@
         <v>2</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="K20" s="8">
-        <v>0</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="K20" s="14"/>
       <c r="L20" s="8">
         <v>0</v>
       </c>
       <c r="M20" s="8">
         <v>0</v>
       </c>
-      <c r="N20" s="8"/>
+      <c r="N20" s="8">
+        <v>0</v>
+      </c>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
-      <c r="Q20" s="8">
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8">
         <v>2667</v>
       </c>
-      <c r="R20" s="20"/>
-      <c r="S20" s="5">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="V20" s="6" t="s">
-        <v>55</v>
+      <c r="T20" s="19"/>
+      <c r="U20" s="5">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
       </c>
       <c r="W20" s="6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="X20" s="6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Y20" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" s="2" customFormat="1" spans="1:25">
+        <v>59</v>
+      </c>
+      <c r="Z20" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA20" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" spans="1:27">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21" s="12"/>
@@ -2988,22 +3084,24 @@
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
       <c r="J21" s="15"/>
-      <c r="K21" s="12"/>
+      <c r="K21" s="15"/>
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
       <c r="N21" s="12"/>
       <c r="O21" s="12"/>
       <c r="P21" s="12"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="5"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="5"/>
       <c r="W21" s="7"/>
       <c r="X21" s="7"/>
       <c r="Y21" s="7"/>
-    </row>
-    <row r="22" ht="12" customHeight="1" spans="3:18">
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
+    </row>
+    <row r="22" ht="12" customHeight="1" spans="3:20">
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -3019,9 +3117,11 @@
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
       <c r="Q22" s="8"/>
-      <c r="R22" s="20"/>
-    </row>
-    <row r="23" customFormat="1" spans="1:26">
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="19"/>
+    </row>
+    <row r="23" customFormat="1" spans="1:28">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -3029,10 +3129,10 @@
         <v>2001050</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E23" s="8">
         <v>15003753</v>
@@ -3052,50 +3152,52 @@
       <c r="J23" s="8">
         <v>16001010</v>
       </c>
-      <c r="K23" s="8">
+      <c r="K23" s="8"/>
+      <c r="L23" s="8">
         <v>10000</v>
       </c>
-      <c r="L23" s="8">
+      <c r="M23" s="8">
         <v>1500</v>
       </c>
-      <c r="M23" s="8">
-        <v>0</v>
-      </c>
       <c r="N23" s="8">
+        <v>0</v>
+      </c>
+      <c r="O23" s="8">
         <v>600</v>
       </c>
-      <c r="O23" s="8"/>
       <c r="P23" s="8"/>
-      <c r="Q23" s="8">
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8">
         <v>1000</v>
       </c>
-      <c r="R23" s="20"/>
-      <c r="S23" s="5">
-        <v>0</v>
-      </c>
-      <c r="T23">
+      <c r="T23" s="19"/>
+      <c r="U23" s="5">
+        <v>0</v>
+      </c>
+      <c r="V23">
         <v>1</v>
       </c>
-      <c r="U23" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="V23" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="W23" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="X23" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z23">
+        <v>97</v>
+      </c>
+      <c r="X23" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y23" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z23" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB23">
         <v>2500005</v>
       </c>
     </row>
-    <row r="24" customFormat="1" spans="3:25">
+    <row r="24" customFormat="1" spans="3:27">
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -3111,15 +3213,17 @@
       <c r="O24" s="8"/>
       <c r="P24" s="8"/>
       <c r="Q24" s="8"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="5"/>
-      <c r="U24" s="6"/>
-      <c r="V24" s="6"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="5"/>
       <c r="W24" s="6"/>
-      <c r="X24" s="7"/>
-      <c r="Y24" s="7"/>
-    </row>
-    <row r="25" customFormat="1" spans="3:25">
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="7"/>
+    </row>
+    <row r="25" customFormat="1" spans="3:27">
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -3135,15 +3239,17 @@
       <c r="O25" s="8"/>
       <c r="P25" s="8"/>
       <c r="Q25" s="8"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="5"/>
-      <c r="U25" s="6"/>
-      <c r="V25" s="6"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="5"/>
       <c r="W25" s="6"/>
-      <c r="X25" s="7"/>
-      <c r="Y25" s="7"/>
-    </row>
-    <row r="26" customFormat="1" spans="3:25">
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
+    </row>
+    <row r="26" customFormat="1" spans="3:27">
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -3159,15 +3265,17 @@
       <c r="O26" s="8"/>
       <c r="P26" s="8"/>
       <c r="Q26" s="8"/>
-      <c r="R26" s="20"/>
-      <c r="S26" s="5"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="5"/>
       <c r="W26" s="6"/>
-      <c r="X26" s="7"/>
-      <c r="Y26" s="7"/>
-    </row>
-    <row r="27" customFormat="1" spans="3:25">
+      <c r="X26" s="6"/>
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
+    </row>
+    <row r="27" customFormat="1" spans="3:27">
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -3183,28 +3291,30 @@
       <c r="O27" s="8"/>
       <c r="P27" s="8"/>
       <c r="Q27" s="8"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="5"/>
-      <c r="U27" s="6"/>
-      <c r="V27" s="6"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="5"/>
       <c r="W27" s="6"/>
-      <c r="X27" s="7"/>
-      <c r="Y27" s="7"/>
-    </row>
-    <row r="28" s="3" customFormat="1" spans="17:25">
-      <c r="Q28" s="8"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="U28" s="22"/>
-      <c r="V28" s="22"/>
-      <c r="W28" s="22"/>
-      <c r="X28" s="7"/>
-      <c r="Y28" s="7"/>
-    </row>
-    <row r="29" spans="17:17">
-      <c r="Q29" s="8"/>
-    </row>
-    <row r="30" spans="1:19">
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="7"/>
+    </row>
+    <row r="28" s="3" customFormat="1" spans="19:27">
+      <c r="S28" s="8"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="W28" s="21"/>
+      <c r="X28" s="21"/>
+      <c r="Y28" s="21"/>
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="7"/>
+    </row>
+    <row r="29" spans="19:19">
+      <c r="S29" s="8"/>
+    </row>
+    <row r="30" spans="1:21">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -3212,10 +3322,10 @@
         <v>2002001</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8">
@@ -3233,29 +3343,33 @@
       <c r="J30" s="8">
         <v>3002001</v>
       </c>
-      <c r="K30" s="8">
-        <v>0</v>
-      </c>
+      <c r="K30" s="8"/>
       <c r="L30" s="8">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="M30" s="8">
         <v>300</v>
       </c>
       <c r="N30" s="8">
-        <v>0</v>
-      </c>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8">
+        <v>300</v>
+      </c>
+      <c r="O30" s="8">
+        <v>0</v>
+      </c>
+      <c r="P30" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8">
         <v>1540</v>
       </c>
-      <c r="R30" s="20"/>
-      <c r="S30" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26">
+      <c r="T30" s="19"/>
+      <c r="U30" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -3263,10 +3377,10 @@
         <v>2002002</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E31" s="8">
         <v>15003753</v>
@@ -3286,50 +3400,52 @@
       <c r="J31" s="8">
         <v>13002030</v>
       </c>
-      <c r="K31" s="8">
+      <c r="K31" s="8"/>
+      <c r="L31" s="8">
         <v>4000</v>
       </c>
-      <c r="L31" s="8">
+      <c r="M31" s="8">
         <v>1500</v>
       </c>
-      <c r="M31" s="8">
+      <c r="N31" s="8">
         <v>700</v>
       </c>
-      <c r="N31" s="8">
+      <c r="O31" s="8">
         <v>6500</v>
       </c>
-      <c r="O31" s="8"/>
       <c r="P31" s="8"/>
-      <c r="Q31" s="8">
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8">
         <v>340</v>
       </c>
-      <c r="R31" s="20"/>
-      <c r="S31" s="5">
-        <v>0</v>
-      </c>
-      <c r="T31">
-        <v>0</v>
-      </c>
-      <c r="U31" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="V31" s="6" t="s">
-        <v>55</v>
+      <c r="T31" s="19"/>
+      <c r="U31" s="5">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
       </c>
       <c r="W31" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="X31" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y31" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z31">
+        <v>59</v>
+      </c>
+      <c r="X31" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y31" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z31" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA31" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB31">
         <v>2500010</v>
       </c>
     </row>
-    <row r="32" customFormat="1" spans="3:25">
+    <row r="32" customFormat="1" spans="3:27">
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -3345,15 +3461,17 @@
       <c r="O32" s="8"/>
       <c r="P32" s="8"/>
       <c r="Q32" s="8"/>
-      <c r="R32" s="20"/>
-      <c r="S32" s="5"/>
-      <c r="U32" s="6"/>
-      <c r="V32" s="6"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="5"/>
       <c r="W32" s="6"/>
-      <c r="X32" s="7"/>
-      <c r="Y32" s="7"/>
-    </row>
-    <row r="33" customFormat="1" spans="1:25">
+      <c r="X32" s="6"/>
+      <c r="Y32" s="6"/>
+      <c r="Z32" s="7"/>
+      <c r="AA32" s="7"/>
+    </row>
+    <row r="33" customFormat="1" spans="1:27">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -3361,10 +3479,10 @@
         <v>2002011</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8">
@@ -3382,34 +3500,38 @@
       <c r="J33" s="8">
         <v>3002011</v>
       </c>
-      <c r="K33" s="8">
-        <v>0</v>
-      </c>
+      <c r="K33" s="8"/>
       <c r="L33" s="8">
+        <v>0</v>
+      </c>
+      <c r="M33" s="8">
         <v>300</v>
       </c>
-      <c r="M33" s="8">
+      <c r="N33" s="8">
         <v>200</v>
       </c>
-      <c r="N33" s="8">
-        <v>0</v>
-      </c>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8">
+      <c r="O33" s="8">
+        <v>0</v>
+      </c>
+      <c r="P33" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8">
         <v>1400</v>
       </c>
-      <c r="R33" s="20"/>
-      <c r="S33" s="5">
-        <v>0</v>
-      </c>
-      <c r="U33" s="6"/>
-      <c r="V33" s="6"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="5">
+        <v>0</v>
+      </c>
       <c r="W33" s="6"/>
-      <c r="X33" s="7"/>
-      <c r="Y33" s="7"/>
-    </row>
-    <row r="34" customFormat="1" spans="1:26">
+      <c r="X33" s="6"/>
+      <c r="Y33" s="6"/>
+      <c r="Z33" s="7"/>
+      <c r="AA33" s="7"/>
+    </row>
+    <row r="34" customFormat="1" spans="1:28">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -3417,10 +3539,10 @@
         <v>2002012</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E34" s="8">
         <v>15003751</v>
@@ -3440,94 +3562,98 @@
       <c r="J34" s="8">
         <v>3002012</v>
       </c>
-      <c r="K34" s="8">
+      <c r="K34" s="8"/>
+      <c r="L34" s="8">
         <v>8000</v>
       </c>
-      <c r="L34" s="8">
+      <c r="M34" s="8">
         <v>1000</v>
       </c>
-      <c r="M34" s="8">
+      <c r="N34" s="8">
         <v>700</v>
       </c>
-      <c r="N34" s="8">
+      <c r="O34" s="8">
         <v>7000</v>
       </c>
-      <c r="O34" s="8"/>
       <c r="P34" s="8"/>
-      <c r="Q34" s="8">
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8">
         <v>420</v>
       </c>
-      <c r="R34" s="20"/>
-      <c r="S34" s="5">
-        <v>0</v>
-      </c>
-      <c r="T34">
-        <v>0</v>
-      </c>
-      <c r="U34" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="V34" s="6" t="s">
-        <v>55</v>
+      <c r="T34" s="19"/>
+      <c r="U34" s="5">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
       </c>
       <c r="W34" s="6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="X34" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y34" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z34">
+        <v>59</v>
+      </c>
+      <c r="Y34" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z34" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA34" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB34">
         <v>2500011</v>
       </c>
     </row>
-    <row r="35" customFormat="1" spans="4:25">
+    <row r="35" customFormat="1" spans="4:27">
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
-      <c r="K35" s="8"/>
       <c r="L35" s="8"/>
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
       <c r="O35" s="8"/>
       <c r="P35" s="8"/>
       <c r="Q35" s="8"/>
-      <c r="R35" s="20"/>
-      <c r="S35" s="5"/>
-      <c r="U35" s="6"/>
-      <c r="V35" s="6"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="19"/>
+      <c r="U35" s="5"/>
       <c r="W35" s="6"/>
-      <c r="X35" s="7"/>
-      <c r="Y35" s="7"/>
-    </row>
-    <row r="36" customFormat="1" spans="4:25">
+      <c r="X35" s="6"/>
+      <c r="Y35" s="6"/>
+      <c r="Z35" s="7"/>
+      <c r="AA35" s="7"/>
+    </row>
+    <row r="36" customFormat="1" spans="4:27">
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
-      <c r="K36" s="8"/>
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
       <c r="O36" s="8"/>
       <c r="P36" s="8"/>
       <c r="Q36" s="8"/>
-      <c r="R36" s="20"/>
-      <c r="S36" s="5"/>
-      <c r="U36" s="6"/>
-      <c r="V36" s="6"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="19"/>
+      <c r="U36" s="5"/>
       <c r="W36" s="6"/>
-      <c r="X36" s="7"/>
-      <c r="Y36" s="7"/>
-    </row>
-    <row r="37" customFormat="1" spans="1:25">
+      <c r="X36" s="6"/>
+      <c r="Y36" s="6"/>
+      <c r="Z36" s="7"/>
+      <c r="AA36" s="7"/>
+    </row>
+    <row r="37" customFormat="1" spans="1:27">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -3535,10 +3661,10 @@
         <v>2003001</v>
       </c>
       <c r="C37" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="8">
@@ -3556,34 +3682,37 @@
       <c r="J37">
         <v>3003001</v>
       </c>
-      <c r="K37" s="8">
-        <v>0</v>
-      </c>
       <c r="L37" s="8">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="M37" s="8">
         <v>300</v>
       </c>
       <c r="N37" s="8">
-        <v>0</v>
-      </c>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="8">
+        <v>300</v>
+      </c>
+      <c r="O37" s="8">
+        <v>0</v>
+      </c>
+      <c r="P37" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8">
         <v>1540</v>
       </c>
-      <c r="R37" s="20"/>
-      <c r="S37" s="5">
-        <v>0</v>
-      </c>
-      <c r="U37" s="6"/>
-      <c r="V37" s="6"/>
+      <c r="T37" s="19"/>
+      <c r="U37" s="5">
+        <v>0</v>
+      </c>
       <c r="W37" s="6"/>
-      <c r="X37" s="7"/>
-      <c r="Y37" s="7"/>
-    </row>
-    <row r="38" s="4" customFormat="1" spans="1:25">
+      <c r="X37" s="6"/>
+      <c r="Y37" s="6"/>
+      <c r="Z37" s="7"/>
+      <c r="AA37" s="7"/>
+    </row>
+    <row r="38" s="4" customFormat="1" spans="1:27">
       <c r="A38" s="4" t="s">
         <v>0</v>
       </c>
@@ -3591,10 +3720,10 @@
         <v>2003002</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E38" s="13">
         <v>15003751</v>
@@ -3612,36 +3741,38 @@
         <v>1</v>
       </c>
       <c r="J38" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="K38" s="13">
+        <v>107</v>
+      </c>
+      <c r="K38" s="16"/>
+      <c r="L38" s="13">
         <v>8000</v>
       </c>
-      <c r="L38" s="13">
+      <c r="M38" s="13">
         <v>600</v>
       </c>
-      <c r="M38" s="13">
-        <v>0</v>
-      </c>
       <c r="N38" s="13">
+        <v>0</v>
+      </c>
+      <c r="O38" s="13">
         <v>2000</v>
       </c>
-      <c r="O38" s="13"/>
       <c r="P38" s="13"/>
-      <c r="Q38" s="8">
+      <c r="Q38" s="13"/>
+      <c r="R38" s="13"/>
+      <c r="S38" s="8">
         <v>1000</v>
       </c>
-      <c r="R38" s="13"/>
-      <c r="S38" s="5">
-        <v>0</v>
-      </c>
-      <c r="U38" s="23"/>
-      <c r="V38" s="23"/>
-      <c r="W38" s="23"/>
-      <c r="X38" s="23"/>
-      <c r="Y38" s="23"/>
-    </row>
-    <row r="39" s="4" customFormat="1" spans="1:25">
+      <c r="T38" s="13"/>
+      <c r="U38" s="5">
+        <v>0</v>
+      </c>
+      <c r="W38" s="22"/>
+      <c r="X38" s="22"/>
+      <c r="Y38" s="22"/>
+      <c r="Z38" s="22"/>
+      <c r="AA38" s="22"/>
+    </row>
+    <row r="39" s="4" customFormat="1" spans="1:27">
       <c r="A39" s="4" t="s">
         <v>0</v>
       </c>
@@ -3649,10 +3780,10 @@
         <v>2003003</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E39" s="13">
         <v>15003753</v>
@@ -3670,36 +3801,38 @@
         <v>2</v>
       </c>
       <c r="J39" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="K39" s="13">
-        <v>0</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="K39" s="16"/>
       <c r="L39" s="13">
+        <v>0</v>
+      </c>
+      <c r="M39" s="13">
         <v>50</v>
       </c>
-      <c r="M39" s="13">
-        <v>0</v>
-      </c>
       <c r="N39" s="13">
+        <v>0</v>
+      </c>
+      <c r="O39" s="13">
         <v>6000</v>
       </c>
-      <c r="O39" s="13"/>
       <c r="P39" s="13"/>
-      <c r="Q39" s="8">
+      <c r="Q39" s="13"/>
+      <c r="R39" s="13"/>
+      <c r="S39" s="8">
         <v>1000</v>
       </c>
-      <c r="R39" s="13"/>
-      <c r="S39" s="5">
+      <c r="T39" s="13"/>
+      <c r="U39" s="5">
         <v>15008005</v>
       </c>
-      <c r="U39" s="23"/>
-      <c r="V39" s="23"/>
-      <c r="W39" s="23"/>
-      <c r="X39" s="23"/>
-      <c r="Y39" s="23"/>
-    </row>
-    <row r="40" s="4" customFormat="1" spans="1:25">
+      <c r="W39" s="22"/>
+      <c r="X39" s="22"/>
+      <c r="Y39" s="22"/>
+      <c r="Z39" s="22"/>
+      <c r="AA39" s="22"/>
+    </row>
+    <row r="40" s="4" customFormat="1" spans="1:27">
       <c r="A40" s="4" t="s">
         <v>0</v>
       </c>
@@ -3707,10 +3840,10 @@
         <v>2003004</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E40" s="13">
         <v>15003754</v>
@@ -3730,37 +3863,39 @@
       <c r="J40" s="13">
         <v>16001001</v>
       </c>
-      <c r="K40" s="13">
+      <c r="K40" s="13"/>
+      <c r="L40" s="13">
         <v>8000</v>
       </c>
-      <c r="L40" s="13">
-        <v>0</v>
-      </c>
       <c r="M40" s="13">
         <v>0</v>
       </c>
       <c r="N40" s="13">
+        <v>0</v>
+      </c>
+      <c r="O40" s="13">
         <v>1500</v>
       </c>
-      <c r="O40" s="13"/>
       <c r="P40" s="13"/>
-      <c r="Q40" s="8">
+      <c r="Q40" s="13"/>
+      <c r="R40" s="13"/>
+      <c r="S40" s="8">
         <v>1000</v>
       </c>
-      <c r="R40" s="13"/>
-      <c r="S40" s="5">
-        <v>0</v>
-      </c>
-      <c r="U40" s="23"/>
-      <c r="V40" s="23"/>
-      <c r="W40" s="23"/>
-      <c r="X40" s="23"/>
-      <c r="Y40" s="23"/>
-    </row>
-    <row r="41" spans="17:17">
-      <c r="Q41" s="8"/>
-    </row>
-    <row r="42" customFormat="1" spans="1:25">
+      <c r="T40" s="13"/>
+      <c r="U40" s="5">
+        <v>0</v>
+      </c>
+      <c r="W40" s="22"/>
+      <c r="X40" s="22"/>
+      <c r="Y40" s="22"/>
+      <c r="Z40" s="22"/>
+      <c r="AA40" s="22"/>
+    </row>
+    <row r="41" spans="19:19">
+      <c r="S41" s="8"/>
+    </row>
+    <row r="42" customFormat="1" spans="1:27">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -3768,10 +3903,10 @@
         <v>2003050</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E42" s="8">
         <v>15003751</v>
@@ -3789,11 +3924,9 @@
         <v>2</v>
       </c>
       <c r="J42" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="K42" s="8">
-        <v>0</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="K42" s="14"/>
       <c r="L42" s="8">
         <v>0</v>
       </c>
@@ -3803,35 +3936,41 @@
       <c r="N42" s="8">
         <v>0</v>
       </c>
-      <c r="O42" s="8"/>
-      <c r="P42" s="8"/>
-      <c r="Q42" s="8">
+      <c r="O42" s="8">
+        <v>0</v>
+      </c>
+      <c r="P42" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8">
         <v>1000</v>
       </c>
-      <c r="R42" s="20"/>
-      <c r="S42" s="5">
-        <v>0</v>
-      </c>
-      <c r="T42">
-        <v>0</v>
-      </c>
-      <c r="U42" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="V42" s="6" t="s">
-        <v>55</v>
+      <c r="T42" s="19"/>
+      <c r="U42" s="5">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
       </c>
       <c r="W42" s="6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="X42" s="6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Y42" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" customFormat="1" spans="1:25">
+        <v>59</v>
+      </c>
+      <c r="Z42" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA42" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" spans="1:27">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -3839,10 +3978,10 @@
         <v>2003051</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E43" s="8">
         <v>15003752</v>
@@ -3860,11 +3999,9 @@
         <v>2</v>
       </c>
       <c r="J43" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="K43" s="8">
-        <v>0</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="K43" s="14"/>
       <c r="L43" s="8">
         <v>0</v>
       </c>
@@ -3874,35 +4011,39 @@
       <c r="N43" s="8">
         <v>0</v>
       </c>
-      <c r="O43" s="8"/>
+      <c r="O43" s="8">
+        <v>0</v>
+      </c>
       <c r="P43" s="8"/>
-      <c r="Q43" s="8">
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="8">
         <v>1000</v>
       </c>
-      <c r="R43" s="20"/>
-      <c r="S43" s="5">
-        <v>0</v>
-      </c>
-      <c r="T43">
-        <v>0</v>
-      </c>
-      <c r="U43" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="V43" s="6" t="s">
-        <v>55</v>
+      <c r="T43" s="19"/>
+      <c r="U43" s="5">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
       </c>
       <c r="W43" s="6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="X43" s="6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Y43" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" customFormat="1" spans="1:26">
+        <v>59</v>
+      </c>
+      <c r="Z43" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA43" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" customFormat="1" spans="1:28">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -3910,10 +4051,10 @@
         <v>2003052</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E44" s="8">
         <v>15003753</v>
@@ -3931,53 +4072,135 @@
         <v>0</v>
       </c>
       <c r="J44" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="K44" s="8">
-        <v>0</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="K44" s="14"/>
       <c r="L44" s="8">
+        <v>0</v>
+      </c>
+      <c r="M44" s="8">
         <v>1500</v>
       </c>
-      <c r="M44" s="8">
+      <c r="N44" s="8">
         <v>700</v>
       </c>
-      <c r="N44" s="8">
+      <c r="O44" s="8">
         <v>12000</v>
       </c>
-      <c r="O44" s="8"/>
       <c r="P44" s="8"/>
-      <c r="Q44" s="8">
+      <c r="Q44" s="8"/>
+      <c r="R44" s="8"/>
+      <c r="S44" s="8">
         <v>340</v>
       </c>
-      <c r="R44" s="20"/>
-      <c r="S44" s="5">
+      <c r="T44" s="19"/>
+      <c r="U44" s="5">
         <v>15008014</v>
       </c>
-      <c r="T44">
-        <v>0</v>
-      </c>
-      <c r="U44" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="V44" s="6" t="s">
-        <v>55</v>
+      <c r="V44">
+        <v>0</v>
       </c>
       <c r="W44" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="X44" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y44" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z44">
+        <v>59</v>
+      </c>
+      <c r="X44" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y44" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z44" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB44">
         <v>2500020</v>
       </c>
     </row>
-    <row r="45" spans="17:17">
-      <c r="Q45" s="8"/>
+    <row r="45" spans="19:19">
+      <c r="S45" s="8"/>
+    </row>
+    <row r="48" spans="15:15">
+      <c r="O48" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>2005001</v>
+      </c>
+      <c r="C49" t="s">
+        <v>120</v>
+      </c>
+      <c r="D49" t="s">
+        <v>121</v>
+      </c>
+      <c r="E49" s="8">
+        <v>15003753</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49" s="8">
+        <v>2</v>
+      </c>
+      <c r="H49" s="8">
+        <v>0</v>
+      </c>
+      <c r="I49" s="8">
+        <v>0</v>
+      </c>
+      <c r="J49" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="K49" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="L49" s="8">
+        <v>0</v>
+      </c>
+      <c r="M49" s="8">
+        <v>0</v>
+      </c>
+      <c r="N49" s="8">
+        <v>0</v>
+      </c>
+      <c r="O49" s="8">
+        <v>2000</v>
+      </c>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="8">
+        <v>1000</v>
+      </c>
+      <c r="T49" s="19"/>
+      <c r="U49" s="5">
+        <v>15008014</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="X49" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y49" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z49" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="7">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_table/Skill.xlsx
+++ b/data_table/Skill.xlsx
@@ -31,11 +31,37 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>94067</author>
     <author>Zxy</author>
-    <author>94067</author>
   </authors>
   <commentList>
     <comment ref="F3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>94067:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0 绿
+1 蓝
+2 紫
+3 橙色
+4 红</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -59,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0">
+    <comment ref="H3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -83,7 +109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0">
+    <comment ref="I3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -107,7 +133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0">
+    <comment ref="J3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -131,7 +157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="1">
+    <comment ref="N3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -153,7 +179,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V3" authorId="0">
+    <comment ref="W3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -176,7 +202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W3" authorId="0">
+    <comment ref="X3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -201,7 +227,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X3" authorId="0">
+    <comment ref="Y3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -225,7 +251,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y3" authorId="0">
+    <comment ref="Z3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -252,7 +278,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z3" authorId="0">
+    <comment ref="AA3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -277,7 +303,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA3" authorId="0">
+    <comment ref="AB3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -310,7 +336,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="126">
   <si>
     <t>#</t>
   </si>
@@ -327,6 +353,9 @@
     <t>iconResId</t>
   </si>
   <si>
+    <t>level</t>
+  </si>
+  <si>
     <t>skillReleaseTargeType</t>
   </si>
   <si>
@@ -415,6 +444,9 @@
   </si>
   <si>
     <t>技能图标资源id</t>
+  </si>
+  <si>
+    <t>等级</t>
   </si>
   <si>
     <t>技能释放目标类型</t>
@@ -1393,9 +1425,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1404,6 +1433,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1753,12 +1785,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AB49"/>
+  <dimension ref="A1:AC49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="K51" sqref="K51"/>
+      <selection pane="topRight" activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1766,32 +1798,32 @@
     <col min="2" max="2" width="10.5" customWidth="1"/>
     <col min="3" max="3" width="13.875" customWidth="1"/>
     <col min="4" max="4" width="20.125" customWidth="1"/>
-    <col min="5" max="5" width="14.25" customWidth="1"/>
-    <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="11.5" customWidth="1"/>
-    <col min="8" max="8" width="13.875" customWidth="1"/>
-    <col min="9" max="9" width="13.375" customWidth="1"/>
-    <col min="10" max="11" width="32.375" customWidth="1"/>
-    <col min="12" max="12" width="15.5" customWidth="1"/>
-    <col min="13" max="13" width="14.625" customWidth="1"/>
-    <col min="14" max="14" width="9.625" customWidth="1"/>
-    <col min="15" max="15" width="12.375" customWidth="1"/>
-    <col min="16" max="16" width="16.375" customWidth="1"/>
-    <col min="17" max="18" width="12.375" customWidth="1"/>
-    <col min="19" max="19" width="21.625" customWidth="1"/>
-    <col min="20" max="20" width="21.5" style="5" customWidth="1"/>
-    <col min="21" max="21" width="12.375" style="5" customWidth="1"/>
-    <col min="22" max="22" width="10" customWidth="1"/>
-    <col min="23" max="23" width="22.625" style="6" customWidth="1"/>
-    <col min="24" max="24" width="10.125" style="6" customWidth="1"/>
-    <col min="25" max="25" width="25.625" style="6" customWidth="1"/>
-    <col min="26" max="26" width="12.375" style="7" customWidth="1"/>
-    <col min="27" max="27" width="21" style="7" customWidth="1"/>
-    <col min="28" max="28" width="21.875" customWidth="1"/>
-    <col min="29" max="29" width="27.75" customWidth="1"/>
+    <col min="5" max="6" width="14.25" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
+    <col min="9" max="9" width="13.875" customWidth="1"/>
+    <col min="10" max="10" width="13.375" customWidth="1"/>
+    <col min="11" max="12" width="32.375" customWidth="1"/>
+    <col min="13" max="13" width="15.5" customWidth="1"/>
+    <col min="14" max="14" width="14.625" customWidth="1"/>
+    <col min="15" max="15" width="9.625" customWidth="1"/>
+    <col min="16" max="16" width="12.375" customWidth="1"/>
+    <col min="17" max="17" width="16.375" customWidth="1"/>
+    <col min="18" max="19" width="12.375" customWidth="1"/>
+    <col min="20" max="20" width="21.625" customWidth="1"/>
+    <col min="21" max="21" width="21.5" style="5" customWidth="1"/>
+    <col min="22" max="22" width="12.375" style="5" customWidth="1"/>
+    <col min="23" max="23" width="10" customWidth="1"/>
+    <col min="24" max="24" width="22.625" style="6" customWidth="1"/>
+    <col min="25" max="25" width="10.125" style="6" customWidth="1"/>
+    <col min="26" max="26" width="25.625" style="6" customWidth="1"/>
+    <col min="27" max="27" width="12.375" style="7" customWidth="1"/>
+    <col min="28" max="28" width="21" style="7" customWidth="1"/>
+    <col min="29" max="29" width="21.875" customWidth="1"/>
+    <col min="30" max="30" width="27.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1" spans="1:28">
+    <row r="1" ht="18" customHeight="1" spans="1:29">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1834,7 +1866,7 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="10" t="s">
@@ -1849,16 +1881,16 @@
       <c r="S1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="17" t="s">
+      <c r="T1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="W1" t="s">
         <v>22</v>
       </c>
       <c r="X1" s="6" t="s">
@@ -1867,189 +1899,198 @@
       <c r="Y1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="Z1" s="6" t="s">
         <v>25</v>
       </c>
       <c r="AA1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:28">
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>29</v>
       </c>
-      <c r="E2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J2" t="s">
         <v>29</v>
       </c>
       <c r="K2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" t="s">
         <v>29</v>
       </c>
-      <c r="L2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" t="s">
-        <v>28</v>
-      </c>
       <c r="N2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="O2" t="s">
+        <v>29</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R2" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S2" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="T2" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="U2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="V2" t="s">
-        <v>28</v>
-      </c>
-      <c r="W2" s="6" t="s">
+      <c r="T2" s="10" t="s">
         <v>29</v>
       </c>
+      <c r="U2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="W2" t="s">
+        <v>29</v>
+      </c>
       <c r="X2" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Y2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="7" t="s">
-        <v>28</v>
+      <c r="Z2" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="AA2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AB2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" ht="93" customHeight="1" spans="1:28">
+      <c r="AB2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" ht="93" customHeight="1" spans="1:29">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="T3" s="17" t="s">
         <v>49</v>
       </c>
+      <c r="T3" s="10" t="s">
+        <v>50</v>
+      </c>
       <c r="U3" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="V3" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="W3" s="18" t="s">
+      <c r="V3" s="17" t="s">
         <v>52</v>
       </c>
+      <c r="W3" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="X3" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y3" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="Z3" s="23" t="s">
+      <c r="Y3" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="AA3" s="7" t="s">
+      <c r="Z3" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AA3" s="22" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="4" spans="1:27">
+      <c r="AB3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -2057,88 +2098,91 @@
         <v>2001001</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
         <v>1</v>
       </c>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
       <c r="H4" s="8">
         <v>0</v>
       </c>
       <c r="I4" s="8">
+        <v>0</v>
+      </c>
+      <c r="J4" s="8">
         <v>1</v>
       </c>
-      <c r="J4" s="8">
+      <c r="K4" s="8">
         <v>3001001</v>
       </c>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8">
-        <v>0</v>
-      </c>
-      <c r="M4" s="11">
+      <c r="L4" s="8"/>
+      <c r="M4" s="8">
+        <v>0</v>
+      </c>
+      <c r="N4" s="11">
         <v>233</v>
       </c>
-      <c r="N4" s="11">
+      <c r="O4" s="11">
         <v>100</v>
       </c>
-      <c r="O4" s="8">
-        <v>0</v>
-      </c>
       <c r="P4" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="8">
         <v>1</v>
       </c>
-      <c r="Q4" s="8"/>
       <c r="R4" s="8"/>
-      <c r="S4" s="8">
+      <c r="S4" s="8"/>
+      <c r="T4" s="8">
         <v>2000</v>
       </c>
-      <c r="T4" s="19"/>
-      <c r="U4" s="5">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4" s="6" t="s">
-        <v>59</v>
+      <c r="U4" s="19"/>
+      <c r="V4" s="5">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
       </c>
       <c r="X4" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y4" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z4" s="7">
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="Z4" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="AA4" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="2:27">
+      <c r="AB4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="2:28">
       <c r="B5" s="1">
         <v>2001002</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E5" s="8"/>
-      <c r="F5" s="11">
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="11">
         <v>2</v>
       </c>
-      <c r="G5" s="11">
-        <v>0</v>
-      </c>
       <c r="H5" s="11">
         <v>0</v>
       </c>
@@ -2146,51 +2190,54 @@
         <v>0</v>
       </c>
       <c r="J5" s="11">
+        <v>0</v>
+      </c>
+      <c r="K5" s="11">
         <v>3001002</v>
       </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11">
+      <c r="L5" s="11"/>
+      <c r="M5" s="11">
         <v>99000</v>
       </c>
-      <c r="M5" s="11">
+      <c r="N5" s="11">
         <v>100</v>
       </c>
-      <c r="N5" s="11">
+      <c r="O5" s="11">
         <v>500</v>
       </c>
-      <c r="O5" s="11">
+      <c r="P5" s="11">
         <v>1000</v>
       </c>
-      <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
-      <c r="S5" s="8">
+      <c r="S5" s="11"/>
+      <c r="T5" s="8">
         <v>1000</v>
       </c>
-      <c r="T5" s="19"/>
-      <c r="U5" s="5">
-        <v>0</v>
-      </c>
-      <c r="V5">
+      <c r="U5" s="19"/>
+      <c r="V5" s="5">
+        <v>0</v>
+      </c>
+      <c r="W5">
         <v>1</v>
       </c>
-      <c r="W5" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="X5" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y5" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z5" s="20">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:27">
+      <c r="X5" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y5" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z5" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA5" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:28">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -2198,10 +2245,10 @@
         <v>2001002</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E6" s="8">
         <v>15003751</v>
@@ -2216,54 +2263,57 @@
         <v>0</v>
       </c>
       <c r="I6" s="8">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8">
         <v>2</v>
       </c>
-      <c r="J6" s="8">
+      <c r="K6" s="8">
         <v>14001010</v>
       </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8">
-        <v>0</v>
-      </c>
+      <c r="L6" s="8"/>
       <c r="M6" s="8">
+        <v>0</v>
+      </c>
+      <c r="N6" s="8">
         <v>466</v>
       </c>
-      <c r="N6" s="8">
+      <c r="O6" s="8">
         <v>200</v>
       </c>
-      <c r="O6" s="8">
+      <c r="P6" s="8">
         <v>15000</v>
       </c>
-      <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
-      <c r="S6" s="8">
+      <c r="S6" s="8"/>
+      <c r="T6" s="8">
         <v>1000</v>
       </c>
-      <c r="T6" s="19"/>
-      <c r="U6" s="5">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6" s="6" t="s">
-        <v>59</v>
+      <c r="U6" s="19"/>
+      <c r="V6" s="5">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
       </c>
       <c r="X6" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y6" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z6" s="7">
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="Z6" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="AA6" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:27">
+      <c r="AB6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -2271,10 +2321,10 @@
         <v>2001003</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E7" s="8">
         <v>15003752</v>
@@ -2291,52 +2341,55 @@
       <c r="I7" s="8">
         <v>0</v>
       </c>
-      <c r="J7" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="K7" s="14"/>
-      <c r="L7" s="8">
-        <v>0</v>
-      </c>
+      <c r="J7" s="8">
+        <v>0</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="L7" s="14"/>
       <c r="M7" s="8">
+        <v>0</v>
+      </c>
+      <c r="N7" s="8">
         <v>466</v>
       </c>
-      <c r="N7" s="8">
+      <c r="O7" s="8">
         <v>200</v>
       </c>
-      <c r="O7" s="8">
+      <c r="P7" s="8">
         <v>8000</v>
       </c>
-      <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
-      <c r="S7" s="8">
+      <c r="S7" s="8"/>
+      <c r="T7" s="8">
         <v>1000</v>
       </c>
-      <c r="T7" s="19"/>
-      <c r="U7" s="5">
+      <c r="U7" s="19"/>
+      <c r="V7" s="5">
         <v>15008014</v>
       </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7" s="6" t="s">
-        <v>59</v>
+      <c r="W7">
+        <v>0</v>
       </c>
       <c r="X7" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y7" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z7" s="7">
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="Z7" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="AA7" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" customFormat="1" spans="1:27">
+      <c r="AB7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:28">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -2344,72 +2397,75 @@
         <v>2001004</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E8" s="8">
         <v>15003753</v>
       </c>
       <c r="F8" s="8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8">
         <v>2</v>
       </c>
-      <c r="G8" s="8">
+      <c r="H8" s="8">
         <v>1</v>
       </c>
-      <c r="H8" s="8">
-        <v>0</v>
-      </c>
       <c r="I8" s="8">
         <v>0</v>
       </c>
       <c r="J8" s="8">
+        <v>0</v>
+      </c>
+      <c r="K8" s="8">
         <v>16001001</v>
       </c>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8">
+      <c r="L8" s="8"/>
+      <c r="M8" s="8">
         <v>100000</v>
       </c>
-      <c r="M8" s="8">
+      <c r="N8" s="8">
         <v>466</v>
       </c>
-      <c r="N8" s="8">
+      <c r="O8" s="8">
         <v>200</v>
       </c>
-      <c r="O8" s="8">
+      <c r="P8" s="8">
         <v>7000</v>
       </c>
-      <c r="P8" s="8"/>
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
-      <c r="S8" s="8">
+      <c r="S8" s="8"/>
+      <c r="T8" s="8">
         <v>1000</v>
       </c>
-      <c r="T8" s="19"/>
-      <c r="U8" s="5">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8" s="6" t="s">
-        <v>59</v>
+      <c r="U8" s="19"/>
+      <c r="V8" s="5">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
       </c>
       <c r="X8" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y8" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z8" s="7">
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="Z8" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="AA8" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" customFormat="1" spans="1:27">
+      <c r="AB8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:28">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -2417,10 +2473,10 @@
         <v>2001005</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E9" s="8">
         <v>15003754</v>
@@ -2435,56 +2491,59 @@
         <v>0</v>
       </c>
       <c r="I9" s="8">
+        <v>0</v>
+      </c>
+      <c r="J9" s="8">
         <v>2</v>
       </c>
-      <c r="J9" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="K9" s="14"/>
-      <c r="L9" s="8">
-        <v>0</v>
-      </c>
+      <c r="K9" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L9" s="14"/>
       <c r="M9" s="8">
+        <v>0</v>
+      </c>
+      <c r="N9" s="8">
         <v>466</v>
       </c>
-      <c r="N9" s="8">
+      <c r="O9" s="8">
         <v>200</v>
       </c>
-      <c r="O9" s="8">
+      <c r="P9" s="8">
         <v>25000</v>
       </c>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8">
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8">
         <v>1</v>
       </c>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8">
+      <c r="S9" s="8"/>
+      <c r="T9" s="8">
         <v>1000</v>
       </c>
-      <c r="T9" s="19"/>
-      <c r="U9" s="5">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9" s="6" t="s">
-        <v>59</v>
+      <c r="U9" s="19"/>
+      <c r="V9" s="5">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
       </c>
       <c r="X9" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y9" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z9" s="7">
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="Z9" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="AA9" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" customFormat="1" spans="1:27">
+      <c r="AB9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:28">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -2492,10 +2551,10 @@
         <v>2001006</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E10" s="8">
         <v>15003755</v>
@@ -2507,18 +2566,18 @@
         <v>0</v>
       </c>
       <c r="H10" s="8">
+        <v>0</v>
+      </c>
+      <c r="I10" s="8">
         <v>1</v>
       </c>
-      <c r="I10" s="8">
+      <c r="J10" s="8">
         <v>2</v>
       </c>
-      <c r="J10" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="K10" s="14"/>
-      <c r="L10" s="8">
-        <v>0</v>
-      </c>
+      <c r="K10" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="L10" s="14"/>
       <c r="M10" s="8">
         <v>0</v>
       </c>
@@ -2528,36 +2587,39 @@
       <c r="O10" s="8">
         <v>0</v>
       </c>
-      <c r="P10" s="8"/>
+      <c r="P10" s="8">
+        <v>0</v>
+      </c>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
-      <c r="S10" s="8">
+      <c r="S10" s="8"/>
+      <c r="T10" s="8">
         <v>1000</v>
       </c>
-      <c r="T10" s="19"/>
-      <c r="U10" s="5">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10" s="6" t="s">
-        <v>59</v>
+      <c r="U10" s="19"/>
+      <c r="V10" s="5">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
       </c>
       <c r="X10" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y10" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z10" s="7">
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="Z10" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="AA10" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" customFormat="1" spans="3:27">
+      <c r="AB10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="3:28">
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -2575,15 +2637,16 @@
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="5"/>
-      <c r="W11" s="6"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="5"/>
       <c r="X11" s="6"/>
       <c r="Y11" s="6"/>
-      <c r="Z11" s="7"/>
+      <c r="Z11" s="6"/>
       <c r="AA11" s="7"/>
-    </row>
-    <row r="12" customFormat="1" spans="3:27">
+      <c r="AB11" s="7"/>
+    </row>
+    <row r="12" customFormat="1" spans="3:28">
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -2601,15 +2664,16 @@
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="5"/>
-      <c r="W12" s="6"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="5"/>
       <c r="X12" s="6"/>
       <c r="Y12" s="6"/>
-      <c r="Z12" s="7"/>
+      <c r="Z12" s="6"/>
       <c r="AA12" s="7"/>
-    </row>
-    <row r="13" customFormat="1" spans="3:27">
+      <c r="AB12" s="7"/>
+    </row>
+    <row r="13" customFormat="1" spans="3:28">
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -2627,15 +2691,16 @@
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="5"/>
-      <c r="W13" s="6"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="5"/>
       <c r="X13" s="6"/>
       <c r="Y13" s="6"/>
-      <c r="Z13" s="7"/>
+      <c r="Z13" s="6"/>
       <c r="AA13" s="7"/>
-    </row>
-    <row r="15" spans="1:27">
+      <c r="AB13" s="7"/>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -2643,72 +2708,73 @@
         <v>2001021</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E15" s="8"/>
-      <c r="F15" s="8">
+      <c r="F15" s="8"/>
+      <c r="G15" s="8">
         <v>1</v>
       </c>
-      <c r="G15" s="8">
-        <v>0</v>
-      </c>
       <c r="H15" s="8">
         <v>0</v>
       </c>
       <c r="I15" s="8">
+        <v>0</v>
+      </c>
+      <c r="J15" s="8">
         <v>1</v>
       </c>
-      <c r="J15" s="8">
+      <c r="K15" s="8">
         <v>3001011</v>
       </c>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8">
-        <v>0</v>
-      </c>
+      <c r="L15" s="8"/>
       <c r="M15" s="8">
+        <v>0</v>
+      </c>
+      <c r="N15" s="8">
         <v>180</v>
       </c>
-      <c r="N15" s="8">
+      <c r="O15" s="8">
         <v>100</v>
       </c>
-      <c r="O15" s="8">
-        <v>0</v>
-      </c>
       <c r="P15" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="8">
         <v>1</v>
       </c>
-      <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
-      <c r="S15" s="8">
+      <c r="S15" s="8"/>
+      <c r="T15" s="8">
         <v>2667</v>
       </c>
-      <c r="T15" s="19"/>
-      <c r="U15" s="5">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15" s="6" t="s">
-        <v>59</v>
+      <c r="U15" s="19"/>
+      <c r="V15" s="5">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
       </c>
       <c r="X15" s="6" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="Y15" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z15" s="6" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="AA15" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27">
+        <v>61</v>
+      </c>
+      <c r="AB15" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -2716,20 +2782,20 @@
         <v>2001022</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E16" s="8">
         <v>15003751</v>
       </c>
       <c r="F16" s="8">
+        <v>0</v>
+      </c>
+      <c r="G16" s="8">
         <v>2</v>
       </c>
-      <c r="G16" s="8">
-        <v>0</v>
-      </c>
       <c r="H16" s="8">
         <v>0</v>
       </c>
@@ -2737,51 +2803,54 @@
         <v>0</v>
       </c>
       <c r="J16" s="8">
+        <v>0</v>
+      </c>
+      <c r="K16" s="8">
         <v>3001012</v>
       </c>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8">
+      <c r="L16" s="8"/>
+      <c r="M16" s="8">
         <v>6000</v>
       </c>
-      <c r="M16" s="8">
+      <c r="N16" s="8">
         <v>180</v>
       </c>
-      <c r="N16" s="8">
+      <c r="O16" s="8">
         <v>100</v>
       </c>
-      <c r="O16" s="8">
+      <c r="P16" s="8">
         <v>5000</v>
       </c>
-      <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
-      <c r="S16" s="8">
+      <c r="S16" s="8"/>
+      <c r="T16" s="8">
         <v>2667</v>
       </c>
-      <c r="T16" s="19"/>
-      <c r="U16" s="5">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16" s="6" t="s">
-        <v>59</v>
+      <c r="U16" s="19"/>
+      <c r="V16" s="5">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
       </c>
       <c r="X16" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y16" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Z16" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA16" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27">
+        <v>61</v>
+      </c>
+      <c r="AA16" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB16" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -2789,10 +2858,10 @@
         <v>2001023</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E17" s="8">
         <v>15003752</v>
@@ -2807,54 +2876,57 @@
         <v>0</v>
       </c>
       <c r="I17" s="8">
+        <v>0</v>
+      </c>
+      <c r="J17" s="8">
         <v>2</v>
       </c>
-      <c r="J17" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="K17" s="14"/>
-      <c r="L17" s="8">
-        <v>0</v>
-      </c>
+      <c r="K17" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="L17" s="14"/>
       <c r="M17" s="8">
+        <v>0</v>
+      </c>
+      <c r="N17" s="8">
         <v>180</v>
       </c>
-      <c r="N17" s="8">
+      <c r="O17" s="8">
         <v>100</v>
       </c>
-      <c r="O17" s="8">
+      <c r="P17" s="8">
         <v>15000</v>
       </c>
-      <c r="P17" s="8"/>
       <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
-      <c r="S17" s="8">
+      <c r="S17" s="8"/>
+      <c r="T17" s="8">
         <v>2667</v>
       </c>
-      <c r="T17" s="19"/>
-      <c r="U17" s="5">
+      <c r="U17" s="19"/>
+      <c r="V17" s="5">
         <v>15008014</v>
       </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17" s="6" t="s">
-        <v>59</v>
+      <c r="W17">
+        <v>0</v>
       </c>
       <c r="X17" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y17" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Z17" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AA17" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" customFormat="1" spans="1:27">
+        <v>61</v>
+      </c>
+      <c r="AB17" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="1:28">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -2862,72 +2934,75 @@
         <v>2001024</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E18" s="8">
         <v>15003753</v>
       </c>
       <c r="F18" s="8">
+        <v>0</v>
+      </c>
+      <c r="G18" s="8">
         <v>1</v>
       </c>
-      <c r="G18" s="8">
-        <v>0</v>
-      </c>
       <c r="H18" s="8">
         <v>0</v>
       </c>
       <c r="I18" s="8">
+        <v>0</v>
+      </c>
+      <c r="J18" s="8">
         <v>1</v>
       </c>
-      <c r="J18" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="K18" s="14"/>
-      <c r="L18" s="8">
+      <c r="K18" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="L18" s="14"/>
+      <c r="M18" s="8">
         <v>8000</v>
       </c>
-      <c r="M18" s="8">
+      <c r="N18" s="8">
         <v>180</v>
       </c>
-      <c r="N18" s="8">
+      <c r="O18" s="8">
         <v>100</v>
       </c>
-      <c r="O18" s="8">
+      <c r="P18" s="8">
         <v>3000</v>
       </c>
-      <c r="P18" s="8"/>
       <c r="Q18" s="8"/>
       <c r="R18" s="8"/>
-      <c r="S18" s="8">
+      <c r="S18" s="8"/>
+      <c r="T18" s="8">
         <v>2667</v>
       </c>
-      <c r="T18" s="19"/>
-      <c r="U18" s="5">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18" s="6" t="s">
-        <v>59</v>
+      <c r="U18" s="19"/>
+      <c r="V18" s="5">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
       </c>
       <c r="X18" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y18" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Z18" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AA18" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27">
+        <v>61</v>
+      </c>
+      <c r="AB18" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -2935,74 +3010,77 @@
         <v>2001025</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E19" s="8">
         <v>15003754</v>
       </c>
       <c r="F19" s="8">
+        <v>0</v>
+      </c>
+      <c r="G19" s="8">
         <v>1</v>
       </c>
-      <c r="G19" s="8">
-        <v>0</v>
-      </c>
       <c r="H19" s="8">
         <v>0</v>
       </c>
       <c r="I19" s="8">
+        <v>0</v>
+      </c>
+      <c r="J19" s="8">
         <v>1</v>
       </c>
-      <c r="J19" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="K19" s="14"/>
-      <c r="L19" s="8">
+      <c r="K19" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="L19" s="14"/>
+      <c r="M19" s="8">
         <v>8000</v>
       </c>
-      <c r="M19" s="8">
+      <c r="N19" s="8">
         <v>180</v>
       </c>
-      <c r="N19" s="8">
+      <c r="O19" s="8">
         <v>100</v>
       </c>
-      <c r="O19" s="8">
+      <c r="P19" s="8">
         <v>25000</v>
       </c>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8">
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8">
         <v>1</v>
       </c>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8">
+      <c r="S19" s="8"/>
+      <c r="T19" s="8">
         <v>2667</v>
       </c>
-      <c r="T19" s="19"/>
-      <c r="U19" s="5">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19" s="6" t="s">
-        <v>59</v>
+      <c r="U19" s="19"/>
+      <c r="V19" s="5">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
       </c>
       <c r="X19" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y19" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Z19" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AA19" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" customFormat="1" spans="1:27">
+        <v>61</v>
+      </c>
+      <c r="AB19" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="1:28">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -3010,10 +3088,10 @@
         <v>2001026</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E20" s="8">
         <v>15003755</v>
@@ -3025,55 +3103,58 @@
         <v>0</v>
       </c>
       <c r="H20" s="8">
+        <v>0</v>
+      </c>
+      <c r="I20" s="8">
         <v>1</v>
       </c>
-      <c r="I20" s="8">
+      <c r="J20" s="8">
         <v>2</v>
       </c>
-      <c r="J20" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="K20" s="14"/>
-      <c r="L20" s="8">
-        <v>0</v>
-      </c>
+      <c r="K20" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="L20" s="14"/>
       <c r="M20" s="8">
         <v>0</v>
       </c>
       <c r="N20" s="8">
         <v>0</v>
       </c>
-      <c r="O20" s="8"/>
+      <c r="O20" s="8">
+        <v>0</v>
+      </c>
       <c r="P20" s="8"/>
       <c r="Q20" s="8"/>
       <c r="R20" s="8"/>
-      <c r="S20" s="8">
+      <c r="S20" s="8"/>
+      <c r="T20" s="8">
         <v>2667</v>
       </c>
-      <c r="T20" s="19"/>
-      <c r="U20" s="5">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20" s="6" t="s">
-        <v>59</v>
+      <c r="U20" s="19"/>
+      <c r="V20" s="5">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
       </c>
       <c r="X20" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y20" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Z20" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AA20" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" s="2" customFormat="1" spans="1:27">
+        <v>61</v>
+      </c>
+      <c r="AB20" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" spans="1:28">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21" s="12"/>
@@ -3083,25 +3164,26 @@
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
-      <c r="J21" s="15"/>
+      <c r="J21" s="12"/>
       <c r="K21" s="15"/>
-      <c r="L21" s="12"/>
+      <c r="L21" s="15"/>
       <c r="M21" s="12"/>
       <c r="N21" s="12"/>
       <c r="O21" s="12"/>
       <c r="P21" s="12"/>
       <c r="Q21" s="12"/>
       <c r="R21" s="12"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="19"/>
-      <c r="U21" s="5"/>
-      <c r="W21" s="7"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="5"/>
       <c r="X21" s="7"/>
       <c r="Y21" s="7"/>
       <c r="Z21" s="7"/>
       <c r="AA21" s="7"/>
-    </row>
-    <row r="22" ht="12" customHeight="1" spans="3:20">
+      <c r="AB21" s="7"/>
+    </row>
+    <row r="22" ht="12" customHeight="1" spans="3:21">
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -3119,9 +3201,10 @@
       <c r="Q22" s="8"/>
       <c r="R22" s="8"/>
       <c r="S22" s="8"/>
-      <c r="T22" s="19"/>
-    </row>
-    <row r="23" customFormat="1" spans="1:28">
+      <c r="T22" s="8"/>
+      <c r="U22" s="19"/>
+    </row>
+    <row r="23" customFormat="1" spans="1:29">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -3129,75 +3212,78 @@
         <v>2001050</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E23" s="8">
         <v>15003753</v>
       </c>
       <c r="F23" s="8">
+        <v>0</v>
+      </c>
+      <c r="G23" s="8">
         <v>2</v>
       </c>
-      <c r="G23" s="8">
+      <c r="H23" s="8">
         <v>1</v>
       </c>
-      <c r="H23" s="8">
-        <v>0</v>
-      </c>
       <c r="I23" s="8">
         <v>0</v>
       </c>
       <c r="J23" s="8">
+        <v>0</v>
+      </c>
+      <c r="K23" s="8">
         <v>16001010</v>
       </c>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8">
+      <c r="L23" s="8"/>
+      <c r="M23" s="8">
         <v>10000</v>
       </c>
-      <c r="M23" s="8">
+      <c r="N23" s="8">
         <v>1500</v>
       </c>
-      <c r="N23" s="8">
-        <v>0</v>
-      </c>
       <c r="O23" s="8">
+        <v>0</v>
+      </c>
+      <c r="P23" s="8">
         <v>600</v>
       </c>
-      <c r="P23" s="8"/>
       <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
-      <c r="S23" s="8">
+      <c r="S23" s="8"/>
+      <c r="T23" s="8">
         <v>1000</v>
       </c>
-      <c r="T23" s="19"/>
-      <c r="U23" s="5">
-        <v>0</v>
-      </c>
-      <c r="V23">
+      <c r="U23" s="19"/>
+      <c r="V23" s="5">
+        <v>0</v>
+      </c>
+      <c r="W23">
         <v>1</v>
       </c>
-      <c r="W23" s="6" t="s">
-        <v>97</v>
-      </c>
       <c r="X23" s="6" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="Y23" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z23" s="7">
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="Z23" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="AA23" s="7">
         <v>0</v>
       </c>
-      <c r="AB23">
+      <c r="AB23" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC23">
         <v>2500005</v>
       </c>
     </row>
-    <row r="24" customFormat="1" spans="3:27">
+    <row r="24" customFormat="1" spans="3:28">
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -3215,15 +3301,16 @@
       <c r="Q24" s="8"/>
       <c r="R24" s="8"/>
       <c r="S24" s="8"/>
-      <c r="T24" s="19"/>
-      <c r="U24" s="5"/>
-      <c r="W24" s="6"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="5"/>
       <c r="X24" s="6"/>
       <c r="Y24" s="6"/>
-      <c r="Z24" s="7"/>
+      <c r="Z24" s="6"/>
       <c r="AA24" s="7"/>
-    </row>
-    <row r="25" customFormat="1" spans="3:27">
+      <c r="AB24" s="7"/>
+    </row>
+    <row r="25" customFormat="1" spans="3:28">
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -3241,15 +3328,16 @@
       <c r="Q25" s="8"/>
       <c r="R25" s="8"/>
       <c r="S25" s="8"/>
-      <c r="T25" s="19"/>
-      <c r="U25" s="5"/>
-      <c r="W25" s="6"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="5"/>
       <c r="X25" s="6"/>
       <c r="Y25" s="6"/>
-      <c r="Z25" s="7"/>
+      <c r="Z25" s="6"/>
       <c r="AA25" s="7"/>
-    </row>
-    <row r="26" customFormat="1" spans="3:27">
+      <c r="AB25" s="7"/>
+    </row>
+    <row r="26" customFormat="1" spans="3:28">
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -3267,15 +3355,16 @@
       <c r="Q26" s="8"/>
       <c r="R26" s="8"/>
       <c r="S26" s="8"/>
-      <c r="T26" s="19"/>
-      <c r="U26" s="5"/>
-      <c r="W26" s="6"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="5"/>
       <c r="X26" s="6"/>
       <c r="Y26" s="6"/>
-      <c r="Z26" s="7"/>
+      <c r="Z26" s="6"/>
       <c r="AA26" s="7"/>
-    </row>
-    <row r="27" customFormat="1" spans="3:27">
+      <c r="AB26" s="7"/>
+    </row>
+    <row r="27" customFormat="1" spans="3:28">
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -3293,28 +3382,29 @@
       <c r="Q27" s="8"/>
       <c r="R27" s="8"/>
       <c r="S27" s="8"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="5"/>
-      <c r="W27" s="6"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="5"/>
       <c r="X27" s="6"/>
       <c r="Y27" s="6"/>
-      <c r="Z27" s="7"/>
+      <c r="Z27" s="6"/>
       <c r="AA27" s="7"/>
-    </row>
-    <row r="28" s="3" customFormat="1" spans="19:27">
-      <c r="S28" s="8"/>
-      <c r="T28" s="5"/>
+      <c r="AB27" s="7"/>
+    </row>
+    <row r="28" s="3" customFormat="1" spans="20:28">
+      <c r="T28" s="8"/>
       <c r="U28" s="5"/>
-      <c r="W28" s="21"/>
-      <c r="X28" s="21"/>
-      <c r="Y28" s="21"/>
-      <c r="Z28" s="7"/>
+      <c r="V28" s="5"/>
+      <c r="X28" s="20"/>
+      <c r="Y28" s="20"/>
+      <c r="Z28" s="20"/>
       <c r="AA28" s="7"/>
-    </row>
-    <row r="29" spans="19:19">
-      <c r="S29" s="8"/>
-    </row>
-    <row r="30" spans="1:21">
+      <c r="AB28" s="7"/>
+    </row>
+    <row r="29" spans="20:20">
+      <c r="T29" s="8"/>
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -3322,54 +3412,55 @@
         <v>2002001</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E30" s="8"/>
-      <c r="F30" s="8">
+      <c r="F30" s="8"/>
+      <c r="G30" s="8">
         <v>1</v>
       </c>
-      <c r="G30" s="8">
-        <v>0</v>
-      </c>
       <c r="H30" s="8">
         <v>0</v>
       </c>
       <c r="I30" s="8">
+        <v>0</v>
+      </c>
+      <c r="J30" s="8">
         <v>1</v>
       </c>
-      <c r="J30" s="8">
+      <c r="K30" s="8">
         <v>3002001</v>
       </c>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8">
-        <v>0</v>
-      </c>
+      <c r="L30" s="8"/>
       <c r="M30" s="8">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="N30" s="8">
         <v>300</v>
       </c>
       <c r="O30" s="8">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="P30" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="8">
         <v>1</v>
       </c>
-      <c r="Q30" s="8"/>
       <c r="R30" s="8"/>
-      <c r="S30" s="8">
+      <c r="S30" s="8"/>
+      <c r="T30" s="8">
         <v>1540</v>
       </c>
-      <c r="T30" s="19"/>
-      <c r="U30" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28">
+      <c r="U30" s="19"/>
+      <c r="V30" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -3377,75 +3468,78 @@
         <v>2002002</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E31" s="8">
         <v>15003753</v>
       </c>
       <c r="F31" s="8">
+        <v>0</v>
+      </c>
+      <c r="G31" s="8">
         <v>2</v>
       </c>
-      <c r="G31" s="8">
-        <v>0</v>
-      </c>
       <c r="H31" s="8">
         <v>0</v>
       </c>
       <c r="I31" s="8">
+        <v>0</v>
+      </c>
+      <c r="J31" s="8">
         <v>2</v>
       </c>
-      <c r="J31" s="8">
+      <c r="K31" s="8">
         <v>13002030</v>
       </c>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8">
+      <c r="L31" s="8"/>
+      <c r="M31" s="8">
         <v>4000</v>
       </c>
-      <c r="M31" s="8">
+      <c r="N31" s="8">
         <v>1500</v>
       </c>
-      <c r="N31" s="8">
+      <c r="O31" s="8">
         <v>700</v>
       </c>
-      <c r="O31" s="8">
+      <c r="P31" s="8">
         <v>6500</v>
       </c>
-      <c r="P31" s="8"/>
       <c r="Q31" s="8"/>
       <c r="R31" s="8"/>
-      <c r="S31" s="8">
+      <c r="S31" s="8"/>
+      <c r="T31" s="8">
         <v>340</v>
       </c>
-      <c r="T31" s="19"/>
-      <c r="U31" s="5">
-        <v>0</v>
-      </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
-      <c r="W31" s="6" t="s">
-        <v>59</v>
+      <c r="U31" s="19"/>
+      <c r="V31" s="5">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
       </c>
       <c r="X31" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y31" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z31" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
+      </c>
+      <c r="Z31" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="AA31" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB31">
+        <v>61</v>
+      </c>
+      <c r="AB31" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC31">
         <v>2500010</v>
       </c>
     </row>
-    <row r="32" customFormat="1" spans="3:27">
+    <row r="32" customFormat="1" spans="3:28">
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -3463,15 +3557,16 @@
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
       <c r="S32" s="8"/>
-      <c r="T32" s="19"/>
-      <c r="U32" s="5"/>
-      <c r="W32" s="6"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="19"/>
+      <c r="V32" s="5"/>
       <c r="X32" s="6"/>
       <c r="Y32" s="6"/>
-      <c r="Z32" s="7"/>
+      <c r="Z32" s="6"/>
       <c r="AA32" s="7"/>
-    </row>
-    <row r="33" customFormat="1" spans="1:27">
+      <c r="AB32" s="7"/>
+    </row>
+    <row r="33" customFormat="1" spans="1:28">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -3479,59 +3574,60 @@
         <v>2002011</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E33" s="8"/>
-      <c r="F33" s="8">
+      <c r="F33" s="8"/>
+      <c r="G33" s="8">
         <v>1</v>
       </c>
-      <c r="G33" s="8">
-        <v>0</v>
-      </c>
       <c r="H33" s="8">
         <v>0</v>
       </c>
       <c r="I33" s="8">
+        <v>0</v>
+      </c>
+      <c r="J33" s="8">
         <v>1</v>
       </c>
-      <c r="J33" s="8">
+      <c r="K33" s="8">
         <v>3002011</v>
       </c>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8">
-        <v>0</v>
-      </c>
+      <c r="L33" s="8"/>
       <c r="M33" s="8">
+        <v>0</v>
+      </c>
+      <c r="N33" s="8">
         <v>300</v>
       </c>
-      <c r="N33" s="8">
+      <c r="O33" s="8">
         <v>200</v>
       </c>
-      <c r="O33" s="8">
-        <v>0</v>
-      </c>
       <c r="P33" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="8">
         <v>1</v>
       </c>
-      <c r="Q33" s="8"/>
       <c r="R33" s="8"/>
-      <c r="S33" s="8">
+      <c r="S33" s="8"/>
+      <c r="T33" s="8">
         <v>1400</v>
       </c>
-      <c r="T33" s="19"/>
-      <c r="U33" s="5">
-        <v>0</v>
-      </c>
-      <c r="W33" s="6"/>
+      <c r="U33" s="19"/>
+      <c r="V33" s="5">
+        <v>0</v>
+      </c>
       <c r="X33" s="6"/>
       <c r="Y33" s="6"/>
-      <c r="Z33" s="7"/>
+      <c r="Z33" s="6"/>
       <c r="AA33" s="7"/>
-    </row>
-    <row r="34" customFormat="1" spans="1:28">
+      <c r="AB33" s="7"/>
+    </row>
+    <row r="34" customFormat="1" spans="1:29">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -3539,20 +3635,20 @@
         <v>2002012</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E34" s="8">
         <v>15003751</v>
       </c>
       <c r="F34" s="8">
+        <v>0</v>
+      </c>
+      <c r="G34" s="8">
         <v>2</v>
       </c>
-      <c r="G34" s="8">
-        <v>0</v>
-      </c>
       <c r="H34" s="8">
         <v>0</v>
       </c>
@@ -3560,61 +3656,64 @@
         <v>0</v>
       </c>
       <c r="J34" s="8">
+        <v>0</v>
+      </c>
+      <c r="K34" s="8">
         <v>3002012</v>
       </c>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8">
+      <c r="L34" s="8"/>
+      <c r="M34" s="8">
         <v>8000</v>
       </c>
-      <c r="M34" s="8">
+      <c r="N34" s="8">
         <v>1000</v>
       </c>
-      <c r="N34" s="8">
+      <c r="O34" s="8">
         <v>700</v>
       </c>
-      <c r="O34" s="8">
+      <c r="P34" s="8">
         <v>7000</v>
       </c>
-      <c r="P34" s="8"/>
       <c r="Q34" s="8"/>
       <c r="R34" s="8"/>
-      <c r="S34" s="8">
+      <c r="S34" s="8"/>
+      <c r="T34" s="8">
         <v>420</v>
       </c>
-      <c r="T34" s="19"/>
-      <c r="U34" s="5">
-        <v>0</v>
-      </c>
-      <c r="V34">
-        <v>0</v>
-      </c>
-      <c r="W34" s="6" t="s">
-        <v>59</v>
+      <c r="U34" s="19"/>
+      <c r="V34" s="5">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
       </c>
       <c r="X34" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y34" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Z34" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA34" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB34">
+        <v>61</v>
+      </c>
+      <c r="AA34" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB34" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC34">
         <v>2500011</v>
       </c>
     </row>
-    <row r="35" customFormat="1" spans="4:27">
+    <row r="35" customFormat="1" spans="4:28">
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
-      <c r="L35" s="8"/>
+      <c r="J35" s="8"/>
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
       <c r="O35" s="8"/>
@@ -3622,22 +3721,23 @@
       <c r="Q35" s="8"/>
       <c r="R35" s="8"/>
       <c r="S35" s="8"/>
-      <c r="T35" s="19"/>
-      <c r="U35" s="5"/>
-      <c r="W35" s="6"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="19"/>
+      <c r="V35" s="5"/>
       <c r="X35" s="6"/>
       <c r="Y35" s="6"/>
-      <c r="Z35" s="7"/>
+      <c r="Z35" s="6"/>
       <c r="AA35" s="7"/>
-    </row>
-    <row r="36" customFormat="1" spans="4:27">
+      <c r="AB35" s="7"/>
+    </row>
+    <row r="36" customFormat="1" spans="4:28">
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
-      <c r="L36" s="8"/>
+      <c r="J36" s="8"/>
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
       <c r="O36" s="8"/>
@@ -3645,15 +3745,16 @@
       <c r="Q36" s="8"/>
       <c r="R36" s="8"/>
       <c r="S36" s="8"/>
-      <c r="T36" s="19"/>
-      <c r="U36" s="5"/>
-      <c r="W36" s="6"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="19"/>
+      <c r="V36" s="5"/>
       <c r="X36" s="6"/>
       <c r="Y36" s="6"/>
-      <c r="Z36" s="7"/>
+      <c r="Z36" s="6"/>
       <c r="AA36" s="7"/>
-    </row>
-    <row r="37" customFormat="1" spans="1:27">
+      <c r="AB36" s="7"/>
+    </row>
+    <row r="37" customFormat="1" spans="1:28">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -3661,58 +3762,59 @@
         <v>2003001</v>
       </c>
       <c r="C37" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E37" s="8"/>
-      <c r="F37" s="8">
+      <c r="F37" s="8"/>
+      <c r="G37" s="8">
         <v>1</v>
       </c>
-      <c r="G37" s="8">
-        <v>0</v>
-      </c>
       <c r="H37" s="8">
         <v>0</v>
       </c>
       <c r="I37" s="8">
+        <v>0</v>
+      </c>
+      <c r="J37" s="8">
         <v>1</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>3003001</v>
       </c>
-      <c r="L37" s="8">
-        <v>0</v>
-      </c>
       <c r="M37" s="8">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="N37" s="8">
         <v>300</v>
       </c>
       <c r="O37" s="8">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="P37" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="8">
         <v>1</v>
       </c>
-      <c r="Q37" s="8"/>
       <c r="R37" s="8"/>
-      <c r="S37" s="8">
+      <c r="S37" s="8"/>
+      <c r="T37" s="8">
         <v>1540</v>
       </c>
-      <c r="T37" s="19"/>
-      <c r="U37" s="5">
-        <v>0</v>
-      </c>
-      <c r="W37" s="6"/>
+      <c r="U37" s="19"/>
+      <c r="V37" s="5">
+        <v>0</v>
+      </c>
       <c r="X37" s="6"/>
       <c r="Y37" s="6"/>
-      <c r="Z37" s="7"/>
+      <c r="Z37" s="6"/>
       <c r="AA37" s="7"/>
-    </row>
-    <row r="38" s="4" customFormat="1" spans="1:27">
+      <c r="AB37" s="7"/>
+    </row>
+    <row r="38" s="4" customFormat="1" spans="1:28">
       <c r="A38" s="4" t="s">
         <v>0</v>
       </c>
@@ -3720,59 +3822,62 @@
         <v>2003002</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E38" s="13">
         <v>15003751</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F38" s="8">
+        <v>0</v>
+      </c>
+      <c r="G38" s="13">
         <v>2</v>
       </c>
-      <c r="G38" s="13">
-        <v>0</v>
-      </c>
       <c r="H38" s="13">
         <v>0</v>
       </c>
       <c r="I38" s="13">
+        <v>0</v>
+      </c>
+      <c r="J38" s="13">
         <v>1</v>
       </c>
-      <c r="J38" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="K38" s="16"/>
-      <c r="L38" s="13">
+      <c r="K38" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="L38" s="16"/>
+      <c r="M38" s="13">
         <v>8000</v>
       </c>
-      <c r="M38" s="13">
+      <c r="N38" s="13">
         <v>600</v>
       </c>
-      <c r="N38" s="13">
-        <v>0</v>
-      </c>
       <c r="O38" s="13">
+        <v>0</v>
+      </c>
+      <c r="P38" s="13">
         <v>2000</v>
       </c>
-      <c r="P38" s="13"/>
       <c r="Q38" s="13"/>
       <c r="R38" s="13"/>
-      <c r="S38" s="8">
+      <c r="S38" s="13"/>
+      <c r="T38" s="8">
         <v>1000</v>
       </c>
-      <c r="T38" s="13"/>
-      <c r="U38" s="5">
-        <v>0</v>
-      </c>
-      <c r="W38" s="22"/>
-      <c r="X38" s="22"/>
-      <c r="Y38" s="22"/>
-      <c r="Z38" s="22"/>
-      <c r="AA38" s="22"/>
-    </row>
-    <row r="39" s="4" customFormat="1" spans="1:27">
+      <c r="U38" s="13"/>
+      <c r="V38" s="5">
+        <v>0</v>
+      </c>
+      <c r="X38" s="21"/>
+      <c r="Y38" s="21"/>
+      <c r="Z38" s="21"/>
+      <c r="AA38" s="21"/>
+      <c r="AB38" s="21"/>
+    </row>
+    <row r="39" s="4" customFormat="1" spans="1:28">
       <c r="A39" s="4" t="s">
         <v>0</v>
       </c>
@@ -3780,15 +3885,15 @@
         <v>2003003</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E39" s="13">
         <v>15003753</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F39" s="8">
         <v>0</v>
       </c>
       <c r="G39" s="13">
@@ -3798,41 +3903,44 @@
         <v>0</v>
       </c>
       <c r="I39" s="13">
+        <v>0</v>
+      </c>
+      <c r="J39" s="13">
         <v>2</v>
       </c>
-      <c r="J39" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="K39" s="16"/>
-      <c r="L39" s="13">
-        <v>0</v>
-      </c>
+      <c r="K39" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="L39" s="16"/>
       <c r="M39" s="13">
+        <v>0</v>
+      </c>
+      <c r="N39" s="13">
         <v>50</v>
       </c>
-      <c r="N39" s="13">
-        <v>0</v>
-      </c>
       <c r="O39" s="13">
+        <v>0</v>
+      </c>
+      <c r="P39" s="13">
         <v>6000</v>
       </c>
-      <c r="P39" s="13"/>
       <c r="Q39" s="13"/>
       <c r="R39" s="13"/>
-      <c r="S39" s="8">
+      <c r="S39" s="13"/>
+      <c r="T39" s="8">
         <v>1000</v>
       </c>
-      <c r="T39" s="13"/>
-      <c r="U39" s="5">
+      <c r="U39" s="13"/>
+      <c r="V39" s="5">
         <v>15008005</v>
       </c>
-      <c r="W39" s="22"/>
-      <c r="X39" s="22"/>
-      <c r="Y39" s="22"/>
-      <c r="Z39" s="22"/>
-      <c r="AA39" s="22"/>
-    </row>
-    <row r="40" s="4" customFormat="1" spans="1:27">
+      <c r="X39" s="21"/>
+      <c r="Y39" s="21"/>
+      <c r="Z39" s="21"/>
+      <c r="AA39" s="21"/>
+      <c r="AB39" s="21"/>
+    </row>
+    <row r="40" s="4" customFormat="1" spans="1:28">
       <c r="A40" s="4" t="s">
         <v>0</v>
       </c>
@@ -3840,62 +3948,65 @@
         <v>2003004</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E40" s="13">
         <v>15003754</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F40" s="8">
+        <v>0</v>
+      </c>
+      <c r="G40" s="13">
         <v>2</v>
       </c>
-      <c r="G40" s="13">
+      <c r="H40" s="13">
         <v>1</v>
       </c>
-      <c r="H40" s="13">
-        <v>0</v>
-      </c>
       <c r="I40" s="13">
         <v>0</v>
       </c>
       <c r="J40" s="13">
+        <v>0</v>
+      </c>
+      <c r="K40" s="13">
         <v>16001001</v>
       </c>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13">
+      <c r="L40" s="13"/>
+      <c r="M40" s="13">
         <v>8000</v>
       </c>
-      <c r="M40" s="13">
-        <v>0</v>
-      </c>
       <c r="N40" s="13">
         <v>0</v>
       </c>
       <c r="O40" s="13">
+        <v>0</v>
+      </c>
+      <c r="P40" s="13">
         <v>1500</v>
       </c>
-      <c r="P40" s="13"/>
       <c r="Q40" s="13"/>
       <c r="R40" s="13"/>
-      <c r="S40" s="8">
+      <c r="S40" s="13"/>
+      <c r="T40" s="8">
         <v>1000</v>
       </c>
-      <c r="T40" s="13"/>
-      <c r="U40" s="5">
-        <v>0</v>
-      </c>
-      <c r="W40" s="22"/>
-      <c r="X40" s="22"/>
-      <c r="Y40" s="22"/>
-      <c r="Z40" s="22"/>
-      <c r="AA40" s="22"/>
-    </row>
-    <row r="41" spans="19:19">
-      <c r="S41" s="8"/>
-    </row>
-    <row r="42" customFormat="1" spans="1:27">
+      <c r="U40" s="13"/>
+      <c r="V40" s="5">
+        <v>0</v>
+      </c>
+      <c r="X40" s="21"/>
+      <c r="Y40" s="21"/>
+      <c r="Z40" s="21"/>
+      <c r="AA40" s="21"/>
+      <c r="AB40" s="21"/>
+    </row>
+    <row r="41" spans="20:20">
+      <c r="T41" s="8"/>
+    </row>
+    <row r="42" customFormat="1" spans="1:28">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -3903,10 +4014,10 @@
         <v>2003050</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E42" s="8">
         <v>15003751</v>
@@ -3918,18 +4029,18 @@
         <v>0</v>
       </c>
       <c r="H42" s="8">
+        <v>0</v>
+      </c>
+      <c r="I42" s="8">
         <v>1</v>
       </c>
-      <c r="I42" s="8">
+      <c r="J42" s="8">
         <v>2</v>
       </c>
-      <c r="J42" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="K42" s="14"/>
-      <c r="L42" s="8">
-        <v>0</v>
-      </c>
+      <c r="K42" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="L42" s="14"/>
       <c r="M42" s="8">
         <v>0</v>
       </c>
@@ -3940,37 +4051,40 @@
         <v>0</v>
       </c>
       <c r="P42" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="8">
         <v>1</v>
       </c>
-      <c r="Q42" s="8"/>
       <c r="R42" s="8"/>
-      <c r="S42" s="8">
+      <c r="S42" s="8"/>
+      <c r="T42" s="8">
         <v>1000</v>
       </c>
-      <c r="T42" s="19"/>
-      <c r="U42" s="5">
-        <v>0</v>
-      </c>
-      <c r="V42">
-        <v>0</v>
-      </c>
-      <c r="W42" s="6" t="s">
-        <v>59</v>
+      <c r="U42" s="19"/>
+      <c r="V42" s="5">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
       </c>
       <c r="X42" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y42" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Z42" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AA42" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="43" customFormat="1" spans="1:27">
+        <v>61</v>
+      </c>
+      <c r="AB42" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" spans="1:28">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -3978,10 +4092,10 @@
         <v>2003051</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E43" s="8">
         <v>15003752</v>
@@ -3993,18 +4107,18 @@
         <v>0</v>
       </c>
       <c r="H43" s="8">
+        <v>0</v>
+      </c>
+      <c r="I43" s="8">
         <v>1</v>
       </c>
-      <c r="I43" s="8">
+      <c r="J43" s="8">
         <v>2</v>
       </c>
-      <c r="J43" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="K43" s="14"/>
-      <c r="L43" s="8">
-        <v>0</v>
-      </c>
+      <c r="K43" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="L43" s="14"/>
       <c r="M43" s="8">
         <v>0</v>
       </c>
@@ -4014,36 +4128,39 @@
       <c r="O43" s="8">
         <v>0</v>
       </c>
-      <c r="P43" s="8"/>
+      <c r="P43" s="8">
+        <v>0</v>
+      </c>
       <c r="Q43" s="8"/>
       <c r="R43" s="8"/>
-      <c r="S43" s="8">
+      <c r="S43" s="8"/>
+      <c r="T43" s="8">
         <v>1000</v>
       </c>
-      <c r="T43" s="19"/>
-      <c r="U43" s="5">
-        <v>0</v>
-      </c>
-      <c r="V43">
-        <v>0</v>
-      </c>
-      <c r="W43" s="6" t="s">
-        <v>59</v>
+      <c r="U43" s="19"/>
+      <c r="V43" s="5">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
       </c>
       <c r="X43" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y43" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Z43" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AA43" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" customFormat="1" spans="1:28">
+        <v>61</v>
+      </c>
+      <c r="AB43" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" customFormat="1" spans="1:29">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -4051,10 +4168,10 @@
         <v>2003052</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E44" s="8">
         <v>15003753</v>
@@ -4071,63 +4188,66 @@
       <c r="I44" s="8">
         <v>0</v>
       </c>
-      <c r="J44" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="K44" s="14"/>
-      <c r="L44" s="8">
-        <v>0</v>
-      </c>
+      <c r="J44" s="8">
+        <v>0</v>
+      </c>
+      <c r="K44" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="L44" s="14"/>
       <c r="M44" s="8">
+        <v>0</v>
+      </c>
+      <c r="N44" s="8">
         <v>1500</v>
       </c>
-      <c r="N44" s="8">
+      <c r="O44" s="8">
         <v>700</v>
       </c>
-      <c r="O44" s="8">
+      <c r="P44" s="8">
         <v>12000</v>
       </c>
-      <c r="P44" s="8"/>
       <c r="Q44" s="8"/>
       <c r="R44" s="8"/>
-      <c r="S44" s="8">
+      <c r="S44" s="8"/>
+      <c r="T44" s="8">
         <v>340</v>
       </c>
-      <c r="T44" s="19"/>
-      <c r="U44" s="5">
+      <c r="U44" s="19"/>
+      <c r="V44" s="5">
         <v>15008014</v>
       </c>
-      <c r="V44">
-        <v>0</v>
-      </c>
-      <c r="W44" s="6" t="s">
-        <v>59</v>
+      <c r="W44">
+        <v>0</v>
       </c>
       <c r="X44" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y44" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z44" s="7">
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="Z44" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="AA44" s="7">
         <v>0</v>
       </c>
-      <c r="AB44">
+      <c r="AB44" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC44">
         <v>2500020</v>
       </c>
     </row>
-    <row r="45" spans="19:19">
-      <c r="S45" s="8"/>
-    </row>
-    <row r="48" spans="15:15">
-      <c r="O48" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27">
+    <row r="45" spans="20:20">
+      <c r="T45" s="8"/>
+    </row>
+    <row r="48" spans="16:16">
+      <c r="P48" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -4135,34 +4255,34 @@
         <v>2005001</v>
       </c>
       <c r="C49" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D49" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E49" s="8">
         <v>15003753</v>
       </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49" s="8">
+      <c r="F49" s="8">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49" s="8">
         <v>2</v>
       </c>
-      <c r="H49" s="8">
-        <v>0</v>
-      </c>
       <c r="I49" s="8">
         <v>0</v>
       </c>
-      <c r="J49" s="14" t="s">
-        <v>122</v>
+      <c r="J49" s="8">
+        <v>0</v>
       </c>
       <c r="K49" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="L49" s="8">
-        <v>0</v>
+        <v>124</v>
+      </c>
+      <c r="L49" s="14" t="s">
+        <v>125</v>
       </c>
       <c r="M49" s="8">
         <v>0</v>
@@ -4171,34 +4291,37 @@
         <v>0</v>
       </c>
       <c r="O49" s="8">
+        <v>0</v>
+      </c>
+      <c r="P49" s="8">
         <v>2000</v>
       </c>
-      <c r="P49" s="8"/>
       <c r="Q49" s="8"/>
       <c r="R49" s="8"/>
-      <c r="S49" s="8">
+      <c r="S49" s="8"/>
+      <c r="T49" s="8">
         <v>1000</v>
       </c>
-      <c r="T49" s="19"/>
-      <c r="U49" s="5">
+      <c r="U49" s="19"/>
+      <c r="V49" s="5">
         <v>15008014</v>
       </c>
-      <c r="V49">
-        <v>0</v>
-      </c>
-      <c r="W49" s="6" t="s">
-        <v>59</v>
+      <c r="W49">
+        <v>0</v>
       </c>
       <c r="X49" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y49" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z49" s="7">
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="Z49" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="AA49" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="7">
         <v>0</v>
       </c>
     </row>

--- a/data_table/Skill.xlsx
+++ b/data_table/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="23550" windowHeight="11655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -879,12 +879,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1787,10 +1787,10 @@
   <sheetPr/>
   <dimension ref="A1:AC49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="N1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F45" sqref="F45"/>
+      <selection pane="topRight" activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2813,19 +2813,19 @@
         <v>6000</v>
       </c>
       <c r="N16" s="8">
-        <v>180</v>
+        <v>1800</v>
       </c>
       <c r="O16" s="8">
-        <v>100</v>
+        <v>1800</v>
       </c>
       <c r="P16" s="8">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
       <c r="T16" s="8">
-        <v>2667</v>
+        <v>267</v>
       </c>
       <c r="U16" s="19"/>
       <c r="V16" s="5">

--- a/data_table/Skill.xlsx
+++ b/data_table/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23550" windowHeight="11655"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -336,7 +336,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="127">
   <si>
     <t>#</t>
   </si>
@@ -429,6 +429,9 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>List&lt;int&gt;</t>
   </si>
   <si>
     <t>转表符</t>
@@ -879,12 +882,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1788,9 +1791,9 @@
   <dimension ref="A1:AC49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="O17" sqref="O17"/>
+      <selection pane="topRight" activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1944,10 +1947,10 @@
         <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
         <v>29</v>
@@ -1983,111 +1986,111 @@
         <v>29</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Y2" s="6" t="s">
         <v>29</v>
       </c>
       <c r="Z2" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AA2" s="7" t="s">
         <v>29</v>
       </c>
       <c r="AB2" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AC2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" ht="93" customHeight="1" spans="1:29">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T3" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U3" s="17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="V3" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="W3" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X3" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y3" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Z3" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AA3" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB3" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -2098,10 +2101,10 @@
         <v>2001001</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8">
@@ -2151,13 +2154,13 @@
         <v>0</v>
       </c>
       <c r="X4" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y4" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Z4" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AA4" s="7">
         <v>0</v>
@@ -2171,10 +2174,10 @@
         <v>2001002</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8">
@@ -2222,13 +2225,13 @@
         <v>1</v>
       </c>
       <c r="X5" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Y5" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z5" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA5" s="23">
         <v>0</v>
@@ -2245,10 +2248,10 @@
         <v>2001002</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E6" s="8">
         <v>15003751</v>
@@ -2298,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="X6" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y6" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z6" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA6" s="7">
         <v>0</v>
@@ -2321,10 +2324,10 @@
         <v>2001003</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E7" s="8">
         <v>15003752</v>
@@ -2345,7 +2348,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L7" s="14"/>
       <c r="M7" s="8">
@@ -2374,13 +2377,13 @@
         <v>0</v>
       </c>
       <c r="X7" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y7" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z7" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA7" s="7">
         <v>0</v>
@@ -2397,10 +2400,10 @@
         <v>2001004</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E8" s="8">
         <v>15003753</v>
@@ -2450,13 +2453,13 @@
         <v>0</v>
       </c>
       <c r="X8" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y8" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Z8" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AA8" s="7">
         <v>0</v>
@@ -2473,10 +2476,10 @@
         <v>2001005</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E9" s="8">
         <v>15003754</v>
@@ -2497,7 +2500,7 @@
         <v>2</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L9" s="14"/>
       <c r="M9" s="8">
@@ -2528,13 +2531,13 @@
         <v>0</v>
       </c>
       <c r="X9" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y9" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z9" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA9" s="7">
         <v>0</v>
@@ -2551,10 +2554,10 @@
         <v>2001006</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E10" s="8">
         <v>15003755</v>
@@ -2575,7 +2578,7 @@
         <v>2</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L10" s="14"/>
       <c r="M10" s="8">
@@ -2604,13 +2607,13 @@
         <v>0</v>
       </c>
       <c r="X10" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y10" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z10" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA10" s="7">
         <v>0</v>
@@ -2708,10 +2711,10 @@
         <v>2001021</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
@@ -2759,19 +2762,19 @@
         <v>0</v>
       </c>
       <c r="X15" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y15" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z15" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA15" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -2782,10 +2785,10 @@
         <v>2001022</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E16" s="8">
         <v>15003751</v>
@@ -2835,19 +2838,19 @@
         <v>0</v>
       </c>
       <c r="X16" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y16" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z16" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA16" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB16" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:28">
@@ -2858,10 +2861,10 @@
         <v>2001023</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E17" s="8">
         <v>15003752</v>
@@ -2882,7 +2885,7 @@
         <v>2</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L17" s="14"/>
       <c r="M17" s="8">
@@ -2911,19 +2914,19 @@
         <v>0</v>
       </c>
       <c r="X17" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y17" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z17" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA17" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB17" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:28">
@@ -2934,10 +2937,10 @@
         <v>2001024</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E18" s="8">
         <v>15003753</v>
@@ -2958,7 +2961,7 @@
         <v>1</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L18" s="14"/>
       <c r="M18" s="8">
@@ -2987,19 +2990,19 @@
         <v>0</v>
       </c>
       <c r="X18" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y18" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z18" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA18" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB18" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:28">
@@ -3010,10 +3013,10 @@
         <v>2001025</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E19" s="8">
         <v>15003754</v>
@@ -3034,7 +3037,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L19" s="14"/>
       <c r="M19" s="8">
@@ -3065,19 +3068,19 @@
         <v>0</v>
       </c>
       <c r="X19" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y19" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z19" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA19" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:28">
@@ -3088,10 +3091,10 @@
         <v>2001026</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E20" s="8">
         <v>15003755</v>
@@ -3112,7 +3115,7 @@
         <v>2</v>
       </c>
       <c r="K20" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L20" s="14"/>
       <c r="M20" s="8">
@@ -3139,19 +3142,19 @@
         <v>0</v>
       </c>
       <c r="X20" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y20" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z20" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA20" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" spans="1:28">
@@ -3212,10 +3215,10 @@
         <v>2001050</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E23" s="8">
         <v>15003753</v>
@@ -3265,13 +3268,13 @@
         <v>1</v>
       </c>
       <c r="X23" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Y23" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z23" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA23" s="7">
         <v>0</v>
@@ -3412,10 +3415,10 @@
         <v>2002001</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
@@ -3468,10 +3471,10 @@
         <v>2002002</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E31" s="8">
         <v>15003753</v>
@@ -3521,19 +3524,19 @@
         <v>0</v>
       </c>
       <c r="X31" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y31" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z31" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA31" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB31" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC31">
         <v>2500010</v>
@@ -3574,10 +3577,10 @@
         <v>2002011</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
@@ -3635,10 +3638,10 @@
         <v>2002012</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E34" s="8">
         <v>15003751</v>
@@ -3688,19 +3691,19 @@
         <v>0</v>
       </c>
       <c r="X34" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y34" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z34" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA34" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AB34" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AC34">
         <v>2500011</v>
@@ -3762,10 +3765,10 @@
         <v>2003001</v>
       </c>
       <c r="C37" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
@@ -3822,10 +3825,10 @@
         <v>2003002</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E38" s="13">
         <v>15003751</v>
@@ -3846,7 +3849,7 @@
         <v>1</v>
       </c>
       <c r="K38" s="16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L38" s="16"/>
       <c r="M38" s="13">
@@ -3885,10 +3888,10 @@
         <v>2003003</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E39" s="13">
         <v>15003753</v>
@@ -3909,7 +3912,7 @@
         <v>2</v>
       </c>
       <c r="K39" s="16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L39" s="16"/>
       <c r="M39" s="13">
@@ -3948,10 +3951,10 @@
         <v>2003004</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E40" s="13">
         <v>15003754</v>
@@ -4014,10 +4017,10 @@
         <v>2003050</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E42" s="8">
         <v>15003751</v>
@@ -4038,7 +4041,7 @@
         <v>2</v>
       </c>
       <c r="K42" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L42" s="14"/>
       <c r="M42" s="8">
@@ -4069,19 +4072,19 @@
         <v>0</v>
       </c>
       <c r="X42" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y42" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z42" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA42" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB42" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" customFormat="1" spans="1:28">
@@ -4092,10 +4095,10 @@
         <v>2003051</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E43" s="8">
         <v>15003752</v>
@@ -4116,7 +4119,7 @@
         <v>2</v>
       </c>
       <c r="K43" s="14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L43" s="14"/>
       <c r="M43" s="8">
@@ -4145,19 +4148,19 @@
         <v>0</v>
       </c>
       <c r="X43" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y43" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z43" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA43" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB43" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" customFormat="1" spans="1:29">
@@ -4168,10 +4171,10 @@
         <v>2003052</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E44" s="8">
         <v>15003753</v>
@@ -4192,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="K44" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L44" s="14"/>
       <c r="M44" s="8">
@@ -4221,13 +4224,13 @@
         <v>0</v>
       </c>
       <c r="X44" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y44" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z44" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA44" s="7">
         <v>0</v>
@@ -4244,7 +4247,7 @@
     </row>
     <row r="48" spans="16:16">
       <c r="P48" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:28">
@@ -4255,10 +4258,10 @@
         <v>2005001</v>
       </c>
       <c r="C49" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D49" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E49" s="8">
         <v>15003753</v>
@@ -4279,10 +4282,10 @@
         <v>0</v>
       </c>
       <c r="K49" s="14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L49" s="14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M49" s="8">
         <v>0</v>
@@ -4310,13 +4313,13 @@
         <v>0</v>
       </c>
       <c r="X49" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y49" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z49" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA49" s="7">
         <v>0</v>
